--- a/Framework_DX11/Client/Bin/DataFiles/Option_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Option_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A88EAC-CD0C-45E9-9299-42566FBC0EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E361FFFB-942B-4C0E-A7DD-9B4F1D89B621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2290D950-B46F-496D-ABBD-627B5B361E37}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="192">
   <si>
     <t>_Drop1</t>
   </si>
@@ -611,6 +611,10 @@
   </si>
   <si>
     <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SlideDefault</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,21 +1101,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD76422B-C730-4758-9A3A-C411041C80A0}">
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
-    <col min="6" max="27" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="28" width="7.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
@@ -1140,61 +1144,64 @@
         <v>95</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" customHeight="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1276,8 +1283,11 @@
       <c r="AA2" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="AB2" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1359,8 +1369,11 @@
       <c r="AA3" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB3" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1442,8 +1455,11 @@
       <c r="AA4" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB4" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1477,45 +1493,45 @@
       <c r="K5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Y5" s="3" t="s">
         <v>102</v>
       </c>
@@ -1525,8 +1541,11 @@
       <c r="AA5" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB5" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1555,14 +1574,14 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>10</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M6" s="3" t="s">
         <v>102</v>
       </c>
@@ -1608,8 +1627,11 @@
       <c r="AA6" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB6" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1691,8 +1713,11 @@
       <c r="AA7" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB7" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1774,8 +1799,11 @@
       <c r="AA8" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB8" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15" customHeight="1">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1857,8 +1885,11 @@
       <c r="AA9" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB9" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1892,27 +1923,27 @@
       <c r="K10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="3">
         <v>5</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>102</v>
       </c>
@@ -1940,8 +1971,11 @@
       <c r="AA10" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB10" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1970,14 +2004,14 @@
         <v>5</v>
       </c>
       <c r="J11" s="3">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3">
         <v>10</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M11" s="3" t="s">
         <v>102</v>
       </c>
@@ -2023,8 +2057,11 @@
       <c r="AA11" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB11" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2106,8 +2143,11 @@
       <c r="AA12" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB12" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2189,8 +2229,11 @@
       <c r="AA13" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB13" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -2272,8 +2315,11 @@
       <c r="AA14" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB14" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -2355,9 +2401,11 @@
       <c r="AA15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AB15"/>
+      <c r="AB15" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -2439,8 +2487,11 @@
       <c r="AA16" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB16" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15" customHeight="1">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -2522,8 +2573,11 @@
       <c r="AA17" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB17" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="15" customHeight="1">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -2557,20 +2611,20 @@
       <c r="K18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="3">
         <v>7</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>115</v>
@@ -2582,7 +2636,7 @@
         <v>115</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>102</v>
@@ -2605,8 +2659,11 @@
       <c r="AA18" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB18" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="15" customHeight="1">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2635,14 +2692,14 @@
         <v>3</v>
       </c>
       <c r="J19" s="3">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3">
         <v>20</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M19" s="3" t="s">
         <v>102</v>
       </c>
@@ -2688,8 +2745,11 @@
       <c r="AA19" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB19" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15" customHeight="1">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2771,8 +2831,11 @@
       <c r="AA20" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB20" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="15" customHeight="1">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2854,8 +2917,11 @@
       <c r="AA21" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB21" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15" customHeight="1">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2937,8 +3003,11 @@
       <c r="AA22" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB22" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15" customHeight="1">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2972,18 +3041,18 @@
       <c r="K23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="3">
         <v>2</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>102</v>
       </c>
@@ -3020,8 +3089,11 @@
       <c r="AA23" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB23" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15" customHeight="1">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3050,14 +3122,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>20</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>102</v>
       </c>
@@ -3103,8 +3175,11 @@
       <c r="AA24" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB24" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15" customHeight="1">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -3186,8 +3261,11 @@
       <c r="AA25" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB25" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15" customHeight="1">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -3269,8 +3347,11 @@
       <c r="AA26" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB26" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15" customHeight="1">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -3352,8 +3433,11 @@
       <c r="AA27" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB27" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15" customHeight="1">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -3387,15 +3471,15 @@
       <c r="K28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="3">
         <v>1</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="O28" s="3" t="s">
         <v>102</v>
       </c>
@@ -3435,8 +3519,11 @@
       <c r="AA28" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB28" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15" customHeight="1">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -3465,14 +3552,14 @@
         <v>10</v>
       </c>
       <c r="J29" s="3">
+        <v>17</v>
+      </c>
+      <c r="K29" s="3">
         <v>20</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>102</v>
       </c>
@@ -3518,8 +3605,11 @@
       <c r="AA29" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB29" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15" customHeight="1">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -3601,8 +3691,11 @@
       <c r="AA30" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB30" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="6">
         <v>2</v>
       </c>
@@ -3684,9 +3777,11 @@
       <c r="AA31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AB31"/>
+      <c r="AB31" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15" customHeight="1">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -3768,8 +3863,11 @@
       <c r="AA32" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB32" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="15" customHeight="1">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -3851,8 +3949,11 @@
       <c r="AA33" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB33" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="15" customHeight="1">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -3886,11 +3987,11 @@
       <c r="K34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="3">
         <v>11</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>115</v>
@@ -3899,32 +4000,32 @@
         <v>115</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>123</v>
       </c>
       <c r="R34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="X34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="X34" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Y34" s="3" t="s">
         <v>102</v>
       </c>
@@ -3934,8 +4035,11 @@
       <c r="AA34" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB34" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="15" customHeight="1">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -3964,14 +4068,14 @@
         <v>22</v>
       </c>
       <c r="J35" s="3">
+        <v>25</v>
+      </c>
+      <c r="K35" s="3">
         <v>45</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>102</v>
       </c>
@@ -4017,8 +4121,11 @@
       <c r="AA35" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB35" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="15" customHeight="1">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -4100,8 +4207,11 @@
       <c r="AA36" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB36" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="37" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="15" customHeight="1">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -4183,8 +4293,11 @@
       <c r="AA37" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB37" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="15" customHeight="1">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -4266,8 +4379,11 @@
       <c r="AA38" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB38" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="39" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="15" customHeight="1">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -4301,18 +4417,18 @@
       <c r="K39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="3">
         <v>2</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="P39" s="3" t="s">
         <v>102</v>
       </c>
@@ -4349,8 +4465,11 @@
       <c r="AA39" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB39" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="40" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="15" customHeight="1">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -4379,14 +4498,14 @@
         <v>23</v>
       </c>
       <c r="J40" s="3">
+        <v>23</v>
+      </c>
+      <c r="K40" s="3">
         <v>45</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <v>2</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M40" s="3" t="s">
         <v>102</v>
       </c>
@@ -4432,8 +4551,11 @@
       <c r="AA40" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB40" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="41" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="15" customHeight="1">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -4515,8 +4637,11 @@
       <c r="AA41" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB41" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="42" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="15" customHeight="1">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -4598,8 +4723,11 @@
       <c r="AA42" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB42" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="43" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="6">
         <v>3</v>
       </c>
@@ -4681,9 +4809,11 @@
       <c r="AA43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AB43"/>
+      <c r="AB43" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="44" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="15" customHeight="1">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -4765,8 +4895,11 @@
       <c r="AA44" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB44" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="15" customHeight="1">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -4848,8 +4981,11 @@
       <c r="AA45" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB45" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="46" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="15" customHeight="1">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -4883,21 +5019,21 @@
       <c r="K46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" s="3">
         <v>3</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>102</v>
       </c>
@@ -4931,8 +5067,11 @@
       <c r="AA46" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB46" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="47" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="15" customHeight="1">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -4961,14 +5100,14 @@
         <v>11</v>
       </c>
       <c r="J47" s="3">
+        <v>123</v>
+      </c>
+      <c r="K47" s="3">
         <v>24</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>102</v>
       </c>
@@ -5014,8 +5153,11 @@
       <c r="AA47" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB47" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="48" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="15" customHeight="1">
       <c r="A48" s="2">
         <v>3</v>
       </c>
@@ -5097,8 +5239,11 @@
       <c r="AA48" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB48" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="49" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="15" customHeight="1">
       <c r="A49" s="2">
         <v>3</v>
       </c>
@@ -5180,8 +5325,11 @@
       <c r="AA49" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB49" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="50" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="15" customHeight="1">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -5263,8 +5411,11 @@
       <c r="AA50" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB50" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="51" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="15" customHeight="1">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -5298,42 +5449,42 @@
       <c r="K51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M51" s="3">
         <v>10</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="V51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V51" s="3" t="s">
+      <c r="W51" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W51" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="X51" s="3" t="s">
         <v>102</v>
       </c>
@@ -5346,8 +5497,11 @@
       <c r="AA51" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB51" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="52" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="15" customHeight="1">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -5376,14 +5530,14 @@
         <v>-111</v>
       </c>
       <c r="J52" s="3">
+        <v>22</v>
+      </c>
+      <c r="K52" s="3">
         <v>234</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>102</v>
       </c>
@@ -5429,8 +5583,11 @@
       <c r="AA52" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB52" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="53" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="15" customHeight="1">
       <c r="A53" s="2">
         <v>3</v>
       </c>
@@ -5512,8 +5669,11 @@
       <c r="AA53" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB53" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="54" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="15" customHeight="1">
       <c r="A54" s="2">
         <v>3</v>
       </c>
@@ -5595,8 +5755,11 @@
       <c r="AA54" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB54" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="55" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="15" customHeight="1">
       <c r="A55" s="2">
         <v>3</v>
       </c>
@@ -5678,8 +5841,11 @@
       <c r="AA55" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB55" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="56" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="15" customHeight="1">
       <c r="A56" s="2">
         <v>3</v>
       </c>
@@ -5713,21 +5879,21 @@
       <c r="K56" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" s="3">
         <v>3</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="O56" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="P56" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Q56" s="3" t="s">
         <v>102</v>
       </c>
@@ -5761,8 +5927,11 @@
       <c r="AA56" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB56" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="57" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" ht="15" customHeight="1">
       <c r="A57" s="2">
         <v>3</v>
       </c>
@@ -5791,14 +5960,14 @@
         <v>12</v>
       </c>
       <c r="J57" s="3">
+        <v>12</v>
+      </c>
+      <c r="K57" s="3">
         <v>14</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>102</v>
       </c>
@@ -5844,8 +6013,11 @@
       <c r="AA57" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB57" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="58" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="15" customHeight="1">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -5927,8 +6099,11 @@
       <c r="AA58" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB58" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="59" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="6">
         <v>4</v>
       </c>
@@ -6010,9 +6185,11 @@
       <c r="AA59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AB59"/>
+      <c r="AB59" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="60" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" ht="15" customHeight="1">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -6094,8 +6271,11 @@
       <c r="AA60" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB60" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="61" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="15" customHeight="1">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -6177,8 +6357,11 @@
       <c r="AA61" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB61" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="62" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="15" customHeight="1">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -6212,18 +6395,18 @@
       <c r="K62" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M62" s="3">
         <v>2</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>102</v>
       </c>
@@ -6260,8 +6443,11 @@
       <c r="AA62" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB62" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="63" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="15" customHeight="1">
       <c r="A63" s="2">
         <v>4</v>
       </c>
@@ -6290,14 +6476,14 @@
         <v>12</v>
       </c>
       <c r="J63" s="3">
+        <v>32</v>
+      </c>
+      <c r="K63" s="3">
         <v>34</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
         <v>3</v>
       </c>
-      <c r="L63" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="M63" s="3" t="s">
         <v>102</v>
       </c>
@@ -6343,8 +6529,11 @@
       <c r="AA63" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB63" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="64" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" ht="15" customHeight="1">
       <c r="A64" s="2">
         <v>4</v>
       </c>
@@ -6426,8 +6615,11 @@
       <c r="AA64" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB64" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="65" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="15" customHeight="1">
       <c r="A65" s="2">
         <v>4</v>
       </c>
@@ -6509,8 +6701,11 @@
       <c r="AA65" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB65" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="66" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="15" customHeight="1">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -6592,8 +6787,11 @@
       <c r="AA66" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB66" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="67" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="15" customHeight="1">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -6627,18 +6825,18 @@
       <c r="K67" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O67" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="P67" s="3" t="s">
         <v>102</v>
       </c>
@@ -6675,8 +6873,11 @@
       <c r="AA67" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="AB67" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="68" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="15" customHeight="1">
       <c r="A68" s="6">
         <v>5</v>
       </c>
@@ -6756,6 +6957,9 @@
         <v>102</v>
       </c>
       <c r="AA68" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB68" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6773,9 +6977,9 @@
       <selection sqref="A1:AA67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="A1" t="str">
         <f>IF(ISBLANK(Option_Info!A1),"x",Option_Info!A1)</f>
         <v>_TabNum</v>
@@ -6813,79 +7017,79 @@
         <v>_SlideMin</v>
       </c>
       <c r="J1" t="str">
-        <f>IF(ISBLANK(Option_Info!J1),"x",Option_Info!J1)</f>
+        <f>IF(ISBLANK(Option_Info!K1),"x",Option_Info!K1)</f>
         <v>_SlideMax</v>
       </c>
       <c r="K1" t="str">
-        <f>IF(ISBLANK(Option_Info!K1),"x",Option_Info!K1)</f>
+        <f>IF(ISBLANK(Option_Info!L1),"x",Option_Info!L1)</f>
         <v>_SlideInter</v>
       </c>
       <c r="L1" t="str">
-        <f>IF(ISBLANK(Option_Info!L1),"x",Option_Info!L1)</f>
+        <f>IF(ISBLANK(Option_Info!M1),"x",Option_Info!M1)</f>
         <v>_DropSize</v>
       </c>
       <c r="M1" t="str">
-        <f>IF(ISBLANK(Option_Info!M1),"x",Option_Info!M1)</f>
+        <f>IF(ISBLANK(Option_Info!N1),"x",Option_Info!N1)</f>
         <v>_Drop0</v>
       </c>
       <c r="N1" t="str">
-        <f>IF(ISBLANK(Option_Info!N1),"x",Option_Info!N1)</f>
+        <f>IF(ISBLANK(Option_Info!O1),"x",Option_Info!O1)</f>
         <v>_Drop1</v>
       </c>
       <c r="O1" t="str">
-        <f>IF(ISBLANK(Option_Info!O1),"x",Option_Info!O1)</f>
+        <f>IF(ISBLANK(Option_Info!P1),"x",Option_Info!P1)</f>
         <v>_Drop2</v>
       </c>
       <c r="P1" t="str">
-        <f>IF(ISBLANK(Option_Info!P1),"x",Option_Info!P1)</f>
+        <f>IF(ISBLANK(Option_Info!Q1),"x",Option_Info!Q1)</f>
         <v>_Drop3</v>
       </c>
       <c r="Q1" t="str">
-        <f>IF(ISBLANK(Option_Info!Q1),"x",Option_Info!Q1)</f>
+        <f>IF(ISBLANK(Option_Info!R1),"x",Option_Info!R1)</f>
         <v>_Drop4</v>
       </c>
       <c r="R1" t="str">
-        <f>IF(ISBLANK(Option_Info!R1),"x",Option_Info!R1)</f>
+        <f>IF(ISBLANK(Option_Info!S1),"x",Option_Info!S1)</f>
         <v>_Drop5</v>
       </c>
       <c r="S1" t="str">
-        <f>IF(ISBLANK(Option_Info!S1),"x",Option_Info!S1)</f>
+        <f>IF(ISBLANK(Option_Info!T1),"x",Option_Info!T1)</f>
         <v>_Drop6</v>
       </c>
       <c r="T1" t="str">
-        <f>IF(ISBLANK(Option_Info!T1),"x",Option_Info!T1)</f>
+        <f>IF(ISBLANK(Option_Info!U1),"x",Option_Info!U1)</f>
         <v>_Drop7</v>
       </c>
       <c r="U1" t="str">
-        <f>IF(ISBLANK(Option_Info!U1),"x",Option_Info!U1)</f>
+        <f>IF(ISBLANK(Option_Info!V1),"x",Option_Info!V1)</f>
         <v>_Drop8</v>
       </c>
       <c r="V1" t="str">
-        <f>IF(ISBLANK(Option_Info!V1),"x",Option_Info!V1)</f>
+        <f>IF(ISBLANK(Option_Info!W1),"x",Option_Info!W1)</f>
         <v>_Drop9</v>
       </c>
       <c r="W1" t="str">
-        <f>IF(ISBLANK(Option_Info!W1),"x",Option_Info!W1)</f>
+        <f>IF(ISBLANK(Option_Info!X1),"x",Option_Info!X1)</f>
         <v>_Drop10</v>
       </c>
       <c r="X1" t="str">
-        <f>IF(ISBLANK(Option_Info!X1),"x",Option_Info!X1)</f>
+        <f>IF(ISBLANK(Option_Info!Y1),"x",Option_Info!Y1)</f>
         <v>_Drop11</v>
       </c>
       <c r="Y1" t="str">
-        <f>IF(ISBLANK(Option_Info!Y1),"x",Option_Info!Y1)</f>
+        <f>IF(ISBLANK(Option_Info!Z1),"x",Option_Info!Z1)</f>
         <v>_Drop12</v>
       </c>
       <c r="Z1" t="str">
-        <f>IF(ISBLANK(Option_Info!Z1),"x",Option_Info!Z1)</f>
+        <f>IF(ISBLANK(Option_Info!AA1),"x",Option_Info!AA1)</f>
         <v>_Drop13</v>
       </c>
       <c r="AA1" t="str">
-        <f>IF(ISBLANK(Option_Info!AA1),"x",Option_Info!AA1)</f>
+        <f>IF(ISBLANK(Option_Info!AB1),"x",Option_Info!AB1)</f>
         <v>_Drop14</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2">
         <f>IF(ISBLANK(Option_Info!A2),"x",Option_Info!A2)</f>
         <v>0</v>
@@ -6923,79 +7127,79 @@
         <v>x</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(ISBLANK(Option_Info!J2),"x",Option_Info!J2)</f>
+        <f>IF(ISBLANK(Option_Info!K2),"x",Option_Info!K2)</f>
         <v>x</v>
       </c>
       <c r="K2" t="str">
-        <f>IF(ISBLANK(Option_Info!K2),"x",Option_Info!K2)</f>
+        <f>IF(ISBLANK(Option_Info!L2),"x",Option_Info!L2)</f>
         <v>x</v>
       </c>
       <c r="L2" t="str">
-        <f>IF(ISBLANK(Option_Info!L2),"x",Option_Info!L2)</f>
+        <f>IF(ISBLANK(Option_Info!M2),"x",Option_Info!M2)</f>
         <v>x</v>
       </c>
       <c r="M2" t="str">
-        <f>IF(ISBLANK(Option_Info!M2),"x",Option_Info!M2)</f>
+        <f>IF(ISBLANK(Option_Info!N2),"x",Option_Info!N2)</f>
         <v>x</v>
       </c>
       <c r="N2" t="str">
-        <f>IF(ISBLANK(Option_Info!N2),"x",Option_Info!N2)</f>
+        <f>IF(ISBLANK(Option_Info!O2),"x",Option_Info!O2)</f>
         <v>x</v>
       </c>
       <c r="O2" t="str">
-        <f>IF(ISBLANK(Option_Info!O2),"x",Option_Info!O2)</f>
+        <f>IF(ISBLANK(Option_Info!P2),"x",Option_Info!P2)</f>
         <v>x</v>
       </c>
       <c r="P2" t="str">
-        <f>IF(ISBLANK(Option_Info!P2),"x",Option_Info!P2)</f>
+        <f>IF(ISBLANK(Option_Info!Q2),"x",Option_Info!Q2)</f>
         <v>x</v>
       </c>
       <c r="Q2" t="str">
-        <f>IF(ISBLANK(Option_Info!Q2),"x",Option_Info!Q2)</f>
+        <f>IF(ISBLANK(Option_Info!R2),"x",Option_Info!R2)</f>
         <v>x</v>
       </c>
       <c r="R2" t="str">
-        <f>IF(ISBLANK(Option_Info!R2),"x",Option_Info!R2)</f>
+        <f>IF(ISBLANK(Option_Info!S2),"x",Option_Info!S2)</f>
         <v>x</v>
       </c>
       <c r="S2" t="str">
-        <f>IF(ISBLANK(Option_Info!S2),"x",Option_Info!S2)</f>
+        <f>IF(ISBLANK(Option_Info!T2),"x",Option_Info!T2)</f>
         <v>x</v>
       </c>
       <c r="T2" t="str">
-        <f>IF(ISBLANK(Option_Info!T2),"x",Option_Info!T2)</f>
+        <f>IF(ISBLANK(Option_Info!U2),"x",Option_Info!U2)</f>
         <v>x</v>
       </c>
       <c r="U2" t="str">
-        <f>IF(ISBLANK(Option_Info!U2),"x",Option_Info!U2)</f>
+        <f>IF(ISBLANK(Option_Info!V2),"x",Option_Info!V2)</f>
         <v>x</v>
       </c>
       <c r="V2" t="str">
-        <f>IF(ISBLANK(Option_Info!V2),"x",Option_Info!V2)</f>
+        <f>IF(ISBLANK(Option_Info!W2),"x",Option_Info!W2)</f>
         <v>x</v>
       </c>
       <c r="W2" t="str">
-        <f>IF(ISBLANK(Option_Info!W2),"x",Option_Info!W2)</f>
+        <f>IF(ISBLANK(Option_Info!X2),"x",Option_Info!X2)</f>
         <v>x</v>
       </c>
       <c r="X2" t="str">
-        <f>IF(ISBLANK(Option_Info!X2),"x",Option_Info!X2)</f>
+        <f>IF(ISBLANK(Option_Info!Y2),"x",Option_Info!Y2)</f>
         <v>x</v>
       </c>
       <c r="Y2" t="str">
-        <f>IF(ISBLANK(Option_Info!Y2),"x",Option_Info!Y2)</f>
+        <f>IF(ISBLANK(Option_Info!Z2),"x",Option_Info!Z2)</f>
         <v>x</v>
       </c>
       <c r="Z2" t="str">
-        <f>IF(ISBLANK(Option_Info!Z2),"x",Option_Info!Z2)</f>
+        <f>IF(ISBLANK(Option_Info!AA2),"x",Option_Info!AA2)</f>
         <v>x</v>
       </c>
       <c r="AA2" t="str">
-        <f>IF(ISBLANK(Option_Info!AA2),"x",Option_Info!AA2)</f>
+        <f>IF(ISBLANK(Option_Info!AB2),"x",Option_Info!AB2)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3">
         <f>IF(ISBLANK(Option_Info!A3),"x",Option_Info!A3)</f>
         <v>0</v>
@@ -7033,79 +7237,79 @@
         <v>x</v>
       </c>
       <c r="J3" t="str">
-        <f>IF(ISBLANK(Option_Info!J3),"x",Option_Info!J3)</f>
+        <f>IF(ISBLANK(Option_Info!K3),"x",Option_Info!K3)</f>
         <v>x</v>
       </c>
       <c r="K3" t="str">
-        <f>IF(ISBLANK(Option_Info!K3),"x",Option_Info!K3)</f>
+        <f>IF(ISBLANK(Option_Info!L3),"x",Option_Info!L3)</f>
         <v>x</v>
       </c>
       <c r="L3" t="str">
-        <f>IF(ISBLANK(Option_Info!L3),"x",Option_Info!L3)</f>
+        <f>IF(ISBLANK(Option_Info!M3),"x",Option_Info!M3)</f>
         <v>x</v>
       </c>
       <c r="M3" t="str">
-        <f>IF(ISBLANK(Option_Info!M3),"x",Option_Info!M3)</f>
+        <f>IF(ISBLANK(Option_Info!N3),"x",Option_Info!N3)</f>
         <v>x</v>
       </c>
       <c r="N3" t="str">
-        <f>IF(ISBLANK(Option_Info!N3),"x",Option_Info!N3)</f>
+        <f>IF(ISBLANK(Option_Info!O3),"x",Option_Info!O3)</f>
         <v>x</v>
       </c>
       <c r="O3" t="str">
-        <f>IF(ISBLANK(Option_Info!O3),"x",Option_Info!O3)</f>
+        <f>IF(ISBLANK(Option_Info!P3),"x",Option_Info!P3)</f>
         <v>x</v>
       </c>
       <c r="P3" t="str">
-        <f>IF(ISBLANK(Option_Info!P3),"x",Option_Info!P3)</f>
+        <f>IF(ISBLANK(Option_Info!Q3),"x",Option_Info!Q3)</f>
         <v>x</v>
       </c>
       <c r="Q3" t="str">
-        <f>IF(ISBLANK(Option_Info!Q3),"x",Option_Info!Q3)</f>
+        <f>IF(ISBLANK(Option_Info!R3),"x",Option_Info!R3)</f>
         <v>x</v>
       </c>
       <c r="R3" t="str">
-        <f>IF(ISBLANK(Option_Info!R3),"x",Option_Info!R3)</f>
+        <f>IF(ISBLANK(Option_Info!S3),"x",Option_Info!S3)</f>
         <v>x</v>
       </c>
       <c r="S3" t="str">
-        <f>IF(ISBLANK(Option_Info!S3),"x",Option_Info!S3)</f>
+        <f>IF(ISBLANK(Option_Info!T3),"x",Option_Info!T3)</f>
         <v>x</v>
       </c>
       <c r="T3" t="str">
-        <f>IF(ISBLANK(Option_Info!T3),"x",Option_Info!T3)</f>
+        <f>IF(ISBLANK(Option_Info!U3),"x",Option_Info!U3)</f>
         <v>x</v>
       </c>
       <c r="U3" t="str">
-        <f>IF(ISBLANK(Option_Info!U3),"x",Option_Info!U3)</f>
+        <f>IF(ISBLANK(Option_Info!V3),"x",Option_Info!V3)</f>
         <v>x</v>
       </c>
       <c r="V3" t="str">
-        <f>IF(ISBLANK(Option_Info!V3),"x",Option_Info!V3)</f>
+        <f>IF(ISBLANK(Option_Info!W3),"x",Option_Info!W3)</f>
         <v>x</v>
       </c>
       <c r="W3" t="str">
-        <f>IF(ISBLANK(Option_Info!W3),"x",Option_Info!W3)</f>
+        <f>IF(ISBLANK(Option_Info!X3),"x",Option_Info!X3)</f>
         <v>x</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(ISBLANK(Option_Info!X3),"x",Option_Info!X3)</f>
+        <f>IF(ISBLANK(Option_Info!Y3),"x",Option_Info!Y3)</f>
         <v>x</v>
       </c>
       <c r="Y3" t="str">
-        <f>IF(ISBLANK(Option_Info!Y3),"x",Option_Info!Y3)</f>
+        <f>IF(ISBLANK(Option_Info!Z3),"x",Option_Info!Z3)</f>
         <v>x</v>
       </c>
       <c r="Z3" t="str">
-        <f>IF(ISBLANK(Option_Info!Z3),"x",Option_Info!Z3)</f>
+        <f>IF(ISBLANK(Option_Info!AA3),"x",Option_Info!AA3)</f>
         <v>x</v>
       </c>
       <c r="AA3" t="str">
-        <f>IF(ISBLANK(Option_Info!AA3),"x",Option_Info!AA3)</f>
+        <f>IF(ISBLANK(Option_Info!AB3),"x",Option_Info!AB3)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27">
       <c r="A4">
         <f>IF(ISBLANK(Option_Info!A4),"x",Option_Info!A4)</f>
         <v>0</v>
@@ -7143,79 +7347,79 @@
         <v>x</v>
       </c>
       <c r="J4" t="str">
-        <f>IF(ISBLANK(Option_Info!J4),"x",Option_Info!J4)</f>
+        <f>IF(ISBLANK(Option_Info!K4),"x",Option_Info!K4)</f>
         <v>x</v>
       </c>
       <c r="K4" t="str">
-        <f>IF(ISBLANK(Option_Info!K4),"x",Option_Info!K4)</f>
+        <f>IF(ISBLANK(Option_Info!L4),"x",Option_Info!L4)</f>
         <v>x</v>
       </c>
       <c r="L4" t="str">
-        <f>IF(ISBLANK(Option_Info!L4),"x",Option_Info!L4)</f>
+        <f>IF(ISBLANK(Option_Info!M4),"x",Option_Info!M4)</f>
         <v>x</v>
       </c>
       <c r="M4" t="str">
-        <f>IF(ISBLANK(Option_Info!M4),"x",Option_Info!M4)</f>
+        <f>IF(ISBLANK(Option_Info!N4),"x",Option_Info!N4)</f>
         <v>x</v>
       </c>
       <c r="N4" t="str">
-        <f>IF(ISBLANK(Option_Info!N4),"x",Option_Info!N4)</f>
+        <f>IF(ISBLANK(Option_Info!O4),"x",Option_Info!O4)</f>
         <v>x</v>
       </c>
       <c r="O4" t="str">
-        <f>IF(ISBLANK(Option_Info!O4),"x",Option_Info!O4)</f>
+        <f>IF(ISBLANK(Option_Info!P4),"x",Option_Info!P4)</f>
         <v>x</v>
       </c>
       <c r="P4" t="str">
-        <f>IF(ISBLANK(Option_Info!P4),"x",Option_Info!P4)</f>
+        <f>IF(ISBLANK(Option_Info!Q4),"x",Option_Info!Q4)</f>
         <v>x</v>
       </c>
       <c r="Q4" t="str">
-        <f>IF(ISBLANK(Option_Info!Q4),"x",Option_Info!Q4)</f>
+        <f>IF(ISBLANK(Option_Info!R4),"x",Option_Info!R4)</f>
         <v>x</v>
       </c>
       <c r="R4" t="str">
-        <f>IF(ISBLANK(Option_Info!R4),"x",Option_Info!R4)</f>
+        <f>IF(ISBLANK(Option_Info!S4),"x",Option_Info!S4)</f>
         <v>x</v>
       </c>
       <c r="S4" t="str">
-        <f>IF(ISBLANK(Option_Info!S4),"x",Option_Info!S4)</f>
+        <f>IF(ISBLANK(Option_Info!T4),"x",Option_Info!T4)</f>
         <v>x</v>
       </c>
       <c r="T4" t="str">
-        <f>IF(ISBLANK(Option_Info!T4),"x",Option_Info!T4)</f>
+        <f>IF(ISBLANK(Option_Info!U4),"x",Option_Info!U4)</f>
         <v>x</v>
       </c>
       <c r="U4" t="str">
-        <f>IF(ISBLANK(Option_Info!U4),"x",Option_Info!U4)</f>
+        <f>IF(ISBLANK(Option_Info!V4),"x",Option_Info!V4)</f>
         <v>x</v>
       </c>
       <c r="V4" t="str">
-        <f>IF(ISBLANK(Option_Info!V4),"x",Option_Info!V4)</f>
+        <f>IF(ISBLANK(Option_Info!W4),"x",Option_Info!W4)</f>
         <v>x</v>
       </c>
       <c r="W4" t="str">
-        <f>IF(ISBLANK(Option_Info!W4),"x",Option_Info!W4)</f>
+        <f>IF(ISBLANK(Option_Info!X4),"x",Option_Info!X4)</f>
         <v>x</v>
       </c>
       <c r="X4" t="str">
-        <f>IF(ISBLANK(Option_Info!X4),"x",Option_Info!X4)</f>
+        <f>IF(ISBLANK(Option_Info!Y4),"x",Option_Info!Y4)</f>
         <v>x</v>
       </c>
       <c r="Y4" t="str">
-        <f>IF(ISBLANK(Option_Info!Y4),"x",Option_Info!Y4)</f>
+        <f>IF(ISBLANK(Option_Info!Z4),"x",Option_Info!Z4)</f>
         <v>x</v>
       </c>
       <c r="Z4" t="str">
-        <f>IF(ISBLANK(Option_Info!Z4),"x",Option_Info!Z4)</f>
+        <f>IF(ISBLANK(Option_Info!AA4),"x",Option_Info!AA4)</f>
         <v>x</v>
       </c>
       <c r="AA4" t="str">
-        <f>IF(ISBLANK(Option_Info!AA4),"x",Option_Info!AA4)</f>
+        <f>IF(ISBLANK(Option_Info!AB4),"x",Option_Info!AB4)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5">
         <f>IF(ISBLANK(Option_Info!A5),"x",Option_Info!A5)</f>
         <v>0</v>
@@ -7253,79 +7457,79 @@
         <v>x</v>
       </c>
       <c r="J5" t="str">
-        <f>IF(ISBLANK(Option_Info!J5),"x",Option_Info!J5)</f>
+        <f>IF(ISBLANK(Option_Info!K5),"x",Option_Info!K5)</f>
         <v>x</v>
       </c>
       <c r="K5" t="str">
-        <f>IF(ISBLANK(Option_Info!K5),"x",Option_Info!K5)</f>
+        <f>IF(ISBLANK(Option_Info!L5),"x",Option_Info!L5)</f>
         <v>x</v>
       </c>
       <c r="L5">
-        <f>IF(ISBLANK(Option_Info!L5),"x",Option_Info!L5)</f>
+        <f>IF(ISBLANK(Option_Info!M5),"x",Option_Info!M5)</f>
         <v>10</v>
       </c>
       <c r="M5" t="str">
-        <f>IF(ISBLANK(Option_Info!M5),"x",Option_Info!M5)</f>
+        <f>IF(ISBLANK(Option_Info!N5),"x",Option_Info!N5)</f>
         <v>일</v>
       </c>
       <c r="N5" t="str">
-        <f>IF(ISBLANK(Option_Info!N5),"x",Option_Info!N5)</f>
+        <f>IF(ISBLANK(Option_Info!O5),"x",Option_Info!O5)</f>
         <v>이</v>
       </c>
       <c r="O5" t="str">
-        <f>IF(ISBLANK(Option_Info!O5),"x",Option_Info!O5)</f>
+        <f>IF(ISBLANK(Option_Info!P5),"x",Option_Info!P5)</f>
         <v>삼</v>
       </c>
       <c r="P5" t="str">
-        <f>IF(ISBLANK(Option_Info!P5),"x",Option_Info!P5)</f>
+        <f>IF(ISBLANK(Option_Info!Q5),"x",Option_Info!Q5)</f>
         <v>사</v>
       </c>
       <c r="Q5" t="str">
-        <f>IF(ISBLANK(Option_Info!Q5),"x",Option_Info!Q5)</f>
+        <f>IF(ISBLANK(Option_Info!R5),"x",Option_Info!R5)</f>
         <v>오</v>
       </c>
       <c r="R5" t="str">
-        <f>IF(ISBLANK(Option_Info!R5),"x",Option_Info!R5)</f>
+        <f>IF(ISBLANK(Option_Info!S5),"x",Option_Info!S5)</f>
         <v>월</v>
       </c>
       <c r="S5" t="str">
-        <f>IF(ISBLANK(Option_Info!S5),"x",Option_Info!S5)</f>
+        <f>IF(ISBLANK(Option_Info!T5),"x",Option_Info!T5)</f>
         <v>이</v>
       </c>
       <c r="T5" t="str">
-        <f>IF(ISBLANK(Option_Info!T5),"x",Option_Info!T5)</f>
+        <f>IF(ISBLANK(Option_Info!U5),"x",Option_Info!U5)</f>
         <v>삼</v>
       </c>
       <c r="U5" t="str">
-        <f>IF(ISBLANK(Option_Info!U5),"x",Option_Info!U5)</f>
+        <f>IF(ISBLANK(Option_Info!V5),"x",Option_Info!V5)</f>
         <v>미</v>
       </c>
       <c r="V5" t="str">
-        <f>IF(ISBLANK(Option_Info!V5),"x",Option_Info!V5)</f>
+        <f>IF(ISBLANK(Option_Info!W5),"x",Option_Info!W5)</f>
         <v>신</v>
       </c>
       <c r="W5" t="str">
-        <f>IF(ISBLANK(Option_Info!W5),"x",Option_Info!W5)</f>
+        <f>IF(ISBLANK(Option_Info!X5),"x",Option_Info!X5)</f>
         <v>화</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(ISBLANK(Option_Info!X5),"x",Option_Info!X5)</f>
+        <f>IF(ISBLANK(Option_Info!Y5),"x",Option_Info!Y5)</f>
         <v>x</v>
       </c>
       <c r="Y5" t="str">
-        <f>IF(ISBLANK(Option_Info!Y5),"x",Option_Info!Y5)</f>
+        <f>IF(ISBLANK(Option_Info!Z5),"x",Option_Info!Z5)</f>
         <v>x</v>
       </c>
       <c r="Z5" t="str">
-        <f>IF(ISBLANK(Option_Info!Z5),"x",Option_Info!Z5)</f>
+        <f>IF(ISBLANK(Option_Info!AA5),"x",Option_Info!AA5)</f>
         <v>x</v>
       </c>
       <c r="AA5" t="str">
-        <f>IF(ISBLANK(Option_Info!AA5),"x",Option_Info!AA5)</f>
+        <f>IF(ISBLANK(Option_Info!AB5),"x",Option_Info!AB5)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6">
         <f>IF(ISBLANK(Option_Info!A6),"x",Option_Info!A6)</f>
         <v>0</v>
@@ -7363,79 +7567,79 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>IF(ISBLANK(Option_Info!J6),"x",Option_Info!J6)</f>
+        <f>IF(ISBLANK(Option_Info!K6),"x",Option_Info!K6)</f>
         <v>10</v>
       </c>
       <c r="K6">
-        <f>IF(ISBLANK(Option_Info!K6),"x",Option_Info!K6)</f>
+        <f>IF(ISBLANK(Option_Info!L6),"x",Option_Info!L6)</f>
         <v>1</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(ISBLANK(Option_Info!L6),"x",Option_Info!L6)</f>
+        <f>IF(ISBLANK(Option_Info!M6),"x",Option_Info!M6)</f>
         <v>x</v>
       </c>
       <c r="M6" t="str">
-        <f>IF(ISBLANK(Option_Info!M6),"x",Option_Info!M6)</f>
+        <f>IF(ISBLANK(Option_Info!N6),"x",Option_Info!N6)</f>
         <v>x</v>
       </c>
       <c r="N6" t="str">
-        <f>IF(ISBLANK(Option_Info!N6),"x",Option_Info!N6)</f>
+        <f>IF(ISBLANK(Option_Info!O6),"x",Option_Info!O6)</f>
         <v>x</v>
       </c>
       <c r="O6" t="str">
-        <f>IF(ISBLANK(Option_Info!O6),"x",Option_Info!O6)</f>
+        <f>IF(ISBLANK(Option_Info!P6),"x",Option_Info!P6)</f>
         <v>x</v>
       </c>
       <c r="P6" t="str">
-        <f>IF(ISBLANK(Option_Info!P6),"x",Option_Info!P6)</f>
+        <f>IF(ISBLANK(Option_Info!Q6),"x",Option_Info!Q6)</f>
         <v>x</v>
       </c>
       <c r="Q6" t="str">
-        <f>IF(ISBLANK(Option_Info!Q6),"x",Option_Info!Q6)</f>
+        <f>IF(ISBLANK(Option_Info!R6),"x",Option_Info!R6)</f>
         <v>x</v>
       </c>
       <c r="R6" t="str">
-        <f>IF(ISBLANK(Option_Info!R6),"x",Option_Info!R6)</f>
+        <f>IF(ISBLANK(Option_Info!S6),"x",Option_Info!S6)</f>
         <v>x</v>
       </c>
       <c r="S6" t="str">
-        <f>IF(ISBLANK(Option_Info!S6),"x",Option_Info!S6)</f>
+        <f>IF(ISBLANK(Option_Info!T6),"x",Option_Info!T6)</f>
         <v>x</v>
       </c>
       <c r="T6" t="str">
-        <f>IF(ISBLANK(Option_Info!T6),"x",Option_Info!T6)</f>
+        <f>IF(ISBLANK(Option_Info!U6),"x",Option_Info!U6)</f>
         <v>x</v>
       </c>
       <c r="U6" t="str">
-        <f>IF(ISBLANK(Option_Info!U6),"x",Option_Info!U6)</f>
+        <f>IF(ISBLANK(Option_Info!V6),"x",Option_Info!V6)</f>
         <v>x</v>
       </c>
       <c r="V6" t="str">
-        <f>IF(ISBLANK(Option_Info!V6),"x",Option_Info!V6)</f>
+        <f>IF(ISBLANK(Option_Info!W6),"x",Option_Info!W6)</f>
         <v>x</v>
       </c>
       <c r="W6" t="str">
-        <f>IF(ISBLANK(Option_Info!W6),"x",Option_Info!W6)</f>
+        <f>IF(ISBLANK(Option_Info!X6),"x",Option_Info!X6)</f>
         <v>x</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(ISBLANK(Option_Info!X6),"x",Option_Info!X6)</f>
+        <f>IF(ISBLANK(Option_Info!Y6),"x",Option_Info!Y6)</f>
         <v>x</v>
       </c>
       <c r="Y6" t="str">
-        <f>IF(ISBLANK(Option_Info!Y6),"x",Option_Info!Y6)</f>
+        <f>IF(ISBLANK(Option_Info!Z6),"x",Option_Info!Z6)</f>
         <v>x</v>
       </c>
       <c r="Z6" t="str">
-        <f>IF(ISBLANK(Option_Info!Z6),"x",Option_Info!Z6)</f>
+        <f>IF(ISBLANK(Option_Info!AA6),"x",Option_Info!AA6)</f>
         <v>x</v>
       </c>
       <c r="AA6" t="str">
-        <f>IF(ISBLANK(Option_Info!AA6),"x",Option_Info!AA6)</f>
+        <f>IF(ISBLANK(Option_Info!AB6),"x",Option_Info!AB6)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27">
       <c r="A7">
         <f>IF(ISBLANK(Option_Info!A7),"x",Option_Info!A7)</f>
         <v>0</v>
@@ -7473,79 +7677,79 @@
         <v>x</v>
       </c>
       <c r="J7" t="str">
-        <f>IF(ISBLANK(Option_Info!J7),"x",Option_Info!J7)</f>
+        <f>IF(ISBLANK(Option_Info!K7),"x",Option_Info!K7)</f>
         <v>x</v>
       </c>
       <c r="K7" t="str">
-        <f>IF(ISBLANK(Option_Info!K7),"x",Option_Info!K7)</f>
+        <f>IF(ISBLANK(Option_Info!L7),"x",Option_Info!L7)</f>
         <v>x</v>
       </c>
       <c r="L7" t="str">
-        <f>IF(ISBLANK(Option_Info!L7),"x",Option_Info!L7)</f>
+        <f>IF(ISBLANK(Option_Info!M7),"x",Option_Info!M7)</f>
         <v>x</v>
       </c>
       <c r="M7" t="str">
-        <f>IF(ISBLANK(Option_Info!M7),"x",Option_Info!M7)</f>
+        <f>IF(ISBLANK(Option_Info!N7),"x",Option_Info!N7)</f>
         <v>x</v>
       </c>
       <c r="N7" t="str">
-        <f>IF(ISBLANK(Option_Info!N7),"x",Option_Info!N7)</f>
+        <f>IF(ISBLANK(Option_Info!O7),"x",Option_Info!O7)</f>
         <v>x</v>
       </c>
       <c r="O7" t="str">
-        <f>IF(ISBLANK(Option_Info!O7),"x",Option_Info!O7)</f>
+        <f>IF(ISBLANK(Option_Info!P7),"x",Option_Info!P7)</f>
         <v>x</v>
       </c>
       <c r="P7" t="str">
-        <f>IF(ISBLANK(Option_Info!P7),"x",Option_Info!P7)</f>
+        <f>IF(ISBLANK(Option_Info!Q7),"x",Option_Info!Q7)</f>
         <v>x</v>
       </c>
       <c r="Q7" t="str">
-        <f>IF(ISBLANK(Option_Info!Q7),"x",Option_Info!Q7)</f>
+        <f>IF(ISBLANK(Option_Info!R7),"x",Option_Info!R7)</f>
         <v>x</v>
       </c>
       <c r="R7" t="str">
-        <f>IF(ISBLANK(Option_Info!R7),"x",Option_Info!R7)</f>
+        <f>IF(ISBLANK(Option_Info!S7),"x",Option_Info!S7)</f>
         <v>x</v>
       </c>
       <c r="S7" t="str">
-        <f>IF(ISBLANK(Option_Info!S7),"x",Option_Info!S7)</f>
+        <f>IF(ISBLANK(Option_Info!T7),"x",Option_Info!T7)</f>
         <v>x</v>
       </c>
       <c r="T7" t="str">
-        <f>IF(ISBLANK(Option_Info!T7),"x",Option_Info!T7)</f>
+        <f>IF(ISBLANK(Option_Info!U7),"x",Option_Info!U7)</f>
         <v>x</v>
       </c>
       <c r="U7" t="str">
-        <f>IF(ISBLANK(Option_Info!U7),"x",Option_Info!U7)</f>
+        <f>IF(ISBLANK(Option_Info!V7),"x",Option_Info!V7)</f>
         <v>x</v>
       </c>
       <c r="V7" t="str">
-        <f>IF(ISBLANK(Option_Info!V7),"x",Option_Info!V7)</f>
+        <f>IF(ISBLANK(Option_Info!W7),"x",Option_Info!W7)</f>
         <v>x</v>
       </c>
       <c r="W7" t="str">
-        <f>IF(ISBLANK(Option_Info!W7),"x",Option_Info!W7)</f>
+        <f>IF(ISBLANK(Option_Info!X7),"x",Option_Info!X7)</f>
         <v>x</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(ISBLANK(Option_Info!X7),"x",Option_Info!X7)</f>
+        <f>IF(ISBLANK(Option_Info!Y7),"x",Option_Info!Y7)</f>
         <v>x</v>
       </c>
       <c r="Y7" t="str">
-        <f>IF(ISBLANK(Option_Info!Y7),"x",Option_Info!Y7)</f>
+        <f>IF(ISBLANK(Option_Info!Z7),"x",Option_Info!Z7)</f>
         <v>x</v>
       </c>
       <c r="Z7" t="str">
-        <f>IF(ISBLANK(Option_Info!Z7),"x",Option_Info!Z7)</f>
+        <f>IF(ISBLANK(Option_Info!AA7),"x",Option_Info!AA7)</f>
         <v>x</v>
       </c>
       <c r="AA7" t="str">
-        <f>IF(ISBLANK(Option_Info!AA7),"x",Option_Info!AA7)</f>
+        <f>IF(ISBLANK(Option_Info!AB7),"x",Option_Info!AB7)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8">
         <f>IF(ISBLANK(Option_Info!A8),"x",Option_Info!A8)</f>
         <v>0</v>
@@ -7583,79 +7787,79 @@
         <v>x</v>
       </c>
       <c r="J8" t="str">
-        <f>IF(ISBLANK(Option_Info!J8),"x",Option_Info!J8)</f>
+        <f>IF(ISBLANK(Option_Info!K8),"x",Option_Info!K8)</f>
         <v>x</v>
       </c>
       <c r="K8" t="str">
-        <f>IF(ISBLANK(Option_Info!K8),"x",Option_Info!K8)</f>
+        <f>IF(ISBLANK(Option_Info!L8),"x",Option_Info!L8)</f>
         <v>x</v>
       </c>
       <c r="L8" t="str">
-        <f>IF(ISBLANK(Option_Info!L8),"x",Option_Info!L8)</f>
+        <f>IF(ISBLANK(Option_Info!M8),"x",Option_Info!M8)</f>
         <v>x</v>
       </c>
       <c r="M8" t="str">
-        <f>IF(ISBLANK(Option_Info!M8),"x",Option_Info!M8)</f>
+        <f>IF(ISBLANK(Option_Info!N8),"x",Option_Info!N8)</f>
         <v>x</v>
       </c>
       <c r="N8" t="str">
-        <f>IF(ISBLANK(Option_Info!N8),"x",Option_Info!N8)</f>
+        <f>IF(ISBLANK(Option_Info!O8),"x",Option_Info!O8)</f>
         <v>x</v>
       </c>
       <c r="O8" t="str">
-        <f>IF(ISBLANK(Option_Info!O8),"x",Option_Info!O8)</f>
+        <f>IF(ISBLANK(Option_Info!P8),"x",Option_Info!P8)</f>
         <v>x</v>
       </c>
       <c r="P8" t="str">
-        <f>IF(ISBLANK(Option_Info!P8),"x",Option_Info!P8)</f>
+        <f>IF(ISBLANK(Option_Info!Q8),"x",Option_Info!Q8)</f>
         <v>x</v>
       </c>
       <c r="Q8" t="str">
-        <f>IF(ISBLANK(Option_Info!Q8),"x",Option_Info!Q8)</f>
+        <f>IF(ISBLANK(Option_Info!R8),"x",Option_Info!R8)</f>
         <v>x</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(ISBLANK(Option_Info!R8),"x",Option_Info!R8)</f>
+        <f>IF(ISBLANK(Option_Info!S8),"x",Option_Info!S8)</f>
         <v>x</v>
       </c>
       <c r="S8" t="str">
-        <f>IF(ISBLANK(Option_Info!S8),"x",Option_Info!S8)</f>
+        <f>IF(ISBLANK(Option_Info!T8),"x",Option_Info!T8)</f>
         <v>x</v>
       </c>
       <c r="T8" t="str">
-        <f>IF(ISBLANK(Option_Info!T8),"x",Option_Info!T8)</f>
+        <f>IF(ISBLANK(Option_Info!U8),"x",Option_Info!U8)</f>
         <v>x</v>
       </c>
       <c r="U8" t="str">
-        <f>IF(ISBLANK(Option_Info!U8),"x",Option_Info!U8)</f>
+        <f>IF(ISBLANK(Option_Info!V8),"x",Option_Info!V8)</f>
         <v>x</v>
       </c>
       <c r="V8" t="str">
-        <f>IF(ISBLANK(Option_Info!V8),"x",Option_Info!V8)</f>
+        <f>IF(ISBLANK(Option_Info!W8),"x",Option_Info!W8)</f>
         <v>x</v>
       </c>
       <c r="W8" t="str">
-        <f>IF(ISBLANK(Option_Info!W8),"x",Option_Info!W8)</f>
+        <f>IF(ISBLANK(Option_Info!X8),"x",Option_Info!X8)</f>
         <v>x</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(ISBLANK(Option_Info!X8),"x",Option_Info!X8)</f>
+        <f>IF(ISBLANK(Option_Info!Y8),"x",Option_Info!Y8)</f>
         <v>x</v>
       </c>
       <c r="Y8" t="str">
-        <f>IF(ISBLANK(Option_Info!Y8),"x",Option_Info!Y8)</f>
+        <f>IF(ISBLANK(Option_Info!Z8),"x",Option_Info!Z8)</f>
         <v>x</v>
       </c>
       <c r="Z8" t="str">
-        <f>IF(ISBLANK(Option_Info!Z8),"x",Option_Info!Z8)</f>
+        <f>IF(ISBLANK(Option_Info!AA8),"x",Option_Info!AA8)</f>
         <v>x</v>
       </c>
       <c r="AA8" t="str">
-        <f>IF(ISBLANK(Option_Info!AA8),"x",Option_Info!AA8)</f>
+        <f>IF(ISBLANK(Option_Info!AB8),"x",Option_Info!AB8)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27">
       <c r="A9">
         <f>IF(ISBLANK(Option_Info!A9),"x",Option_Info!A9)</f>
         <v>0</v>
@@ -7693,79 +7897,79 @@
         <v>x</v>
       </c>
       <c r="J9" t="str">
-        <f>IF(ISBLANK(Option_Info!J9),"x",Option_Info!J9)</f>
+        <f>IF(ISBLANK(Option_Info!K9),"x",Option_Info!K9)</f>
         <v>x</v>
       </c>
       <c r="K9" t="str">
-        <f>IF(ISBLANK(Option_Info!K9),"x",Option_Info!K9)</f>
+        <f>IF(ISBLANK(Option_Info!L9),"x",Option_Info!L9)</f>
         <v>x</v>
       </c>
       <c r="L9" t="str">
-        <f>IF(ISBLANK(Option_Info!L9),"x",Option_Info!L9)</f>
+        <f>IF(ISBLANK(Option_Info!M9),"x",Option_Info!M9)</f>
         <v>x</v>
       </c>
       <c r="M9" t="str">
-        <f>IF(ISBLANK(Option_Info!M9),"x",Option_Info!M9)</f>
+        <f>IF(ISBLANK(Option_Info!N9),"x",Option_Info!N9)</f>
         <v>x</v>
       </c>
       <c r="N9" t="str">
-        <f>IF(ISBLANK(Option_Info!N9),"x",Option_Info!N9)</f>
+        <f>IF(ISBLANK(Option_Info!O9),"x",Option_Info!O9)</f>
         <v>x</v>
       </c>
       <c r="O9" t="str">
-        <f>IF(ISBLANK(Option_Info!O9),"x",Option_Info!O9)</f>
+        <f>IF(ISBLANK(Option_Info!P9),"x",Option_Info!P9)</f>
         <v>x</v>
       </c>
       <c r="P9" t="str">
-        <f>IF(ISBLANK(Option_Info!P9),"x",Option_Info!P9)</f>
+        <f>IF(ISBLANK(Option_Info!Q9),"x",Option_Info!Q9)</f>
         <v>x</v>
       </c>
       <c r="Q9" t="str">
-        <f>IF(ISBLANK(Option_Info!Q9),"x",Option_Info!Q9)</f>
+        <f>IF(ISBLANK(Option_Info!R9),"x",Option_Info!R9)</f>
         <v>x</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(ISBLANK(Option_Info!R9),"x",Option_Info!R9)</f>
+        <f>IF(ISBLANK(Option_Info!S9),"x",Option_Info!S9)</f>
         <v>x</v>
       </c>
       <c r="S9" t="str">
-        <f>IF(ISBLANK(Option_Info!S9),"x",Option_Info!S9)</f>
+        <f>IF(ISBLANK(Option_Info!T9),"x",Option_Info!T9)</f>
         <v>x</v>
       </c>
       <c r="T9" t="str">
-        <f>IF(ISBLANK(Option_Info!T9),"x",Option_Info!T9)</f>
+        <f>IF(ISBLANK(Option_Info!U9),"x",Option_Info!U9)</f>
         <v>x</v>
       </c>
       <c r="U9" t="str">
-        <f>IF(ISBLANK(Option_Info!U9),"x",Option_Info!U9)</f>
+        <f>IF(ISBLANK(Option_Info!V9),"x",Option_Info!V9)</f>
         <v>x</v>
       </c>
       <c r="V9" t="str">
-        <f>IF(ISBLANK(Option_Info!V9),"x",Option_Info!V9)</f>
+        <f>IF(ISBLANK(Option_Info!W9),"x",Option_Info!W9)</f>
         <v>x</v>
       </c>
       <c r="W9" t="str">
-        <f>IF(ISBLANK(Option_Info!W9),"x",Option_Info!W9)</f>
+        <f>IF(ISBLANK(Option_Info!X9),"x",Option_Info!X9)</f>
         <v>x</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(ISBLANK(Option_Info!X9),"x",Option_Info!X9)</f>
+        <f>IF(ISBLANK(Option_Info!Y9),"x",Option_Info!Y9)</f>
         <v>x</v>
       </c>
       <c r="Y9" t="str">
-        <f>IF(ISBLANK(Option_Info!Y9),"x",Option_Info!Y9)</f>
+        <f>IF(ISBLANK(Option_Info!Z9),"x",Option_Info!Z9)</f>
         <v>x</v>
       </c>
       <c r="Z9" t="str">
-        <f>IF(ISBLANK(Option_Info!Z9),"x",Option_Info!Z9)</f>
+        <f>IF(ISBLANK(Option_Info!AA9),"x",Option_Info!AA9)</f>
         <v>x</v>
       </c>
       <c r="AA9" t="str">
-        <f>IF(ISBLANK(Option_Info!AA9),"x",Option_Info!AA9)</f>
+        <f>IF(ISBLANK(Option_Info!AB9),"x",Option_Info!AB9)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27">
       <c r="A10">
         <f>IF(ISBLANK(Option_Info!A10),"x",Option_Info!A10)</f>
         <v>0</v>
@@ -7803,79 +8007,79 @@
         <v>x</v>
       </c>
       <c r="J10" t="str">
-        <f>IF(ISBLANK(Option_Info!J10),"x",Option_Info!J10)</f>
+        <f>IF(ISBLANK(Option_Info!K10),"x",Option_Info!K10)</f>
         <v>x</v>
       </c>
       <c r="K10" t="str">
-        <f>IF(ISBLANK(Option_Info!K10),"x",Option_Info!K10)</f>
+        <f>IF(ISBLANK(Option_Info!L10),"x",Option_Info!L10)</f>
         <v>x</v>
       </c>
       <c r="L10">
-        <f>IF(ISBLANK(Option_Info!L10),"x",Option_Info!L10)</f>
+        <f>IF(ISBLANK(Option_Info!M10),"x",Option_Info!M10)</f>
         <v>5</v>
       </c>
       <c r="M10" t="str">
-        <f>IF(ISBLANK(Option_Info!M10),"x",Option_Info!M10)</f>
+        <f>IF(ISBLANK(Option_Info!N10),"x",Option_Info!N10)</f>
         <v>와</v>
       </c>
       <c r="N10" t="str">
-        <f>IF(ISBLANK(Option_Info!N10),"x",Option_Info!N10)</f>
+        <f>IF(ISBLANK(Option_Info!O10),"x",Option_Info!O10)</f>
         <v>오</v>
       </c>
       <c r="O10" t="str">
-        <f>IF(ISBLANK(Option_Info!O10),"x",Option_Info!O10)</f>
+        <f>IF(ISBLANK(Option_Info!P10),"x",Option_Info!P10)</f>
         <v>das</v>
       </c>
       <c r="P10" t="str">
-        <f>IF(ISBLANK(Option_Info!P10),"x",Option_Info!P10)</f>
+        <f>IF(ISBLANK(Option_Info!Q10),"x",Option_Info!Q10)</f>
         <v>qwe</v>
       </c>
       <c r="Q10" t="str">
-        <f>IF(ISBLANK(Option_Info!Q10),"x",Option_Info!Q10)</f>
+        <f>IF(ISBLANK(Option_Info!R10),"x",Option_Info!R10)</f>
         <v>wqe</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(ISBLANK(Option_Info!R10),"x",Option_Info!R10)</f>
+        <f>IF(ISBLANK(Option_Info!S10),"x",Option_Info!S10)</f>
         <v>x</v>
       </c>
       <c r="S10" t="str">
-        <f>IF(ISBLANK(Option_Info!S10),"x",Option_Info!S10)</f>
+        <f>IF(ISBLANK(Option_Info!T10),"x",Option_Info!T10)</f>
         <v>x</v>
       </c>
       <c r="T10" t="str">
-        <f>IF(ISBLANK(Option_Info!T10),"x",Option_Info!T10)</f>
+        <f>IF(ISBLANK(Option_Info!U10),"x",Option_Info!U10)</f>
         <v>x</v>
       </c>
       <c r="U10" t="str">
-        <f>IF(ISBLANK(Option_Info!U10),"x",Option_Info!U10)</f>
+        <f>IF(ISBLANK(Option_Info!V10),"x",Option_Info!V10)</f>
         <v>x</v>
       </c>
       <c r="V10" t="str">
-        <f>IF(ISBLANK(Option_Info!V10),"x",Option_Info!V10)</f>
+        <f>IF(ISBLANK(Option_Info!W10),"x",Option_Info!W10)</f>
         <v>x</v>
       </c>
       <c r="W10" t="str">
-        <f>IF(ISBLANK(Option_Info!W10),"x",Option_Info!W10)</f>
+        <f>IF(ISBLANK(Option_Info!X10),"x",Option_Info!X10)</f>
         <v>x</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(ISBLANK(Option_Info!X10),"x",Option_Info!X10)</f>
+        <f>IF(ISBLANK(Option_Info!Y10),"x",Option_Info!Y10)</f>
         <v>x</v>
       </c>
       <c r="Y10" t="str">
-        <f>IF(ISBLANK(Option_Info!Y10),"x",Option_Info!Y10)</f>
+        <f>IF(ISBLANK(Option_Info!Z10),"x",Option_Info!Z10)</f>
         <v>x</v>
       </c>
       <c r="Z10" t="str">
-        <f>IF(ISBLANK(Option_Info!Z10),"x",Option_Info!Z10)</f>
+        <f>IF(ISBLANK(Option_Info!AA10),"x",Option_Info!AA10)</f>
         <v>x</v>
       </c>
       <c r="AA10" t="str">
-        <f>IF(ISBLANK(Option_Info!AA10),"x",Option_Info!AA10)</f>
+        <f>IF(ISBLANK(Option_Info!AB10),"x",Option_Info!AB10)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27">
       <c r="A11">
         <f>IF(ISBLANK(Option_Info!A11),"x",Option_Info!A11)</f>
         <v>0</v>
@@ -7913,79 +8117,79 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f>IF(ISBLANK(Option_Info!J11),"x",Option_Info!J11)</f>
+        <f>IF(ISBLANK(Option_Info!K11),"x",Option_Info!K11)</f>
         <v>10</v>
       </c>
       <c r="K11">
-        <f>IF(ISBLANK(Option_Info!K11),"x",Option_Info!K11)</f>
+        <f>IF(ISBLANK(Option_Info!L11),"x",Option_Info!L11)</f>
         <v>1</v>
       </c>
       <c r="L11" t="str">
-        <f>IF(ISBLANK(Option_Info!L11),"x",Option_Info!L11)</f>
+        <f>IF(ISBLANK(Option_Info!M11),"x",Option_Info!M11)</f>
         <v>x</v>
       </c>
       <c r="M11" t="str">
-        <f>IF(ISBLANK(Option_Info!M11),"x",Option_Info!M11)</f>
+        <f>IF(ISBLANK(Option_Info!N11),"x",Option_Info!N11)</f>
         <v>x</v>
       </c>
       <c r="N11" t="str">
-        <f>IF(ISBLANK(Option_Info!N11),"x",Option_Info!N11)</f>
+        <f>IF(ISBLANK(Option_Info!O11),"x",Option_Info!O11)</f>
         <v>x</v>
       </c>
       <c r="O11" t="str">
-        <f>IF(ISBLANK(Option_Info!O11),"x",Option_Info!O11)</f>
+        <f>IF(ISBLANK(Option_Info!P11),"x",Option_Info!P11)</f>
         <v>x</v>
       </c>
       <c r="P11" t="str">
-        <f>IF(ISBLANK(Option_Info!P11),"x",Option_Info!P11)</f>
+        <f>IF(ISBLANK(Option_Info!Q11),"x",Option_Info!Q11)</f>
         <v>x</v>
       </c>
       <c r="Q11" t="str">
-        <f>IF(ISBLANK(Option_Info!Q11),"x",Option_Info!Q11)</f>
+        <f>IF(ISBLANK(Option_Info!R11),"x",Option_Info!R11)</f>
         <v>x</v>
       </c>
       <c r="R11" t="str">
-        <f>IF(ISBLANK(Option_Info!R11),"x",Option_Info!R11)</f>
+        <f>IF(ISBLANK(Option_Info!S11),"x",Option_Info!S11)</f>
         <v>x</v>
       </c>
       <c r="S11" t="str">
-        <f>IF(ISBLANK(Option_Info!S11),"x",Option_Info!S11)</f>
+        <f>IF(ISBLANK(Option_Info!T11),"x",Option_Info!T11)</f>
         <v>x</v>
       </c>
       <c r="T11" t="str">
-        <f>IF(ISBLANK(Option_Info!T11),"x",Option_Info!T11)</f>
+        <f>IF(ISBLANK(Option_Info!U11),"x",Option_Info!U11)</f>
         <v>x</v>
       </c>
       <c r="U11" t="str">
-        <f>IF(ISBLANK(Option_Info!U11),"x",Option_Info!U11)</f>
+        <f>IF(ISBLANK(Option_Info!V11),"x",Option_Info!V11)</f>
         <v>x</v>
       </c>
       <c r="V11" t="str">
-        <f>IF(ISBLANK(Option_Info!V11),"x",Option_Info!V11)</f>
+        <f>IF(ISBLANK(Option_Info!W11),"x",Option_Info!W11)</f>
         <v>x</v>
       </c>
       <c r="W11" t="str">
-        <f>IF(ISBLANK(Option_Info!W11),"x",Option_Info!W11)</f>
+        <f>IF(ISBLANK(Option_Info!X11),"x",Option_Info!X11)</f>
         <v>x</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(ISBLANK(Option_Info!X11),"x",Option_Info!X11)</f>
+        <f>IF(ISBLANK(Option_Info!Y11),"x",Option_Info!Y11)</f>
         <v>x</v>
       </c>
       <c r="Y11" t="str">
-        <f>IF(ISBLANK(Option_Info!Y11),"x",Option_Info!Y11)</f>
+        <f>IF(ISBLANK(Option_Info!Z11),"x",Option_Info!Z11)</f>
         <v>x</v>
       </c>
       <c r="Z11" t="str">
-        <f>IF(ISBLANK(Option_Info!Z11),"x",Option_Info!Z11)</f>
+        <f>IF(ISBLANK(Option_Info!AA11),"x",Option_Info!AA11)</f>
         <v>x</v>
       </c>
       <c r="AA11" t="str">
-        <f>IF(ISBLANK(Option_Info!AA11),"x",Option_Info!AA11)</f>
+        <f>IF(ISBLANK(Option_Info!AB11),"x",Option_Info!AB11)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27">
       <c r="A12">
         <f>IF(ISBLANK(Option_Info!A12),"x",Option_Info!A12)</f>
         <v>0</v>
@@ -8023,79 +8227,79 @@
         <v>x</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(ISBLANK(Option_Info!J12),"x",Option_Info!J12)</f>
+        <f>IF(ISBLANK(Option_Info!K12),"x",Option_Info!K12)</f>
         <v>x</v>
       </c>
       <c r="K12" t="str">
-        <f>IF(ISBLANK(Option_Info!K12),"x",Option_Info!K12)</f>
+        <f>IF(ISBLANK(Option_Info!L12),"x",Option_Info!L12)</f>
         <v>x</v>
       </c>
       <c r="L12" t="str">
-        <f>IF(ISBLANK(Option_Info!L12),"x",Option_Info!L12)</f>
+        <f>IF(ISBLANK(Option_Info!M12),"x",Option_Info!M12)</f>
         <v>x</v>
       </c>
       <c r="M12" t="str">
-        <f>IF(ISBLANK(Option_Info!M12),"x",Option_Info!M12)</f>
+        <f>IF(ISBLANK(Option_Info!N12),"x",Option_Info!N12)</f>
         <v>x</v>
       </c>
       <c r="N12" t="str">
-        <f>IF(ISBLANK(Option_Info!N12),"x",Option_Info!N12)</f>
+        <f>IF(ISBLANK(Option_Info!O12),"x",Option_Info!O12)</f>
         <v>x</v>
       </c>
       <c r="O12" t="str">
-        <f>IF(ISBLANK(Option_Info!O12),"x",Option_Info!O12)</f>
+        <f>IF(ISBLANK(Option_Info!P12),"x",Option_Info!P12)</f>
         <v>x</v>
       </c>
       <c r="P12" t="str">
-        <f>IF(ISBLANK(Option_Info!P12),"x",Option_Info!P12)</f>
+        <f>IF(ISBLANK(Option_Info!Q12),"x",Option_Info!Q12)</f>
         <v>x</v>
       </c>
       <c r="Q12" t="str">
-        <f>IF(ISBLANK(Option_Info!Q12),"x",Option_Info!Q12)</f>
+        <f>IF(ISBLANK(Option_Info!R12),"x",Option_Info!R12)</f>
         <v>x</v>
       </c>
       <c r="R12" t="str">
-        <f>IF(ISBLANK(Option_Info!R12),"x",Option_Info!R12)</f>
+        <f>IF(ISBLANK(Option_Info!S12),"x",Option_Info!S12)</f>
         <v>x</v>
       </c>
       <c r="S12" t="str">
-        <f>IF(ISBLANK(Option_Info!S12),"x",Option_Info!S12)</f>
+        <f>IF(ISBLANK(Option_Info!T12),"x",Option_Info!T12)</f>
         <v>x</v>
       </c>
       <c r="T12" t="str">
-        <f>IF(ISBLANK(Option_Info!T12),"x",Option_Info!T12)</f>
+        <f>IF(ISBLANK(Option_Info!U12),"x",Option_Info!U12)</f>
         <v>x</v>
       </c>
       <c r="U12" t="str">
-        <f>IF(ISBLANK(Option_Info!U12),"x",Option_Info!U12)</f>
+        <f>IF(ISBLANK(Option_Info!V12),"x",Option_Info!V12)</f>
         <v>x</v>
       </c>
       <c r="V12" t="str">
-        <f>IF(ISBLANK(Option_Info!V12),"x",Option_Info!V12)</f>
+        <f>IF(ISBLANK(Option_Info!W12),"x",Option_Info!W12)</f>
         <v>x</v>
       </c>
       <c r="W12" t="str">
-        <f>IF(ISBLANK(Option_Info!W12),"x",Option_Info!W12)</f>
+        <f>IF(ISBLANK(Option_Info!X12),"x",Option_Info!X12)</f>
         <v>x</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(ISBLANK(Option_Info!X12),"x",Option_Info!X12)</f>
+        <f>IF(ISBLANK(Option_Info!Y12),"x",Option_Info!Y12)</f>
         <v>x</v>
       </c>
       <c r="Y12" t="str">
-        <f>IF(ISBLANK(Option_Info!Y12),"x",Option_Info!Y12)</f>
+        <f>IF(ISBLANK(Option_Info!Z12),"x",Option_Info!Z12)</f>
         <v>x</v>
       </c>
       <c r="Z12" t="str">
-        <f>IF(ISBLANK(Option_Info!Z12),"x",Option_Info!Z12)</f>
+        <f>IF(ISBLANK(Option_Info!AA12),"x",Option_Info!AA12)</f>
         <v>x</v>
       </c>
       <c r="AA12" t="str">
-        <f>IF(ISBLANK(Option_Info!AA12),"x",Option_Info!AA12)</f>
+        <f>IF(ISBLANK(Option_Info!AB12),"x",Option_Info!AB12)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27">
       <c r="A13">
         <f>IF(ISBLANK(Option_Info!A13),"x",Option_Info!A13)</f>
         <v>0</v>
@@ -8133,79 +8337,79 @@
         <v>x</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(ISBLANK(Option_Info!J13),"x",Option_Info!J13)</f>
+        <f>IF(ISBLANK(Option_Info!K13),"x",Option_Info!K13)</f>
         <v>x</v>
       </c>
       <c r="K13" t="str">
-        <f>IF(ISBLANK(Option_Info!K13),"x",Option_Info!K13)</f>
+        <f>IF(ISBLANK(Option_Info!L13),"x",Option_Info!L13)</f>
         <v>x</v>
       </c>
       <c r="L13" t="str">
-        <f>IF(ISBLANK(Option_Info!L13),"x",Option_Info!L13)</f>
+        <f>IF(ISBLANK(Option_Info!M13),"x",Option_Info!M13)</f>
         <v>x</v>
       </c>
       <c r="M13" t="str">
-        <f>IF(ISBLANK(Option_Info!M13),"x",Option_Info!M13)</f>
+        <f>IF(ISBLANK(Option_Info!N13),"x",Option_Info!N13)</f>
         <v>x</v>
       </c>
       <c r="N13" t="str">
-        <f>IF(ISBLANK(Option_Info!N13),"x",Option_Info!N13)</f>
+        <f>IF(ISBLANK(Option_Info!O13),"x",Option_Info!O13)</f>
         <v>x</v>
       </c>
       <c r="O13" t="str">
-        <f>IF(ISBLANK(Option_Info!O13),"x",Option_Info!O13)</f>
+        <f>IF(ISBLANK(Option_Info!P13),"x",Option_Info!P13)</f>
         <v>x</v>
       </c>
       <c r="P13" t="str">
-        <f>IF(ISBLANK(Option_Info!P13),"x",Option_Info!P13)</f>
+        <f>IF(ISBLANK(Option_Info!Q13),"x",Option_Info!Q13)</f>
         <v>x</v>
       </c>
       <c r="Q13" t="str">
-        <f>IF(ISBLANK(Option_Info!Q13),"x",Option_Info!Q13)</f>
+        <f>IF(ISBLANK(Option_Info!R13),"x",Option_Info!R13)</f>
         <v>x</v>
       </c>
       <c r="R13" t="str">
-        <f>IF(ISBLANK(Option_Info!R13),"x",Option_Info!R13)</f>
+        <f>IF(ISBLANK(Option_Info!S13),"x",Option_Info!S13)</f>
         <v>x</v>
       </c>
       <c r="S13" t="str">
-        <f>IF(ISBLANK(Option_Info!S13),"x",Option_Info!S13)</f>
+        <f>IF(ISBLANK(Option_Info!T13),"x",Option_Info!T13)</f>
         <v>x</v>
       </c>
       <c r="T13" t="str">
-        <f>IF(ISBLANK(Option_Info!T13),"x",Option_Info!T13)</f>
+        <f>IF(ISBLANK(Option_Info!U13),"x",Option_Info!U13)</f>
         <v>x</v>
       </c>
       <c r="U13" t="str">
-        <f>IF(ISBLANK(Option_Info!U13),"x",Option_Info!U13)</f>
+        <f>IF(ISBLANK(Option_Info!V13),"x",Option_Info!V13)</f>
         <v>x</v>
       </c>
       <c r="V13" t="str">
-        <f>IF(ISBLANK(Option_Info!V13),"x",Option_Info!V13)</f>
+        <f>IF(ISBLANK(Option_Info!W13),"x",Option_Info!W13)</f>
         <v>x</v>
       </c>
       <c r="W13" t="str">
-        <f>IF(ISBLANK(Option_Info!W13),"x",Option_Info!W13)</f>
+        <f>IF(ISBLANK(Option_Info!X13),"x",Option_Info!X13)</f>
         <v>x</v>
       </c>
       <c r="X13" t="str">
-        <f>IF(ISBLANK(Option_Info!X13),"x",Option_Info!X13)</f>
+        <f>IF(ISBLANK(Option_Info!Y13),"x",Option_Info!Y13)</f>
         <v>x</v>
       </c>
       <c r="Y13" t="str">
-        <f>IF(ISBLANK(Option_Info!Y13),"x",Option_Info!Y13)</f>
+        <f>IF(ISBLANK(Option_Info!Z13),"x",Option_Info!Z13)</f>
         <v>x</v>
       </c>
       <c r="Z13" t="str">
-        <f>IF(ISBLANK(Option_Info!Z13),"x",Option_Info!Z13)</f>
+        <f>IF(ISBLANK(Option_Info!AA13),"x",Option_Info!AA13)</f>
         <v>x</v>
       </c>
       <c r="AA13" t="str">
-        <f>IF(ISBLANK(Option_Info!AA13),"x",Option_Info!AA13)</f>
+        <f>IF(ISBLANK(Option_Info!AB13),"x",Option_Info!AB13)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27">
       <c r="A14">
         <f>IF(ISBLANK(Option_Info!A14),"x",Option_Info!A14)</f>
         <v>0</v>
@@ -8243,79 +8447,79 @@
         <v>x</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(ISBLANK(Option_Info!J14),"x",Option_Info!J14)</f>
+        <f>IF(ISBLANK(Option_Info!K14),"x",Option_Info!K14)</f>
         <v>x</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(ISBLANK(Option_Info!K14),"x",Option_Info!K14)</f>
+        <f>IF(ISBLANK(Option_Info!L14),"x",Option_Info!L14)</f>
         <v>x</v>
       </c>
       <c r="L14" t="str">
-        <f>IF(ISBLANK(Option_Info!L14),"x",Option_Info!L14)</f>
+        <f>IF(ISBLANK(Option_Info!M14),"x",Option_Info!M14)</f>
         <v>x</v>
       </c>
       <c r="M14" t="str">
-        <f>IF(ISBLANK(Option_Info!M14),"x",Option_Info!M14)</f>
+        <f>IF(ISBLANK(Option_Info!N14),"x",Option_Info!N14)</f>
         <v>x</v>
       </c>
       <c r="N14" t="str">
-        <f>IF(ISBLANK(Option_Info!N14),"x",Option_Info!N14)</f>
+        <f>IF(ISBLANK(Option_Info!O14),"x",Option_Info!O14)</f>
         <v>x</v>
       </c>
       <c r="O14" t="str">
-        <f>IF(ISBLANK(Option_Info!O14),"x",Option_Info!O14)</f>
+        <f>IF(ISBLANK(Option_Info!P14),"x",Option_Info!P14)</f>
         <v>x</v>
       </c>
       <c r="P14" t="str">
-        <f>IF(ISBLANK(Option_Info!P14),"x",Option_Info!P14)</f>
+        <f>IF(ISBLANK(Option_Info!Q14),"x",Option_Info!Q14)</f>
         <v>x</v>
       </c>
       <c r="Q14" t="str">
-        <f>IF(ISBLANK(Option_Info!Q14),"x",Option_Info!Q14)</f>
+        <f>IF(ISBLANK(Option_Info!R14),"x",Option_Info!R14)</f>
         <v>x</v>
       </c>
       <c r="R14" t="str">
-        <f>IF(ISBLANK(Option_Info!R14),"x",Option_Info!R14)</f>
+        <f>IF(ISBLANK(Option_Info!S14),"x",Option_Info!S14)</f>
         <v>x</v>
       </c>
       <c r="S14" t="str">
-        <f>IF(ISBLANK(Option_Info!S14),"x",Option_Info!S14)</f>
+        <f>IF(ISBLANK(Option_Info!T14),"x",Option_Info!T14)</f>
         <v>x</v>
       </c>
       <c r="T14" t="str">
-        <f>IF(ISBLANK(Option_Info!T14),"x",Option_Info!T14)</f>
+        <f>IF(ISBLANK(Option_Info!U14),"x",Option_Info!U14)</f>
         <v>x</v>
       </c>
       <c r="U14" t="str">
-        <f>IF(ISBLANK(Option_Info!U14),"x",Option_Info!U14)</f>
+        <f>IF(ISBLANK(Option_Info!V14),"x",Option_Info!V14)</f>
         <v>x</v>
       </c>
       <c r="V14" t="str">
-        <f>IF(ISBLANK(Option_Info!V14),"x",Option_Info!V14)</f>
+        <f>IF(ISBLANK(Option_Info!W14),"x",Option_Info!W14)</f>
         <v>x</v>
       </c>
       <c r="W14" t="str">
-        <f>IF(ISBLANK(Option_Info!W14),"x",Option_Info!W14)</f>
+        <f>IF(ISBLANK(Option_Info!X14),"x",Option_Info!X14)</f>
         <v>x</v>
       </c>
       <c r="X14" t="str">
-        <f>IF(ISBLANK(Option_Info!X14),"x",Option_Info!X14)</f>
+        <f>IF(ISBLANK(Option_Info!Y14),"x",Option_Info!Y14)</f>
         <v>x</v>
       </c>
       <c r="Y14" t="str">
-        <f>IF(ISBLANK(Option_Info!Y14),"x",Option_Info!Y14)</f>
+        <f>IF(ISBLANK(Option_Info!Z14),"x",Option_Info!Z14)</f>
         <v>x</v>
       </c>
       <c r="Z14" t="str">
-        <f>IF(ISBLANK(Option_Info!Z14),"x",Option_Info!Z14)</f>
+        <f>IF(ISBLANK(Option_Info!AA14),"x",Option_Info!AA14)</f>
         <v>x</v>
       </c>
       <c r="AA14" t="str">
-        <f>IF(ISBLANK(Option_Info!AA14),"x",Option_Info!AA14)</f>
+        <f>IF(ISBLANK(Option_Info!AB14),"x",Option_Info!AB14)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27">
       <c r="A15">
         <f>IF(ISBLANK(Option_Info!A15),"x",Option_Info!A15)</f>
         <v>1</v>
@@ -8353,79 +8557,79 @@
         <v>x</v>
       </c>
       <c r="J15" t="str">
-        <f>IF(ISBLANK(Option_Info!J15),"x",Option_Info!J15)</f>
+        <f>IF(ISBLANK(Option_Info!K15),"x",Option_Info!K15)</f>
         <v>x</v>
       </c>
       <c r="K15" t="str">
-        <f>IF(ISBLANK(Option_Info!K15),"x",Option_Info!K15)</f>
+        <f>IF(ISBLANK(Option_Info!L15),"x",Option_Info!L15)</f>
         <v>x</v>
       </c>
       <c r="L15" t="str">
-        <f>IF(ISBLANK(Option_Info!L15),"x",Option_Info!L15)</f>
+        <f>IF(ISBLANK(Option_Info!M15),"x",Option_Info!M15)</f>
         <v>x</v>
       </c>
       <c r="M15" t="str">
-        <f>IF(ISBLANK(Option_Info!M15),"x",Option_Info!M15)</f>
+        <f>IF(ISBLANK(Option_Info!N15),"x",Option_Info!N15)</f>
         <v>x</v>
       </c>
       <c r="N15" t="str">
-        <f>IF(ISBLANK(Option_Info!N15),"x",Option_Info!N15)</f>
+        <f>IF(ISBLANK(Option_Info!O15),"x",Option_Info!O15)</f>
         <v>x</v>
       </c>
       <c r="O15" t="str">
-        <f>IF(ISBLANK(Option_Info!O15),"x",Option_Info!O15)</f>
+        <f>IF(ISBLANK(Option_Info!P15),"x",Option_Info!P15)</f>
         <v>x</v>
       </c>
       <c r="P15" t="str">
-        <f>IF(ISBLANK(Option_Info!P15),"x",Option_Info!P15)</f>
+        <f>IF(ISBLANK(Option_Info!Q15),"x",Option_Info!Q15)</f>
         <v>x</v>
       </c>
       <c r="Q15" t="str">
-        <f>IF(ISBLANK(Option_Info!Q15),"x",Option_Info!Q15)</f>
+        <f>IF(ISBLANK(Option_Info!R15),"x",Option_Info!R15)</f>
         <v>x</v>
       </c>
       <c r="R15" t="str">
-        <f>IF(ISBLANK(Option_Info!R15),"x",Option_Info!R15)</f>
+        <f>IF(ISBLANK(Option_Info!S15),"x",Option_Info!S15)</f>
         <v>x</v>
       </c>
       <c r="S15" t="str">
-        <f>IF(ISBLANK(Option_Info!S15),"x",Option_Info!S15)</f>
+        <f>IF(ISBLANK(Option_Info!T15),"x",Option_Info!T15)</f>
         <v>x</v>
       </c>
       <c r="T15" t="str">
-        <f>IF(ISBLANK(Option_Info!T15),"x",Option_Info!T15)</f>
+        <f>IF(ISBLANK(Option_Info!U15),"x",Option_Info!U15)</f>
         <v>x</v>
       </c>
       <c r="U15" t="str">
-        <f>IF(ISBLANK(Option_Info!U15),"x",Option_Info!U15)</f>
+        <f>IF(ISBLANK(Option_Info!V15),"x",Option_Info!V15)</f>
         <v>x</v>
       </c>
       <c r="V15" t="str">
-        <f>IF(ISBLANK(Option_Info!V15),"x",Option_Info!V15)</f>
+        <f>IF(ISBLANK(Option_Info!W15),"x",Option_Info!W15)</f>
         <v>x</v>
       </c>
       <c r="W15" t="str">
-        <f>IF(ISBLANK(Option_Info!W15),"x",Option_Info!W15)</f>
+        <f>IF(ISBLANK(Option_Info!X15),"x",Option_Info!X15)</f>
         <v>x</v>
       </c>
       <c r="X15" t="str">
-        <f>IF(ISBLANK(Option_Info!X15),"x",Option_Info!X15)</f>
+        <f>IF(ISBLANK(Option_Info!Y15),"x",Option_Info!Y15)</f>
         <v>x</v>
       </c>
       <c r="Y15" t="str">
-        <f>IF(ISBLANK(Option_Info!Y15),"x",Option_Info!Y15)</f>
+        <f>IF(ISBLANK(Option_Info!Z15),"x",Option_Info!Z15)</f>
         <v>x</v>
       </c>
       <c r="Z15" t="str">
-        <f>IF(ISBLANK(Option_Info!Z15),"x",Option_Info!Z15)</f>
+        <f>IF(ISBLANK(Option_Info!AA15),"x",Option_Info!AA15)</f>
         <v>x</v>
       </c>
       <c r="AA15" t="str">
-        <f>IF(ISBLANK(Option_Info!AA15),"x",Option_Info!AA15)</f>
+        <f>IF(ISBLANK(Option_Info!AB15),"x",Option_Info!AB15)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27">
       <c r="A16">
         <f>IF(ISBLANK(Option_Info!A16),"x",Option_Info!A16)</f>
         <v>1</v>
@@ -8463,79 +8667,79 @@
         <v>x</v>
       </c>
       <c r="J16" t="str">
-        <f>IF(ISBLANK(Option_Info!J16),"x",Option_Info!J16)</f>
+        <f>IF(ISBLANK(Option_Info!K16),"x",Option_Info!K16)</f>
         <v>x</v>
       </c>
       <c r="K16" t="str">
-        <f>IF(ISBLANK(Option_Info!K16),"x",Option_Info!K16)</f>
+        <f>IF(ISBLANK(Option_Info!L16),"x",Option_Info!L16)</f>
         <v>x</v>
       </c>
       <c r="L16" t="str">
-        <f>IF(ISBLANK(Option_Info!L16),"x",Option_Info!L16)</f>
+        <f>IF(ISBLANK(Option_Info!M16),"x",Option_Info!M16)</f>
         <v>x</v>
       </c>
       <c r="M16" t="str">
-        <f>IF(ISBLANK(Option_Info!M16),"x",Option_Info!M16)</f>
+        <f>IF(ISBLANK(Option_Info!N16),"x",Option_Info!N16)</f>
         <v>x</v>
       </c>
       <c r="N16" t="str">
-        <f>IF(ISBLANK(Option_Info!N16),"x",Option_Info!N16)</f>
+        <f>IF(ISBLANK(Option_Info!O16),"x",Option_Info!O16)</f>
         <v>x</v>
       </c>
       <c r="O16" t="str">
-        <f>IF(ISBLANK(Option_Info!O16),"x",Option_Info!O16)</f>
+        <f>IF(ISBLANK(Option_Info!P16),"x",Option_Info!P16)</f>
         <v>x</v>
       </c>
       <c r="P16" t="str">
-        <f>IF(ISBLANK(Option_Info!P16),"x",Option_Info!P16)</f>
+        <f>IF(ISBLANK(Option_Info!Q16),"x",Option_Info!Q16)</f>
         <v>x</v>
       </c>
       <c r="Q16" t="str">
-        <f>IF(ISBLANK(Option_Info!Q16),"x",Option_Info!Q16)</f>
+        <f>IF(ISBLANK(Option_Info!R16),"x",Option_Info!R16)</f>
         <v>x</v>
       </c>
       <c r="R16" t="str">
-        <f>IF(ISBLANK(Option_Info!R16),"x",Option_Info!R16)</f>
+        <f>IF(ISBLANK(Option_Info!S16),"x",Option_Info!S16)</f>
         <v>x</v>
       </c>
       <c r="S16" t="str">
-        <f>IF(ISBLANK(Option_Info!S16),"x",Option_Info!S16)</f>
+        <f>IF(ISBLANK(Option_Info!T16),"x",Option_Info!T16)</f>
         <v>x</v>
       </c>
       <c r="T16" t="str">
-        <f>IF(ISBLANK(Option_Info!T16),"x",Option_Info!T16)</f>
+        <f>IF(ISBLANK(Option_Info!U16),"x",Option_Info!U16)</f>
         <v>x</v>
       </c>
       <c r="U16" t="str">
-        <f>IF(ISBLANK(Option_Info!U16),"x",Option_Info!U16)</f>
+        <f>IF(ISBLANK(Option_Info!V16),"x",Option_Info!V16)</f>
         <v>x</v>
       </c>
       <c r="V16" t="str">
-        <f>IF(ISBLANK(Option_Info!V16),"x",Option_Info!V16)</f>
+        <f>IF(ISBLANK(Option_Info!W16),"x",Option_Info!W16)</f>
         <v>x</v>
       </c>
       <c r="W16" t="str">
-        <f>IF(ISBLANK(Option_Info!W16),"x",Option_Info!W16)</f>
+        <f>IF(ISBLANK(Option_Info!X16),"x",Option_Info!X16)</f>
         <v>x</v>
       </c>
       <c r="X16" t="str">
-        <f>IF(ISBLANK(Option_Info!X16),"x",Option_Info!X16)</f>
+        <f>IF(ISBLANK(Option_Info!Y16),"x",Option_Info!Y16)</f>
         <v>x</v>
       </c>
       <c r="Y16" t="str">
-        <f>IF(ISBLANK(Option_Info!Y16),"x",Option_Info!Y16)</f>
+        <f>IF(ISBLANK(Option_Info!Z16),"x",Option_Info!Z16)</f>
         <v>x</v>
       </c>
       <c r="Z16" t="str">
-        <f>IF(ISBLANK(Option_Info!Z16),"x",Option_Info!Z16)</f>
+        <f>IF(ISBLANK(Option_Info!AA16),"x",Option_Info!AA16)</f>
         <v>x</v>
       </c>
       <c r="AA16" t="str">
-        <f>IF(ISBLANK(Option_Info!AA16),"x",Option_Info!AA16)</f>
+        <f>IF(ISBLANK(Option_Info!AB16),"x",Option_Info!AB16)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17">
         <f>IF(ISBLANK(Option_Info!A17),"x",Option_Info!A17)</f>
         <v>1</v>
@@ -8573,79 +8777,79 @@
         <v>x</v>
       </c>
       <c r="J17" t="str">
-        <f>IF(ISBLANK(Option_Info!J17),"x",Option_Info!J17)</f>
+        <f>IF(ISBLANK(Option_Info!K17),"x",Option_Info!K17)</f>
         <v>x</v>
       </c>
       <c r="K17" t="str">
-        <f>IF(ISBLANK(Option_Info!K17),"x",Option_Info!K17)</f>
+        <f>IF(ISBLANK(Option_Info!L17),"x",Option_Info!L17)</f>
         <v>x</v>
       </c>
       <c r="L17" t="str">
-        <f>IF(ISBLANK(Option_Info!L17),"x",Option_Info!L17)</f>
+        <f>IF(ISBLANK(Option_Info!M17),"x",Option_Info!M17)</f>
         <v>x</v>
       </c>
       <c r="M17" t="str">
-        <f>IF(ISBLANK(Option_Info!M17),"x",Option_Info!M17)</f>
+        <f>IF(ISBLANK(Option_Info!N17),"x",Option_Info!N17)</f>
         <v>x</v>
       </c>
       <c r="N17" t="str">
-        <f>IF(ISBLANK(Option_Info!N17),"x",Option_Info!N17)</f>
+        <f>IF(ISBLANK(Option_Info!O17),"x",Option_Info!O17)</f>
         <v>x</v>
       </c>
       <c r="O17" t="str">
-        <f>IF(ISBLANK(Option_Info!O17),"x",Option_Info!O17)</f>
+        <f>IF(ISBLANK(Option_Info!P17),"x",Option_Info!P17)</f>
         <v>x</v>
       </c>
       <c r="P17" t="str">
-        <f>IF(ISBLANK(Option_Info!P17),"x",Option_Info!P17)</f>
+        <f>IF(ISBLANK(Option_Info!Q17),"x",Option_Info!Q17)</f>
         <v>x</v>
       </c>
       <c r="Q17" t="str">
-        <f>IF(ISBLANK(Option_Info!Q17),"x",Option_Info!Q17)</f>
+        <f>IF(ISBLANK(Option_Info!R17),"x",Option_Info!R17)</f>
         <v>x</v>
       </c>
       <c r="R17" t="str">
-        <f>IF(ISBLANK(Option_Info!R17),"x",Option_Info!R17)</f>
+        <f>IF(ISBLANK(Option_Info!S17),"x",Option_Info!S17)</f>
         <v>x</v>
       </c>
       <c r="S17" t="str">
-        <f>IF(ISBLANK(Option_Info!S17),"x",Option_Info!S17)</f>
+        <f>IF(ISBLANK(Option_Info!T17),"x",Option_Info!T17)</f>
         <v>x</v>
       </c>
       <c r="T17" t="str">
-        <f>IF(ISBLANK(Option_Info!T17),"x",Option_Info!T17)</f>
+        <f>IF(ISBLANK(Option_Info!U17),"x",Option_Info!U17)</f>
         <v>x</v>
       </c>
       <c r="U17" t="str">
-        <f>IF(ISBLANK(Option_Info!U17),"x",Option_Info!U17)</f>
+        <f>IF(ISBLANK(Option_Info!V17),"x",Option_Info!V17)</f>
         <v>x</v>
       </c>
       <c r="V17" t="str">
-        <f>IF(ISBLANK(Option_Info!V17),"x",Option_Info!V17)</f>
+        <f>IF(ISBLANK(Option_Info!W17),"x",Option_Info!W17)</f>
         <v>x</v>
       </c>
       <c r="W17" t="str">
-        <f>IF(ISBLANK(Option_Info!W17),"x",Option_Info!W17)</f>
+        <f>IF(ISBLANK(Option_Info!X17),"x",Option_Info!X17)</f>
         <v>x</v>
       </c>
       <c r="X17" t="str">
-        <f>IF(ISBLANK(Option_Info!X17),"x",Option_Info!X17)</f>
+        <f>IF(ISBLANK(Option_Info!Y17),"x",Option_Info!Y17)</f>
         <v>x</v>
       </c>
       <c r="Y17" t="str">
-        <f>IF(ISBLANK(Option_Info!Y17),"x",Option_Info!Y17)</f>
+        <f>IF(ISBLANK(Option_Info!Z17),"x",Option_Info!Z17)</f>
         <v>x</v>
       </c>
       <c r="Z17" t="str">
-        <f>IF(ISBLANK(Option_Info!Z17),"x",Option_Info!Z17)</f>
+        <f>IF(ISBLANK(Option_Info!AA17),"x",Option_Info!AA17)</f>
         <v>x</v>
       </c>
       <c r="AA17" t="str">
-        <f>IF(ISBLANK(Option_Info!AA17),"x",Option_Info!AA17)</f>
+        <f>IF(ISBLANK(Option_Info!AB17),"x",Option_Info!AB17)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18">
         <f>IF(ISBLANK(Option_Info!A18),"x",Option_Info!A18)</f>
         <v>1</v>
@@ -8683,79 +8887,79 @@
         <v>x</v>
       </c>
       <c r="J18" t="str">
-        <f>IF(ISBLANK(Option_Info!J18),"x",Option_Info!J18)</f>
+        <f>IF(ISBLANK(Option_Info!K18),"x",Option_Info!K18)</f>
         <v>x</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(ISBLANK(Option_Info!K18),"x",Option_Info!K18)</f>
+        <f>IF(ISBLANK(Option_Info!L18),"x",Option_Info!L18)</f>
         <v>x</v>
       </c>
       <c r="L18">
-        <f>IF(ISBLANK(Option_Info!L18),"x",Option_Info!L18)</f>
+        <f>IF(ISBLANK(Option_Info!M18),"x",Option_Info!M18)</f>
         <v>7</v>
       </c>
       <c r="M18" t="str">
-        <f>IF(ISBLANK(Option_Info!M18),"x",Option_Info!M18)</f>
+        <f>IF(ISBLANK(Option_Info!N18),"x",Option_Info!N18)</f>
         <v>qwe</v>
       </c>
       <c r="N18" t="str">
-        <f>IF(ISBLANK(Option_Info!N18),"x",Option_Info!N18)</f>
+        <f>IF(ISBLANK(Option_Info!O18),"x",Option_Info!O18)</f>
         <v>we</v>
       </c>
       <c r="O18" t="str">
-        <f>IF(ISBLANK(Option_Info!O18),"x",Option_Info!O18)</f>
+        <f>IF(ISBLANK(Option_Info!P18),"x",Option_Info!P18)</f>
         <v>qw</v>
       </c>
       <c r="P18" t="str">
-        <f>IF(ISBLANK(Option_Info!P18),"x",Option_Info!P18)</f>
-        <v>qwe</v>
-      </c>
-      <c r="Q18" t="str">
         <f>IF(ISBLANK(Option_Info!Q18),"x",Option_Info!Q18)</f>
         <v>qwe</v>
       </c>
-      <c r="R18" t="str">
+      <c r="Q18" t="str">
         <f>IF(ISBLANK(Option_Info!R18),"x",Option_Info!R18)</f>
         <v>qwe</v>
       </c>
-      <c r="S18" t="str">
+      <c r="R18" t="str">
         <f>IF(ISBLANK(Option_Info!S18),"x",Option_Info!S18)</f>
         <v>qwe</v>
       </c>
+      <c r="S18" t="str">
+        <f>IF(ISBLANK(Option_Info!T18),"x",Option_Info!T18)</f>
+        <v>qwe</v>
+      </c>
       <c r="T18" t="str">
-        <f>IF(ISBLANK(Option_Info!T18),"x",Option_Info!T18)</f>
+        <f>IF(ISBLANK(Option_Info!U18),"x",Option_Info!U18)</f>
         <v>x</v>
       </c>
       <c r="U18" t="str">
-        <f>IF(ISBLANK(Option_Info!U18),"x",Option_Info!U18)</f>
+        <f>IF(ISBLANK(Option_Info!V18),"x",Option_Info!V18)</f>
         <v>x</v>
       </c>
       <c r="V18" t="str">
-        <f>IF(ISBLANK(Option_Info!V18),"x",Option_Info!V18)</f>
+        <f>IF(ISBLANK(Option_Info!W18),"x",Option_Info!W18)</f>
         <v>x</v>
       </c>
       <c r="W18" t="str">
-        <f>IF(ISBLANK(Option_Info!W18),"x",Option_Info!W18)</f>
+        <f>IF(ISBLANK(Option_Info!X18),"x",Option_Info!X18)</f>
         <v>x</v>
       </c>
       <c r="X18" t="str">
-        <f>IF(ISBLANK(Option_Info!X18),"x",Option_Info!X18)</f>
+        <f>IF(ISBLANK(Option_Info!Y18),"x",Option_Info!Y18)</f>
         <v>x</v>
       </c>
       <c r="Y18" t="str">
-        <f>IF(ISBLANK(Option_Info!Y18),"x",Option_Info!Y18)</f>
+        <f>IF(ISBLANK(Option_Info!Z18),"x",Option_Info!Z18)</f>
         <v>x</v>
       </c>
       <c r="Z18" t="str">
-        <f>IF(ISBLANK(Option_Info!Z18),"x",Option_Info!Z18)</f>
+        <f>IF(ISBLANK(Option_Info!AA18),"x",Option_Info!AA18)</f>
         <v>x</v>
       </c>
       <c r="AA18" t="str">
-        <f>IF(ISBLANK(Option_Info!AA18),"x",Option_Info!AA18)</f>
+        <f>IF(ISBLANK(Option_Info!AB18),"x",Option_Info!AB18)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19">
         <f>IF(ISBLANK(Option_Info!A19),"x",Option_Info!A19)</f>
         <v>1</v>
@@ -8793,79 +8997,79 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK(Option_Info!J19),"x",Option_Info!J19)</f>
+        <f>IF(ISBLANK(Option_Info!K19),"x",Option_Info!K19)</f>
         <v>20</v>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK(Option_Info!K19),"x",Option_Info!K19)</f>
+        <f>IF(ISBLANK(Option_Info!L19),"x",Option_Info!L19)</f>
         <v>1</v>
       </c>
       <c r="L19" t="str">
-        <f>IF(ISBLANK(Option_Info!L19),"x",Option_Info!L19)</f>
+        <f>IF(ISBLANK(Option_Info!M19),"x",Option_Info!M19)</f>
         <v>x</v>
       </c>
       <c r="M19" t="str">
-        <f>IF(ISBLANK(Option_Info!M19),"x",Option_Info!M19)</f>
+        <f>IF(ISBLANK(Option_Info!N19),"x",Option_Info!N19)</f>
         <v>x</v>
       </c>
       <c r="N19" t="str">
-        <f>IF(ISBLANK(Option_Info!N19),"x",Option_Info!N19)</f>
+        <f>IF(ISBLANK(Option_Info!O19),"x",Option_Info!O19)</f>
         <v>x</v>
       </c>
       <c r="O19" t="str">
-        <f>IF(ISBLANK(Option_Info!O19),"x",Option_Info!O19)</f>
+        <f>IF(ISBLANK(Option_Info!P19),"x",Option_Info!P19)</f>
         <v>x</v>
       </c>
       <c r="P19" t="str">
-        <f>IF(ISBLANK(Option_Info!P19),"x",Option_Info!P19)</f>
+        <f>IF(ISBLANK(Option_Info!Q19),"x",Option_Info!Q19)</f>
         <v>x</v>
       </c>
       <c r="Q19" t="str">
-        <f>IF(ISBLANK(Option_Info!Q19),"x",Option_Info!Q19)</f>
+        <f>IF(ISBLANK(Option_Info!R19),"x",Option_Info!R19)</f>
         <v>x</v>
       </c>
       <c r="R19" t="str">
-        <f>IF(ISBLANK(Option_Info!R19),"x",Option_Info!R19)</f>
+        <f>IF(ISBLANK(Option_Info!S19),"x",Option_Info!S19)</f>
         <v>x</v>
       </c>
       <c r="S19" t="str">
-        <f>IF(ISBLANK(Option_Info!S19),"x",Option_Info!S19)</f>
+        <f>IF(ISBLANK(Option_Info!T19),"x",Option_Info!T19)</f>
         <v>x</v>
       </c>
       <c r="T19" t="str">
-        <f>IF(ISBLANK(Option_Info!T19),"x",Option_Info!T19)</f>
+        <f>IF(ISBLANK(Option_Info!U19),"x",Option_Info!U19)</f>
         <v>x</v>
       </c>
       <c r="U19" t="str">
-        <f>IF(ISBLANK(Option_Info!U19),"x",Option_Info!U19)</f>
+        <f>IF(ISBLANK(Option_Info!V19),"x",Option_Info!V19)</f>
         <v>x</v>
       </c>
       <c r="V19" t="str">
-        <f>IF(ISBLANK(Option_Info!V19),"x",Option_Info!V19)</f>
+        <f>IF(ISBLANK(Option_Info!W19),"x",Option_Info!W19)</f>
         <v>x</v>
       </c>
       <c r="W19" t="str">
-        <f>IF(ISBLANK(Option_Info!W19),"x",Option_Info!W19)</f>
+        <f>IF(ISBLANK(Option_Info!X19),"x",Option_Info!X19)</f>
         <v>x</v>
       </c>
       <c r="X19" t="str">
-        <f>IF(ISBLANK(Option_Info!X19),"x",Option_Info!X19)</f>
+        <f>IF(ISBLANK(Option_Info!Y19),"x",Option_Info!Y19)</f>
         <v>x</v>
       </c>
       <c r="Y19" t="str">
-        <f>IF(ISBLANK(Option_Info!Y19),"x",Option_Info!Y19)</f>
+        <f>IF(ISBLANK(Option_Info!Z19),"x",Option_Info!Z19)</f>
         <v>x</v>
       </c>
       <c r="Z19" t="str">
-        <f>IF(ISBLANK(Option_Info!Z19),"x",Option_Info!Z19)</f>
+        <f>IF(ISBLANK(Option_Info!AA19),"x",Option_Info!AA19)</f>
         <v>x</v>
       </c>
       <c r="AA19" t="str">
-        <f>IF(ISBLANK(Option_Info!AA19),"x",Option_Info!AA19)</f>
+        <f>IF(ISBLANK(Option_Info!AB19),"x",Option_Info!AB19)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20">
         <f>IF(ISBLANK(Option_Info!A20),"x",Option_Info!A20)</f>
         <v>1</v>
@@ -8903,79 +9107,79 @@
         <v>x</v>
       </c>
       <c r="J20" t="str">
-        <f>IF(ISBLANK(Option_Info!J20),"x",Option_Info!J20)</f>
+        <f>IF(ISBLANK(Option_Info!K20),"x",Option_Info!K20)</f>
         <v>x</v>
       </c>
       <c r="K20" t="str">
-        <f>IF(ISBLANK(Option_Info!K20),"x",Option_Info!K20)</f>
+        <f>IF(ISBLANK(Option_Info!L20),"x",Option_Info!L20)</f>
         <v>x</v>
       </c>
       <c r="L20" t="str">
-        <f>IF(ISBLANK(Option_Info!L20),"x",Option_Info!L20)</f>
+        <f>IF(ISBLANK(Option_Info!M20),"x",Option_Info!M20)</f>
         <v>x</v>
       </c>
       <c r="M20" t="str">
-        <f>IF(ISBLANK(Option_Info!M20),"x",Option_Info!M20)</f>
+        <f>IF(ISBLANK(Option_Info!N20),"x",Option_Info!N20)</f>
         <v>x</v>
       </c>
       <c r="N20" t="str">
-        <f>IF(ISBLANK(Option_Info!N20),"x",Option_Info!N20)</f>
+        <f>IF(ISBLANK(Option_Info!O20),"x",Option_Info!O20)</f>
         <v>x</v>
       </c>
       <c r="O20" t="str">
-        <f>IF(ISBLANK(Option_Info!O20),"x",Option_Info!O20)</f>
+        <f>IF(ISBLANK(Option_Info!P20),"x",Option_Info!P20)</f>
         <v>x</v>
       </c>
       <c r="P20" t="str">
-        <f>IF(ISBLANK(Option_Info!P20),"x",Option_Info!P20)</f>
+        <f>IF(ISBLANK(Option_Info!Q20),"x",Option_Info!Q20)</f>
         <v>x</v>
       </c>
       <c r="Q20" t="str">
-        <f>IF(ISBLANK(Option_Info!Q20),"x",Option_Info!Q20)</f>
+        <f>IF(ISBLANK(Option_Info!R20),"x",Option_Info!R20)</f>
         <v>x</v>
       </c>
       <c r="R20" t="str">
-        <f>IF(ISBLANK(Option_Info!R20),"x",Option_Info!R20)</f>
+        <f>IF(ISBLANK(Option_Info!S20),"x",Option_Info!S20)</f>
         <v>x</v>
       </c>
       <c r="S20" t="str">
-        <f>IF(ISBLANK(Option_Info!S20),"x",Option_Info!S20)</f>
+        <f>IF(ISBLANK(Option_Info!T20),"x",Option_Info!T20)</f>
         <v>x</v>
       </c>
       <c r="T20" t="str">
-        <f>IF(ISBLANK(Option_Info!T20),"x",Option_Info!T20)</f>
+        <f>IF(ISBLANK(Option_Info!U20),"x",Option_Info!U20)</f>
         <v>x</v>
       </c>
       <c r="U20" t="str">
-        <f>IF(ISBLANK(Option_Info!U20),"x",Option_Info!U20)</f>
+        <f>IF(ISBLANK(Option_Info!V20),"x",Option_Info!V20)</f>
         <v>x</v>
       </c>
       <c r="V20" t="str">
-        <f>IF(ISBLANK(Option_Info!V20),"x",Option_Info!V20)</f>
+        <f>IF(ISBLANK(Option_Info!W20),"x",Option_Info!W20)</f>
         <v>x</v>
       </c>
       <c r="W20" t="str">
-        <f>IF(ISBLANK(Option_Info!W20),"x",Option_Info!W20)</f>
+        <f>IF(ISBLANK(Option_Info!X20),"x",Option_Info!X20)</f>
         <v>x</v>
       </c>
       <c r="X20" t="str">
-        <f>IF(ISBLANK(Option_Info!X20),"x",Option_Info!X20)</f>
+        <f>IF(ISBLANK(Option_Info!Y20),"x",Option_Info!Y20)</f>
         <v>x</v>
       </c>
       <c r="Y20" t="str">
-        <f>IF(ISBLANK(Option_Info!Y20),"x",Option_Info!Y20)</f>
+        <f>IF(ISBLANK(Option_Info!Z20),"x",Option_Info!Z20)</f>
         <v>x</v>
       </c>
       <c r="Z20" t="str">
-        <f>IF(ISBLANK(Option_Info!Z20),"x",Option_Info!Z20)</f>
+        <f>IF(ISBLANK(Option_Info!AA20),"x",Option_Info!AA20)</f>
         <v>x</v>
       </c>
       <c r="AA20" t="str">
-        <f>IF(ISBLANK(Option_Info!AA20),"x",Option_Info!AA20)</f>
+        <f>IF(ISBLANK(Option_Info!AB20),"x",Option_Info!AB20)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21">
         <f>IF(ISBLANK(Option_Info!A21),"x",Option_Info!A21)</f>
         <v>1</v>
@@ -9013,79 +9217,79 @@
         <v>x</v>
       </c>
       <c r="J21" t="str">
-        <f>IF(ISBLANK(Option_Info!J21),"x",Option_Info!J21)</f>
+        <f>IF(ISBLANK(Option_Info!K21),"x",Option_Info!K21)</f>
         <v>x</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(ISBLANK(Option_Info!K21),"x",Option_Info!K21)</f>
+        <f>IF(ISBLANK(Option_Info!L21),"x",Option_Info!L21)</f>
         <v>x</v>
       </c>
       <c r="L21" t="str">
-        <f>IF(ISBLANK(Option_Info!L21),"x",Option_Info!L21)</f>
+        <f>IF(ISBLANK(Option_Info!M21),"x",Option_Info!M21)</f>
         <v>x</v>
       </c>
       <c r="M21" t="str">
-        <f>IF(ISBLANK(Option_Info!M21),"x",Option_Info!M21)</f>
+        <f>IF(ISBLANK(Option_Info!N21),"x",Option_Info!N21)</f>
         <v>x</v>
       </c>
       <c r="N21" t="str">
-        <f>IF(ISBLANK(Option_Info!N21),"x",Option_Info!N21)</f>
+        <f>IF(ISBLANK(Option_Info!O21),"x",Option_Info!O21)</f>
         <v>x</v>
       </c>
       <c r="O21" t="str">
-        <f>IF(ISBLANK(Option_Info!O21),"x",Option_Info!O21)</f>
+        <f>IF(ISBLANK(Option_Info!P21),"x",Option_Info!P21)</f>
         <v>x</v>
       </c>
       <c r="P21" t="str">
-        <f>IF(ISBLANK(Option_Info!P21),"x",Option_Info!P21)</f>
+        <f>IF(ISBLANK(Option_Info!Q21),"x",Option_Info!Q21)</f>
         <v>x</v>
       </c>
       <c r="Q21" t="str">
-        <f>IF(ISBLANK(Option_Info!Q21),"x",Option_Info!Q21)</f>
+        <f>IF(ISBLANK(Option_Info!R21),"x",Option_Info!R21)</f>
         <v>x</v>
       </c>
       <c r="R21" t="str">
-        <f>IF(ISBLANK(Option_Info!R21),"x",Option_Info!R21)</f>
+        <f>IF(ISBLANK(Option_Info!S21),"x",Option_Info!S21)</f>
         <v>x</v>
       </c>
       <c r="S21" t="str">
-        <f>IF(ISBLANK(Option_Info!S21),"x",Option_Info!S21)</f>
+        <f>IF(ISBLANK(Option_Info!T21),"x",Option_Info!T21)</f>
         <v>x</v>
       </c>
       <c r="T21" t="str">
-        <f>IF(ISBLANK(Option_Info!T21),"x",Option_Info!T21)</f>
+        <f>IF(ISBLANK(Option_Info!U21),"x",Option_Info!U21)</f>
         <v>x</v>
       </c>
       <c r="U21" t="str">
-        <f>IF(ISBLANK(Option_Info!U21),"x",Option_Info!U21)</f>
+        <f>IF(ISBLANK(Option_Info!V21),"x",Option_Info!V21)</f>
         <v>x</v>
       </c>
       <c r="V21" t="str">
-        <f>IF(ISBLANK(Option_Info!V21),"x",Option_Info!V21)</f>
+        <f>IF(ISBLANK(Option_Info!W21),"x",Option_Info!W21)</f>
         <v>x</v>
       </c>
       <c r="W21" t="str">
-        <f>IF(ISBLANK(Option_Info!W21),"x",Option_Info!W21)</f>
+        <f>IF(ISBLANK(Option_Info!X21),"x",Option_Info!X21)</f>
         <v>x</v>
       </c>
       <c r="X21" t="str">
-        <f>IF(ISBLANK(Option_Info!X21),"x",Option_Info!X21)</f>
+        <f>IF(ISBLANK(Option_Info!Y21),"x",Option_Info!Y21)</f>
         <v>x</v>
       </c>
       <c r="Y21" t="str">
-        <f>IF(ISBLANK(Option_Info!Y21),"x",Option_Info!Y21)</f>
+        <f>IF(ISBLANK(Option_Info!Z21),"x",Option_Info!Z21)</f>
         <v>x</v>
       </c>
       <c r="Z21" t="str">
-        <f>IF(ISBLANK(Option_Info!Z21),"x",Option_Info!Z21)</f>
+        <f>IF(ISBLANK(Option_Info!AA21),"x",Option_Info!AA21)</f>
         <v>x</v>
       </c>
       <c r="AA21" t="str">
-        <f>IF(ISBLANK(Option_Info!AA21),"x",Option_Info!AA21)</f>
+        <f>IF(ISBLANK(Option_Info!AB21),"x",Option_Info!AB21)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22">
         <f>IF(ISBLANK(Option_Info!A22),"x",Option_Info!A22)</f>
         <v>1</v>
@@ -9123,79 +9327,79 @@
         <v>x</v>
       </c>
       <c r="J22" t="str">
-        <f>IF(ISBLANK(Option_Info!J22),"x",Option_Info!J22)</f>
+        <f>IF(ISBLANK(Option_Info!K22),"x",Option_Info!K22)</f>
         <v>x</v>
       </c>
       <c r="K22" t="str">
-        <f>IF(ISBLANK(Option_Info!K22),"x",Option_Info!K22)</f>
+        <f>IF(ISBLANK(Option_Info!L22),"x",Option_Info!L22)</f>
         <v>x</v>
       </c>
       <c r="L22" t="str">
-        <f>IF(ISBLANK(Option_Info!L22),"x",Option_Info!L22)</f>
+        <f>IF(ISBLANK(Option_Info!M22),"x",Option_Info!M22)</f>
         <v>x</v>
       </c>
       <c r="M22" t="str">
-        <f>IF(ISBLANK(Option_Info!M22),"x",Option_Info!M22)</f>
+        <f>IF(ISBLANK(Option_Info!N22),"x",Option_Info!N22)</f>
         <v>x</v>
       </c>
       <c r="N22" t="str">
-        <f>IF(ISBLANK(Option_Info!N22),"x",Option_Info!N22)</f>
+        <f>IF(ISBLANK(Option_Info!O22),"x",Option_Info!O22)</f>
         <v>x</v>
       </c>
       <c r="O22" t="str">
-        <f>IF(ISBLANK(Option_Info!O22),"x",Option_Info!O22)</f>
+        <f>IF(ISBLANK(Option_Info!P22),"x",Option_Info!P22)</f>
         <v>x</v>
       </c>
       <c r="P22" t="str">
-        <f>IF(ISBLANK(Option_Info!P22),"x",Option_Info!P22)</f>
+        <f>IF(ISBLANK(Option_Info!Q22),"x",Option_Info!Q22)</f>
         <v>x</v>
       </c>
       <c r="Q22" t="str">
-        <f>IF(ISBLANK(Option_Info!Q22),"x",Option_Info!Q22)</f>
+        <f>IF(ISBLANK(Option_Info!R22),"x",Option_Info!R22)</f>
         <v>x</v>
       </c>
       <c r="R22" t="str">
-        <f>IF(ISBLANK(Option_Info!R22),"x",Option_Info!R22)</f>
+        <f>IF(ISBLANK(Option_Info!S22),"x",Option_Info!S22)</f>
         <v>x</v>
       </c>
       <c r="S22" t="str">
-        <f>IF(ISBLANK(Option_Info!S22),"x",Option_Info!S22)</f>
+        <f>IF(ISBLANK(Option_Info!T22),"x",Option_Info!T22)</f>
         <v>x</v>
       </c>
       <c r="T22" t="str">
-        <f>IF(ISBLANK(Option_Info!T22),"x",Option_Info!T22)</f>
+        <f>IF(ISBLANK(Option_Info!U22),"x",Option_Info!U22)</f>
         <v>x</v>
       </c>
       <c r="U22" t="str">
-        <f>IF(ISBLANK(Option_Info!U22),"x",Option_Info!U22)</f>
+        <f>IF(ISBLANK(Option_Info!V22),"x",Option_Info!V22)</f>
         <v>x</v>
       </c>
       <c r="V22" t="str">
-        <f>IF(ISBLANK(Option_Info!V22),"x",Option_Info!V22)</f>
+        <f>IF(ISBLANK(Option_Info!W22),"x",Option_Info!W22)</f>
         <v>x</v>
       </c>
       <c r="W22" t="str">
-        <f>IF(ISBLANK(Option_Info!W22),"x",Option_Info!W22)</f>
+        <f>IF(ISBLANK(Option_Info!X22),"x",Option_Info!X22)</f>
         <v>x</v>
       </c>
       <c r="X22" t="str">
-        <f>IF(ISBLANK(Option_Info!X22),"x",Option_Info!X22)</f>
+        <f>IF(ISBLANK(Option_Info!Y22),"x",Option_Info!Y22)</f>
         <v>x</v>
       </c>
       <c r="Y22" t="str">
-        <f>IF(ISBLANK(Option_Info!Y22),"x",Option_Info!Y22)</f>
+        <f>IF(ISBLANK(Option_Info!Z22),"x",Option_Info!Z22)</f>
         <v>x</v>
       </c>
       <c r="Z22" t="str">
-        <f>IF(ISBLANK(Option_Info!Z22),"x",Option_Info!Z22)</f>
+        <f>IF(ISBLANK(Option_Info!AA22),"x",Option_Info!AA22)</f>
         <v>x</v>
       </c>
       <c r="AA22" t="str">
-        <f>IF(ISBLANK(Option_Info!AA22),"x",Option_Info!AA22)</f>
+        <f>IF(ISBLANK(Option_Info!AB22),"x",Option_Info!AB22)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23">
         <f>IF(ISBLANK(Option_Info!A23),"x",Option_Info!A23)</f>
         <v>1</v>
@@ -9233,79 +9437,79 @@
         <v>x</v>
       </c>
       <c r="J23" t="str">
-        <f>IF(ISBLANK(Option_Info!J23),"x",Option_Info!J23)</f>
+        <f>IF(ISBLANK(Option_Info!K23),"x",Option_Info!K23)</f>
         <v>x</v>
       </c>
       <c r="K23" t="str">
-        <f>IF(ISBLANK(Option_Info!K23),"x",Option_Info!K23)</f>
+        <f>IF(ISBLANK(Option_Info!L23),"x",Option_Info!L23)</f>
         <v>x</v>
       </c>
       <c r="L23">
-        <f>IF(ISBLANK(Option_Info!L23),"x",Option_Info!L23)</f>
+        <f>IF(ISBLANK(Option_Info!M23),"x",Option_Info!M23)</f>
         <v>2</v>
       </c>
       <c r="M23" t="str">
-        <f>IF(ISBLANK(Option_Info!M23),"x",Option_Info!M23)</f>
+        <f>IF(ISBLANK(Option_Info!N23),"x",Option_Info!N23)</f>
         <v>qwe</v>
       </c>
       <c r="N23" t="str">
-        <f>IF(ISBLANK(Option_Info!N23),"x",Option_Info!N23)</f>
+        <f>IF(ISBLANK(Option_Info!O23),"x",Option_Info!O23)</f>
         <v>www</v>
       </c>
       <c r="O23" t="str">
-        <f>IF(ISBLANK(Option_Info!O23),"x",Option_Info!O23)</f>
+        <f>IF(ISBLANK(Option_Info!P23),"x",Option_Info!P23)</f>
         <v>x</v>
       </c>
       <c r="P23" t="str">
-        <f>IF(ISBLANK(Option_Info!P23),"x",Option_Info!P23)</f>
+        <f>IF(ISBLANK(Option_Info!Q23),"x",Option_Info!Q23)</f>
         <v>x</v>
       </c>
       <c r="Q23" t="str">
-        <f>IF(ISBLANK(Option_Info!Q23),"x",Option_Info!Q23)</f>
+        <f>IF(ISBLANK(Option_Info!R23),"x",Option_Info!R23)</f>
         <v>x</v>
       </c>
       <c r="R23" t="str">
-        <f>IF(ISBLANK(Option_Info!R23),"x",Option_Info!R23)</f>
+        <f>IF(ISBLANK(Option_Info!S23),"x",Option_Info!S23)</f>
         <v>x</v>
       </c>
       <c r="S23" t="str">
-        <f>IF(ISBLANK(Option_Info!S23),"x",Option_Info!S23)</f>
+        <f>IF(ISBLANK(Option_Info!T23),"x",Option_Info!T23)</f>
         <v>x</v>
       </c>
       <c r="T23" t="str">
-        <f>IF(ISBLANK(Option_Info!T23),"x",Option_Info!T23)</f>
+        <f>IF(ISBLANK(Option_Info!U23),"x",Option_Info!U23)</f>
         <v>x</v>
       </c>
       <c r="U23" t="str">
-        <f>IF(ISBLANK(Option_Info!U23),"x",Option_Info!U23)</f>
+        <f>IF(ISBLANK(Option_Info!V23),"x",Option_Info!V23)</f>
         <v>x</v>
       </c>
       <c r="V23" t="str">
-        <f>IF(ISBLANK(Option_Info!V23),"x",Option_Info!V23)</f>
+        <f>IF(ISBLANK(Option_Info!W23),"x",Option_Info!W23)</f>
         <v>x</v>
       </c>
       <c r="W23" t="str">
-        <f>IF(ISBLANK(Option_Info!W23),"x",Option_Info!W23)</f>
+        <f>IF(ISBLANK(Option_Info!X23),"x",Option_Info!X23)</f>
         <v>x</v>
       </c>
       <c r="X23" t="str">
-        <f>IF(ISBLANK(Option_Info!X23),"x",Option_Info!X23)</f>
+        <f>IF(ISBLANK(Option_Info!Y23),"x",Option_Info!Y23)</f>
         <v>x</v>
       </c>
       <c r="Y23" t="str">
-        <f>IF(ISBLANK(Option_Info!Y23),"x",Option_Info!Y23)</f>
+        <f>IF(ISBLANK(Option_Info!Z23),"x",Option_Info!Z23)</f>
         <v>x</v>
       </c>
       <c r="Z23" t="str">
-        <f>IF(ISBLANK(Option_Info!Z23),"x",Option_Info!Z23)</f>
+        <f>IF(ISBLANK(Option_Info!AA23),"x",Option_Info!AA23)</f>
         <v>x</v>
       </c>
       <c r="AA23" t="str">
-        <f>IF(ISBLANK(Option_Info!AA23),"x",Option_Info!AA23)</f>
+        <f>IF(ISBLANK(Option_Info!AB23),"x",Option_Info!AB23)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24">
         <f>IF(ISBLANK(Option_Info!A24),"x",Option_Info!A24)</f>
         <v>1</v>
@@ -9343,79 +9547,79 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK(Option_Info!J24),"x",Option_Info!J24)</f>
+        <f>IF(ISBLANK(Option_Info!K24),"x",Option_Info!K24)</f>
         <v>20</v>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK(Option_Info!K24),"x",Option_Info!K24)</f>
+        <f>IF(ISBLANK(Option_Info!L24),"x",Option_Info!L24)</f>
         <v>2</v>
       </c>
       <c r="L24" t="str">
-        <f>IF(ISBLANK(Option_Info!L24),"x",Option_Info!L24)</f>
+        <f>IF(ISBLANK(Option_Info!M24),"x",Option_Info!M24)</f>
         <v>x</v>
       </c>
       <c r="M24" t="str">
-        <f>IF(ISBLANK(Option_Info!M24),"x",Option_Info!M24)</f>
+        <f>IF(ISBLANK(Option_Info!N24),"x",Option_Info!N24)</f>
         <v>x</v>
       </c>
       <c r="N24" t="str">
-        <f>IF(ISBLANK(Option_Info!N24),"x",Option_Info!N24)</f>
+        <f>IF(ISBLANK(Option_Info!O24),"x",Option_Info!O24)</f>
         <v>x</v>
       </c>
       <c r="O24" t="str">
-        <f>IF(ISBLANK(Option_Info!O24),"x",Option_Info!O24)</f>
+        <f>IF(ISBLANK(Option_Info!P24),"x",Option_Info!P24)</f>
         <v>x</v>
       </c>
       <c r="P24" t="str">
-        <f>IF(ISBLANK(Option_Info!P24),"x",Option_Info!P24)</f>
+        <f>IF(ISBLANK(Option_Info!Q24),"x",Option_Info!Q24)</f>
         <v>x</v>
       </c>
       <c r="Q24" t="str">
-        <f>IF(ISBLANK(Option_Info!Q24),"x",Option_Info!Q24)</f>
+        <f>IF(ISBLANK(Option_Info!R24),"x",Option_Info!R24)</f>
         <v>x</v>
       </c>
       <c r="R24" t="str">
-        <f>IF(ISBLANK(Option_Info!R24),"x",Option_Info!R24)</f>
+        <f>IF(ISBLANK(Option_Info!S24),"x",Option_Info!S24)</f>
         <v>x</v>
       </c>
       <c r="S24" t="str">
-        <f>IF(ISBLANK(Option_Info!S24),"x",Option_Info!S24)</f>
+        <f>IF(ISBLANK(Option_Info!T24),"x",Option_Info!T24)</f>
         <v>x</v>
       </c>
       <c r="T24" t="str">
-        <f>IF(ISBLANK(Option_Info!T24),"x",Option_Info!T24)</f>
+        <f>IF(ISBLANK(Option_Info!U24),"x",Option_Info!U24)</f>
         <v>x</v>
       </c>
       <c r="U24" t="str">
-        <f>IF(ISBLANK(Option_Info!U24),"x",Option_Info!U24)</f>
+        <f>IF(ISBLANK(Option_Info!V24),"x",Option_Info!V24)</f>
         <v>x</v>
       </c>
       <c r="V24" t="str">
-        <f>IF(ISBLANK(Option_Info!V24),"x",Option_Info!V24)</f>
+        <f>IF(ISBLANK(Option_Info!W24),"x",Option_Info!W24)</f>
         <v>x</v>
       </c>
       <c r="W24" t="str">
-        <f>IF(ISBLANK(Option_Info!W24),"x",Option_Info!W24)</f>
+        <f>IF(ISBLANK(Option_Info!X24),"x",Option_Info!X24)</f>
         <v>x</v>
       </c>
       <c r="X24" t="str">
-        <f>IF(ISBLANK(Option_Info!X24),"x",Option_Info!X24)</f>
+        <f>IF(ISBLANK(Option_Info!Y24),"x",Option_Info!Y24)</f>
         <v>x</v>
       </c>
       <c r="Y24" t="str">
-        <f>IF(ISBLANK(Option_Info!Y24),"x",Option_Info!Y24)</f>
+        <f>IF(ISBLANK(Option_Info!Z24),"x",Option_Info!Z24)</f>
         <v>x</v>
       </c>
       <c r="Z24" t="str">
-        <f>IF(ISBLANK(Option_Info!Z24),"x",Option_Info!Z24)</f>
+        <f>IF(ISBLANK(Option_Info!AA24),"x",Option_Info!AA24)</f>
         <v>x</v>
       </c>
       <c r="AA24" t="str">
-        <f>IF(ISBLANK(Option_Info!AA24),"x",Option_Info!AA24)</f>
+        <f>IF(ISBLANK(Option_Info!AB24),"x",Option_Info!AB24)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25">
         <f>IF(ISBLANK(Option_Info!A25),"x",Option_Info!A25)</f>
         <v>1</v>
@@ -9453,79 +9657,79 @@
         <v>x</v>
       </c>
       <c r="J25" t="str">
-        <f>IF(ISBLANK(Option_Info!J25),"x",Option_Info!J25)</f>
+        <f>IF(ISBLANK(Option_Info!K25),"x",Option_Info!K25)</f>
         <v>x</v>
       </c>
       <c r="K25" t="str">
-        <f>IF(ISBLANK(Option_Info!K25),"x",Option_Info!K25)</f>
+        <f>IF(ISBLANK(Option_Info!L25),"x",Option_Info!L25)</f>
         <v>x</v>
       </c>
       <c r="L25" t="str">
-        <f>IF(ISBLANK(Option_Info!L25),"x",Option_Info!L25)</f>
+        <f>IF(ISBLANK(Option_Info!M25),"x",Option_Info!M25)</f>
         <v>x</v>
       </c>
       <c r="M25" t="str">
-        <f>IF(ISBLANK(Option_Info!M25),"x",Option_Info!M25)</f>
+        <f>IF(ISBLANK(Option_Info!N25),"x",Option_Info!N25)</f>
         <v>x</v>
       </c>
       <c r="N25" t="str">
-        <f>IF(ISBLANK(Option_Info!N25),"x",Option_Info!N25)</f>
+        <f>IF(ISBLANK(Option_Info!O25),"x",Option_Info!O25)</f>
         <v>x</v>
       </c>
       <c r="O25" t="str">
-        <f>IF(ISBLANK(Option_Info!O25),"x",Option_Info!O25)</f>
+        <f>IF(ISBLANK(Option_Info!P25),"x",Option_Info!P25)</f>
         <v>x</v>
       </c>
       <c r="P25" t="str">
-        <f>IF(ISBLANK(Option_Info!P25),"x",Option_Info!P25)</f>
+        <f>IF(ISBLANK(Option_Info!Q25),"x",Option_Info!Q25)</f>
         <v>x</v>
       </c>
       <c r="Q25" t="str">
-        <f>IF(ISBLANK(Option_Info!Q25),"x",Option_Info!Q25)</f>
+        <f>IF(ISBLANK(Option_Info!R25),"x",Option_Info!R25)</f>
         <v>x</v>
       </c>
       <c r="R25" t="str">
-        <f>IF(ISBLANK(Option_Info!R25),"x",Option_Info!R25)</f>
+        <f>IF(ISBLANK(Option_Info!S25),"x",Option_Info!S25)</f>
         <v>x</v>
       </c>
       <c r="S25" t="str">
-        <f>IF(ISBLANK(Option_Info!S25),"x",Option_Info!S25)</f>
+        <f>IF(ISBLANK(Option_Info!T25),"x",Option_Info!T25)</f>
         <v>x</v>
       </c>
       <c r="T25" t="str">
-        <f>IF(ISBLANK(Option_Info!T25),"x",Option_Info!T25)</f>
+        <f>IF(ISBLANK(Option_Info!U25),"x",Option_Info!U25)</f>
         <v>x</v>
       </c>
       <c r="U25" t="str">
-        <f>IF(ISBLANK(Option_Info!U25),"x",Option_Info!U25)</f>
+        <f>IF(ISBLANK(Option_Info!V25),"x",Option_Info!V25)</f>
         <v>x</v>
       </c>
       <c r="V25" t="str">
-        <f>IF(ISBLANK(Option_Info!V25),"x",Option_Info!V25)</f>
+        <f>IF(ISBLANK(Option_Info!W25),"x",Option_Info!W25)</f>
         <v>x</v>
       </c>
       <c r="W25" t="str">
-        <f>IF(ISBLANK(Option_Info!W25),"x",Option_Info!W25)</f>
+        <f>IF(ISBLANK(Option_Info!X25),"x",Option_Info!X25)</f>
         <v>x</v>
       </c>
       <c r="X25" t="str">
-        <f>IF(ISBLANK(Option_Info!X25),"x",Option_Info!X25)</f>
+        <f>IF(ISBLANK(Option_Info!Y25),"x",Option_Info!Y25)</f>
         <v>x</v>
       </c>
       <c r="Y25" t="str">
-        <f>IF(ISBLANK(Option_Info!Y25),"x",Option_Info!Y25)</f>
+        <f>IF(ISBLANK(Option_Info!Z25),"x",Option_Info!Z25)</f>
         <v>x</v>
       </c>
       <c r="Z25" t="str">
-        <f>IF(ISBLANK(Option_Info!Z25),"x",Option_Info!Z25)</f>
+        <f>IF(ISBLANK(Option_Info!AA25),"x",Option_Info!AA25)</f>
         <v>x</v>
       </c>
       <c r="AA25" t="str">
-        <f>IF(ISBLANK(Option_Info!AA25),"x",Option_Info!AA25)</f>
+        <f>IF(ISBLANK(Option_Info!AB25),"x",Option_Info!AB25)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26">
         <f>IF(ISBLANK(Option_Info!A26),"x",Option_Info!A26)</f>
         <v>1</v>
@@ -9563,79 +9767,79 @@
         <v>x</v>
       </c>
       <c r="J26" t="str">
-        <f>IF(ISBLANK(Option_Info!J26),"x",Option_Info!J26)</f>
+        <f>IF(ISBLANK(Option_Info!K26),"x",Option_Info!K26)</f>
         <v>x</v>
       </c>
       <c r="K26" t="str">
-        <f>IF(ISBLANK(Option_Info!K26),"x",Option_Info!K26)</f>
+        <f>IF(ISBLANK(Option_Info!L26),"x",Option_Info!L26)</f>
         <v>x</v>
       </c>
       <c r="L26" t="str">
-        <f>IF(ISBLANK(Option_Info!L26),"x",Option_Info!L26)</f>
+        <f>IF(ISBLANK(Option_Info!M26),"x",Option_Info!M26)</f>
         <v>x</v>
       </c>
       <c r="M26" t="str">
-        <f>IF(ISBLANK(Option_Info!M26),"x",Option_Info!M26)</f>
+        <f>IF(ISBLANK(Option_Info!N26),"x",Option_Info!N26)</f>
         <v>x</v>
       </c>
       <c r="N26" t="str">
-        <f>IF(ISBLANK(Option_Info!N26),"x",Option_Info!N26)</f>
+        <f>IF(ISBLANK(Option_Info!O26),"x",Option_Info!O26)</f>
         <v>x</v>
       </c>
       <c r="O26" t="str">
-        <f>IF(ISBLANK(Option_Info!O26),"x",Option_Info!O26)</f>
+        <f>IF(ISBLANK(Option_Info!P26),"x",Option_Info!P26)</f>
         <v>x</v>
       </c>
       <c r="P26" t="str">
-        <f>IF(ISBLANK(Option_Info!P26),"x",Option_Info!P26)</f>
+        <f>IF(ISBLANK(Option_Info!Q26),"x",Option_Info!Q26)</f>
         <v>x</v>
       </c>
       <c r="Q26" t="str">
-        <f>IF(ISBLANK(Option_Info!Q26),"x",Option_Info!Q26)</f>
+        <f>IF(ISBLANK(Option_Info!R26),"x",Option_Info!R26)</f>
         <v>x</v>
       </c>
       <c r="R26" t="str">
-        <f>IF(ISBLANK(Option_Info!R26),"x",Option_Info!R26)</f>
+        <f>IF(ISBLANK(Option_Info!S26),"x",Option_Info!S26)</f>
         <v>x</v>
       </c>
       <c r="S26" t="str">
-        <f>IF(ISBLANK(Option_Info!S26),"x",Option_Info!S26)</f>
+        <f>IF(ISBLANK(Option_Info!T26),"x",Option_Info!T26)</f>
         <v>x</v>
       </c>
       <c r="T26" t="str">
-        <f>IF(ISBLANK(Option_Info!T26),"x",Option_Info!T26)</f>
+        <f>IF(ISBLANK(Option_Info!U26),"x",Option_Info!U26)</f>
         <v>x</v>
       </c>
       <c r="U26" t="str">
-        <f>IF(ISBLANK(Option_Info!U26),"x",Option_Info!U26)</f>
+        <f>IF(ISBLANK(Option_Info!V26),"x",Option_Info!V26)</f>
         <v>x</v>
       </c>
       <c r="V26" t="str">
-        <f>IF(ISBLANK(Option_Info!V26),"x",Option_Info!V26)</f>
+        <f>IF(ISBLANK(Option_Info!W26),"x",Option_Info!W26)</f>
         <v>x</v>
       </c>
       <c r="W26" t="str">
-        <f>IF(ISBLANK(Option_Info!W26),"x",Option_Info!W26)</f>
+        <f>IF(ISBLANK(Option_Info!X26),"x",Option_Info!X26)</f>
         <v>x</v>
       </c>
       <c r="X26" t="str">
-        <f>IF(ISBLANK(Option_Info!X26),"x",Option_Info!X26)</f>
+        <f>IF(ISBLANK(Option_Info!Y26),"x",Option_Info!Y26)</f>
         <v>x</v>
       </c>
       <c r="Y26" t="str">
-        <f>IF(ISBLANK(Option_Info!Y26),"x",Option_Info!Y26)</f>
+        <f>IF(ISBLANK(Option_Info!Z26),"x",Option_Info!Z26)</f>
         <v>x</v>
       </c>
       <c r="Z26" t="str">
-        <f>IF(ISBLANK(Option_Info!Z26),"x",Option_Info!Z26)</f>
+        <f>IF(ISBLANK(Option_Info!AA26),"x",Option_Info!AA26)</f>
         <v>x</v>
       </c>
       <c r="AA26" t="str">
-        <f>IF(ISBLANK(Option_Info!AA26),"x",Option_Info!AA26)</f>
+        <f>IF(ISBLANK(Option_Info!AB26),"x",Option_Info!AB26)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27">
         <f>IF(ISBLANK(Option_Info!A27),"x",Option_Info!A27)</f>
         <v>1</v>
@@ -9673,79 +9877,79 @@
         <v>x</v>
       </c>
       <c r="J27" t="str">
-        <f>IF(ISBLANK(Option_Info!J27),"x",Option_Info!J27)</f>
+        <f>IF(ISBLANK(Option_Info!K27),"x",Option_Info!K27)</f>
         <v>x</v>
       </c>
       <c r="K27" t="str">
-        <f>IF(ISBLANK(Option_Info!K27),"x",Option_Info!K27)</f>
+        <f>IF(ISBLANK(Option_Info!L27),"x",Option_Info!L27)</f>
         <v>x</v>
       </c>
       <c r="L27" t="str">
-        <f>IF(ISBLANK(Option_Info!L27),"x",Option_Info!L27)</f>
+        <f>IF(ISBLANK(Option_Info!M27),"x",Option_Info!M27)</f>
         <v>x</v>
       </c>
       <c r="M27" t="str">
-        <f>IF(ISBLANK(Option_Info!M27),"x",Option_Info!M27)</f>
+        <f>IF(ISBLANK(Option_Info!N27),"x",Option_Info!N27)</f>
         <v>x</v>
       </c>
       <c r="N27" t="str">
-        <f>IF(ISBLANK(Option_Info!N27),"x",Option_Info!N27)</f>
+        <f>IF(ISBLANK(Option_Info!O27),"x",Option_Info!O27)</f>
         <v>x</v>
       </c>
       <c r="O27" t="str">
-        <f>IF(ISBLANK(Option_Info!O27),"x",Option_Info!O27)</f>
+        <f>IF(ISBLANK(Option_Info!P27),"x",Option_Info!P27)</f>
         <v>x</v>
       </c>
       <c r="P27" t="str">
-        <f>IF(ISBLANK(Option_Info!P27),"x",Option_Info!P27)</f>
+        <f>IF(ISBLANK(Option_Info!Q27),"x",Option_Info!Q27)</f>
         <v>x</v>
       </c>
       <c r="Q27" t="str">
-        <f>IF(ISBLANK(Option_Info!Q27),"x",Option_Info!Q27)</f>
+        <f>IF(ISBLANK(Option_Info!R27),"x",Option_Info!R27)</f>
         <v>x</v>
       </c>
       <c r="R27" t="str">
-        <f>IF(ISBLANK(Option_Info!R27),"x",Option_Info!R27)</f>
+        <f>IF(ISBLANK(Option_Info!S27),"x",Option_Info!S27)</f>
         <v>x</v>
       </c>
       <c r="S27" t="str">
-        <f>IF(ISBLANK(Option_Info!S27),"x",Option_Info!S27)</f>
+        <f>IF(ISBLANK(Option_Info!T27),"x",Option_Info!T27)</f>
         <v>x</v>
       </c>
       <c r="T27" t="str">
-        <f>IF(ISBLANK(Option_Info!T27),"x",Option_Info!T27)</f>
+        <f>IF(ISBLANK(Option_Info!U27),"x",Option_Info!U27)</f>
         <v>x</v>
       </c>
       <c r="U27" t="str">
-        <f>IF(ISBLANK(Option_Info!U27),"x",Option_Info!U27)</f>
+        <f>IF(ISBLANK(Option_Info!V27),"x",Option_Info!V27)</f>
         <v>x</v>
       </c>
       <c r="V27" t="str">
-        <f>IF(ISBLANK(Option_Info!V27),"x",Option_Info!V27)</f>
+        <f>IF(ISBLANK(Option_Info!W27),"x",Option_Info!W27)</f>
         <v>x</v>
       </c>
       <c r="W27" t="str">
-        <f>IF(ISBLANK(Option_Info!W27),"x",Option_Info!W27)</f>
+        <f>IF(ISBLANK(Option_Info!X27),"x",Option_Info!X27)</f>
         <v>x</v>
       </c>
       <c r="X27" t="str">
-        <f>IF(ISBLANK(Option_Info!X27),"x",Option_Info!X27)</f>
+        <f>IF(ISBLANK(Option_Info!Y27),"x",Option_Info!Y27)</f>
         <v>x</v>
       </c>
       <c r="Y27" t="str">
-        <f>IF(ISBLANK(Option_Info!Y27),"x",Option_Info!Y27)</f>
+        <f>IF(ISBLANK(Option_Info!Z27),"x",Option_Info!Z27)</f>
         <v>x</v>
       </c>
       <c r="Z27" t="str">
-        <f>IF(ISBLANK(Option_Info!Z27),"x",Option_Info!Z27)</f>
+        <f>IF(ISBLANK(Option_Info!AA27),"x",Option_Info!AA27)</f>
         <v>x</v>
       </c>
       <c r="AA27" t="str">
-        <f>IF(ISBLANK(Option_Info!AA27),"x",Option_Info!AA27)</f>
+        <f>IF(ISBLANK(Option_Info!AB27),"x",Option_Info!AB27)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28">
         <f>IF(ISBLANK(Option_Info!A28),"x",Option_Info!A28)</f>
         <v>1</v>
@@ -9783,79 +9987,79 @@
         <v>x</v>
       </c>
       <c r="J28" t="str">
-        <f>IF(ISBLANK(Option_Info!J28),"x",Option_Info!J28)</f>
+        <f>IF(ISBLANK(Option_Info!K28),"x",Option_Info!K28)</f>
         <v>x</v>
       </c>
       <c r="K28" t="str">
-        <f>IF(ISBLANK(Option_Info!K28),"x",Option_Info!K28)</f>
+        <f>IF(ISBLANK(Option_Info!L28),"x",Option_Info!L28)</f>
         <v>x</v>
       </c>
       <c r="L28">
-        <f>IF(ISBLANK(Option_Info!L28),"x",Option_Info!L28)</f>
+        <f>IF(ISBLANK(Option_Info!M28),"x",Option_Info!M28)</f>
         <v>1</v>
       </c>
       <c r="M28" t="str">
-        <f>IF(ISBLANK(Option_Info!M28),"x",Option_Info!M28)</f>
+        <f>IF(ISBLANK(Option_Info!N28),"x",Option_Info!N28)</f>
         <v>qwe</v>
       </c>
       <c r="N28" t="str">
-        <f>IF(ISBLANK(Option_Info!N28),"x",Option_Info!N28)</f>
+        <f>IF(ISBLANK(Option_Info!O28),"x",Option_Info!O28)</f>
         <v>x</v>
       </c>
       <c r="O28" t="str">
-        <f>IF(ISBLANK(Option_Info!O28),"x",Option_Info!O28)</f>
+        <f>IF(ISBLANK(Option_Info!P28),"x",Option_Info!P28)</f>
         <v>x</v>
       </c>
       <c r="P28" t="str">
-        <f>IF(ISBLANK(Option_Info!P28),"x",Option_Info!P28)</f>
+        <f>IF(ISBLANK(Option_Info!Q28),"x",Option_Info!Q28)</f>
         <v>x</v>
       </c>
       <c r="Q28" t="str">
-        <f>IF(ISBLANK(Option_Info!Q28),"x",Option_Info!Q28)</f>
+        <f>IF(ISBLANK(Option_Info!R28),"x",Option_Info!R28)</f>
         <v>x</v>
       </c>
       <c r="R28" t="str">
-        <f>IF(ISBLANK(Option_Info!R28),"x",Option_Info!R28)</f>
+        <f>IF(ISBLANK(Option_Info!S28),"x",Option_Info!S28)</f>
         <v>x</v>
       </c>
       <c r="S28" t="str">
-        <f>IF(ISBLANK(Option_Info!S28),"x",Option_Info!S28)</f>
+        <f>IF(ISBLANK(Option_Info!T28),"x",Option_Info!T28)</f>
         <v>x</v>
       </c>
       <c r="T28" t="str">
-        <f>IF(ISBLANK(Option_Info!T28),"x",Option_Info!T28)</f>
+        <f>IF(ISBLANK(Option_Info!U28),"x",Option_Info!U28)</f>
         <v>x</v>
       </c>
       <c r="U28" t="str">
-        <f>IF(ISBLANK(Option_Info!U28),"x",Option_Info!U28)</f>
+        <f>IF(ISBLANK(Option_Info!V28),"x",Option_Info!V28)</f>
         <v>x</v>
       </c>
       <c r="V28" t="str">
-        <f>IF(ISBLANK(Option_Info!V28),"x",Option_Info!V28)</f>
+        <f>IF(ISBLANK(Option_Info!W28),"x",Option_Info!W28)</f>
         <v>x</v>
       </c>
       <c r="W28" t="str">
-        <f>IF(ISBLANK(Option_Info!W28),"x",Option_Info!W28)</f>
+        <f>IF(ISBLANK(Option_Info!X28),"x",Option_Info!X28)</f>
         <v>x</v>
       </c>
       <c r="X28" t="str">
-        <f>IF(ISBLANK(Option_Info!X28),"x",Option_Info!X28)</f>
+        <f>IF(ISBLANK(Option_Info!Y28),"x",Option_Info!Y28)</f>
         <v>x</v>
       </c>
       <c r="Y28" t="str">
-        <f>IF(ISBLANK(Option_Info!Y28),"x",Option_Info!Y28)</f>
+        <f>IF(ISBLANK(Option_Info!Z28),"x",Option_Info!Z28)</f>
         <v>x</v>
       </c>
       <c r="Z28" t="str">
-        <f>IF(ISBLANK(Option_Info!Z28),"x",Option_Info!Z28)</f>
+        <f>IF(ISBLANK(Option_Info!AA28),"x",Option_Info!AA28)</f>
         <v>x</v>
       </c>
       <c r="AA28" t="str">
-        <f>IF(ISBLANK(Option_Info!AA28),"x",Option_Info!AA28)</f>
+        <f>IF(ISBLANK(Option_Info!AB28),"x",Option_Info!AB28)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29">
         <f>IF(ISBLANK(Option_Info!A29),"x",Option_Info!A29)</f>
         <v>1</v>
@@ -9893,79 +10097,79 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <f>IF(ISBLANK(Option_Info!J29),"x",Option_Info!J29)</f>
+        <f>IF(ISBLANK(Option_Info!K29),"x",Option_Info!K29)</f>
         <v>20</v>
       </c>
       <c r="K29">
-        <f>IF(ISBLANK(Option_Info!K29),"x",Option_Info!K29)</f>
+        <f>IF(ISBLANK(Option_Info!L29),"x",Option_Info!L29)</f>
         <v>2</v>
       </c>
       <c r="L29" t="str">
-        <f>IF(ISBLANK(Option_Info!L29),"x",Option_Info!L29)</f>
+        <f>IF(ISBLANK(Option_Info!M29),"x",Option_Info!M29)</f>
         <v>x</v>
       </c>
       <c r="M29" t="str">
-        <f>IF(ISBLANK(Option_Info!M29),"x",Option_Info!M29)</f>
+        <f>IF(ISBLANK(Option_Info!N29),"x",Option_Info!N29)</f>
         <v>x</v>
       </c>
       <c r="N29" t="str">
-        <f>IF(ISBLANK(Option_Info!N29),"x",Option_Info!N29)</f>
+        <f>IF(ISBLANK(Option_Info!O29),"x",Option_Info!O29)</f>
         <v>x</v>
       </c>
       <c r="O29" t="str">
-        <f>IF(ISBLANK(Option_Info!O29),"x",Option_Info!O29)</f>
+        <f>IF(ISBLANK(Option_Info!P29),"x",Option_Info!P29)</f>
         <v>x</v>
       </c>
       <c r="P29" t="str">
-        <f>IF(ISBLANK(Option_Info!P29),"x",Option_Info!P29)</f>
+        <f>IF(ISBLANK(Option_Info!Q29),"x",Option_Info!Q29)</f>
         <v>x</v>
       </c>
       <c r="Q29" t="str">
-        <f>IF(ISBLANK(Option_Info!Q29),"x",Option_Info!Q29)</f>
+        <f>IF(ISBLANK(Option_Info!R29),"x",Option_Info!R29)</f>
         <v>x</v>
       </c>
       <c r="R29" t="str">
-        <f>IF(ISBLANK(Option_Info!R29),"x",Option_Info!R29)</f>
+        <f>IF(ISBLANK(Option_Info!S29),"x",Option_Info!S29)</f>
         <v>x</v>
       </c>
       <c r="S29" t="str">
-        <f>IF(ISBLANK(Option_Info!S29),"x",Option_Info!S29)</f>
+        <f>IF(ISBLANK(Option_Info!T29),"x",Option_Info!T29)</f>
         <v>x</v>
       </c>
       <c r="T29" t="str">
-        <f>IF(ISBLANK(Option_Info!T29),"x",Option_Info!T29)</f>
+        <f>IF(ISBLANK(Option_Info!U29),"x",Option_Info!U29)</f>
         <v>x</v>
       </c>
       <c r="U29" t="str">
-        <f>IF(ISBLANK(Option_Info!U29),"x",Option_Info!U29)</f>
+        <f>IF(ISBLANK(Option_Info!V29),"x",Option_Info!V29)</f>
         <v>x</v>
       </c>
       <c r="V29" t="str">
-        <f>IF(ISBLANK(Option_Info!V29),"x",Option_Info!V29)</f>
+        <f>IF(ISBLANK(Option_Info!W29),"x",Option_Info!W29)</f>
         <v>x</v>
       </c>
       <c r="W29" t="str">
-        <f>IF(ISBLANK(Option_Info!W29),"x",Option_Info!W29)</f>
+        <f>IF(ISBLANK(Option_Info!X29),"x",Option_Info!X29)</f>
         <v>x</v>
       </c>
       <c r="X29" t="str">
-        <f>IF(ISBLANK(Option_Info!X29),"x",Option_Info!X29)</f>
+        <f>IF(ISBLANK(Option_Info!Y29),"x",Option_Info!Y29)</f>
         <v>x</v>
       </c>
       <c r="Y29" t="str">
-        <f>IF(ISBLANK(Option_Info!Y29),"x",Option_Info!Y29)</f>
+        <f>IF(ISBLANK(Option_Info!Z29),"x",Option_Info!Z29)</f>
         <v>x</v>
       </c>
       <c r="Z29" t="str">
-        <f>IF(ISBLANK(Option_Info!Z29),"x",Option_Info!Z29)</f>
+        <f>IF(ISBLANK(Option_Info!AA29),"x",Option_Info!AA29)</f>
         <v>x</v>
       </c>
       <c r="AA29" t="str">
-        <f>IF(ISBLANK(Option_Info!AA29),"x",Option_Info!AA29)</f>
+        <f>IF(ISBLANK(Option_Info!AB29),"x",Option_Info!AB29)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30">
         <f>IF(ISBLANK(Option_Info!A30),"x",Option_Info!A30)</f>
         <v>1</v>
@@ -10003,79 +10207,79 @@
         <v>x</v>
       </c>
       <c r="J30" t="str">
-        <f>IF(ISBLANK(Option_Info!J30),"x",Option_Info!J30)</f>
+        <f>IF(ISBLANK(Option_Info!K30),"x",Option_Info!K30)</f>
         <v>x</v>
       </c>
       <c r="K30" t="str">
-        <f>IF(ISBLANK(Option_Info!K30),"x",Option_Info!K30)</f>
+        <f>IF(ISBLANK(Option_Info!L30),"x",Option_Info!L30)</f>
         <v>x</v>
       </c>
       <c r="L30" t="str">
-        <f>IF(ISBLANK(Option_Info!L30),"x",Option_Info!L30)</f>
+        <f>IF(ISBLANK(Option_Info!M30),"x",Option_Info!M30)</f>
         <v>x</v>
       </c>
       <c r="M30" t="str">
-        <f>IF(ISBLANK(Option_Info!M30),"x",Option_Info!M30)</f>
+        <f>IF(ISBLANK(Option_Info!N30),"x",Option_Info!N30)</f>
         <v>x</v>
       </c>
       <c r="N30" t="str">
-        <f>IF(ISBLANK(Option_Info!N30),"x",Option_Info!N30)</f>
+        <f>IF(ISBLANK(Option_Info!O30),"x",Option_Info!O30)</f>
         <v>x</v>
       </c>
       <c r="O30" t="str">
-        <f>IF(ISBLANK(Option_Info!O30),"x",Option_Info!O30)</f>
+        <f>IF(ISBLANK(Option_Info!P30),"x",Option_Info!P30)</f>
         <v>x</v>
       </c>
       <c r="P30" t="str">
-        <f>IF(ISBLANK(Option_Info!P30),"x",Option_Info!P30)</f>
+        <f>IF(ISBLANK(Option_Info!Q30),"x",Option_Info!Q30)</f>
         <v>x</v>
       </c>
       <c r="Q30" t="str">
-        <f>IF(ISBLANK(Option_Info!Q30),"x",Option_Info!Q30)</f>
+        <f>IF(ISBLANK(Option_Info!R30),"x",Option_Info!R30)</f>
         <v>x</v>
       </c>
       <c r="R30" t="str">
-        <f>IF(ISBLANK(Option_Info!R30),"x",Option_Info!R30)</f>
+        <f>IF(ISBLANK(Option_Info!S30),"x",Option_Info!S30)</f>
         <v>x</v>
       </c>
       <c r="S30" t="str">
-        <f>IF(ISBLANK(Option_Info!S30),"x",Option_Info!S30)</f>
+        <f>IF(ISBLANK(Option_Info!T30),"x",Option_Info!T30)</f>
         <v>x</v>
       </c>
       <c r="T30" t="str">
-        <f>IF(ISBLANK(Option_Info!T30),"x",Option_Info!T30)</f>
+        <f>IF(ISBLANK(Option_Info!U30),"x",Option_Info!U30)</f>
         <v>x</v>
       </c>
       <c r="U30" t="str">
-        <f>IF(ISBLANK(Option_Info!U30),"x",Option_Info!U30)</f>
+        <f>IF(ISBLANK(Option_Info!V30),"x",Option_Info!V30)</f>
         <v>x</v>
       </c>
       <c r="V30" t="str">
-        <f>IF(ISBLANK(Option_Info!V30),"x",Option_Info!V30)</f>
+        <f>IF(ISBLANK(Option_Info!W30),"x",Option_Info!W30)</f>
         <v>x</v>
       </c>
       <c r="W30" t="str">
-        <f>IF(ISBLANK(Option_Info!W30),"x",Option_Info!W30)</f>
+        <f>IF(ISBLANK(Option_Info!X30),"x",Option_Info!X30)</f>
         <v>x</v>
       </c>
       <c r="X30" t="str">
-        <f>IF(ISBLANK(Option_Info!X30),"x",Option_Info!X30)</f>
+        <f>IF(ISBLANK(Option_Info!Y30),"x",Option_Info!Y30)</f>
         <v>x</v>
       </c>
       <c r="Y30" t="str">
-        <f>IF(ISBLANK(Option_Info!Y30),"x",Option_Info!Y30)</f>
+        <f>IF(ISBLANK(Option_Info!Z30),"x",Option_Info!Z30)</f>
         <v>x</v>
       </c>
       <c r="Z30" t="str">
-        <f>IF(ISBLANK(Option_Info!Z30),"x",Option_Info!Z30)</f>
+        <f>IF(ISBLANK(Option_Info!AA30),"x",Option_Info!AA30)</f>
         <v>x</v>
       </c>
       <c r="AA30" t="str">
-        <f>IF(ISBLANK(Option_Info!AA30),"x",Option_Info!AA30)</f>
+        <f>IF(ISBLANK(Option_Info!AB30),"x",Option_Info!AB30)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31">
         <f>IF(ISBLANK(Option_Info!A31),"x",Option_Info!A31)</f>
         <v>2</v>
@@ -10113,79 +10317,79 @@
         <v>x</v>
       </c>
       <c r="J31" t="str">
-        <f>IF(ISBLANK(Option_Info!J31),"x",Option_Info!J31)</f>
+        <f>IF(ISBLANK(Option_Info!K31),"x",Option_Info!K31)</f>
         <v>x</v>
       </c>
       <c r="K31" t="str">
-        <f>IF(ISBLANK(Option_Info!K31),"x",Option_Info!K31)</f>
+        <f>IF(ISBLANK(Option_Info!L31),"x",Option_Info!L31)</f>
         <v>x</v>
       </c>
       <c r="L31" t="str">
-        <f>IF(ISBLANK(Option_Info!L31),"x",Option_Info!L31)</f>
+        <f>IF(ISBLANK(Option_Info!M31),"x",Option_Info!M31)</f>
         <v>x</v>
       </c>
       <c r="M31" t="str">
-        <f>IF(ISBLANK(Option_Info!M31),"x",Option_Info!M31)</f>
+        <f>IF(ISBLANK(Option_Info!N31),"x",Option_Info!N31)</f>
         <v>x</v>
       </c>
       <c r="N31" t="str">
-        <f>IF(ISBLANK(Option_Info!N31),"x",Option_Info!N31)</f>
+        <f>IF(ISBLANK(Option_Info!O31),"x",Option_Info!O31)</f>
         <v>x</v>
       </c>
       <c r="O31" t="str">
-        <f>IF(ISBLANK(Option_Info!O31),"x",Option_Info!O31)</f>
+        <f>IF(ISBLANK(Option_Info!P31),"x",Option_Info!P31)</f>
         <v>x</v>
       </c>
       <c r="P31" t="str">
-        <f>IF(ISBLANK(Option_Info!P31),"x",Option_Info!P31)</f>
+        <f>IF(ISBLANK(Option_Info!Q31),"x",Option_Info!Q31)</f>
         <v>x</v>
       </c>
       <c r="Q31" t="str">
-        <f>IF(ISBLANK(Option_Info!Q31),"x",Option_Info!Q31)</f>
+        <f>IF(ISBLANK(Option_Info!R31),"x",Option_Info!R31)</f>
         <v>x</v>
       </c>
       <c r="R31" t="str">
-        <f>IF(ISBLANK(Option_Info!R31),"x",Option_Info!R31)</f>
+        <f>IF(ISBLANK(Option_Info!S31),"x",Option_Info!S31)</f>
         <v>x</v>
       </c>
       <c r="S31" t="str">
-        <f>IF(ISBLANK(Option_Info!S31),"x",Option_Info!S31)</f>
+        <f>IF(ISBLANK(Option_Info!T31),"x",Option_Info!T31)</f>
         <v>x</v>
       </c>
       <c r="T31" t="str">
-        <f>IF(ISBLANK(Option_Info!T31),"x",Option_Info!T31)</f>
+        <f>IF(ISBLANK(Option_Info!U31),"x",Option_Info!U31)</f>
         <v>x</v>
       </c>
       <c r="U31" t="str">
-        <f>IF(ISBLANK(Option_Info!U31),"x",Option_Info!U31)</f>
+        <f>IF(ISBLANK(Option_Info!V31),"x",Option_Info!V31)</f>
         <v>x</v>
       </c>
       <c r="V31" t="str">
-        <f>IF(ISBLANK(Option_Info!V31),"x",Option_Info!V31)</f>
+        <f>IF(ISBLANK(Option_Info!W31),"x",Option_Info!W31)</f>
         <v>x</v>
       </c>
       <c r="W31" t="str">
-        <f>IF(ISBLANK(Option_Info!W31),"x",Option_Info!W31)</f>
+        <f>IF(ISBLANK(Option_Info!X31),"x",Option_Info!X31)</f>
         <v>x</v>
       </c>
       <c r="X31" t="str">
-        <f>IF(ISBLANK(Option_Info!X31),"x",Option_Info!X31)</f>
+        <f>IF(ISBLANK(Option_Info!Y31),"x",Option_Info!Y31)</f>
         <v>x</v>
       </c>
       <c r="Y31" t="str">
-        <f>IF(ISBLANK(Option_Info!Y31),"x",Option_Info!Y31)</f>
+        <f>IF(ISBLANK(Option_Info!Z31),"x",Option_Info!Z31)</f>
         <v>x</v>
       </c>
       <c r="Z31" t="str">
-        <f>IF(ISBLANK(Option_Info!Z31),"x",Option_Info!Z31)</f>
+        <f>IF(ISBLANK(Option_Info!AA31),"x",Option_Info!AA31)</f>
         <v>x</v>
       </c>
       <c r="AA31" t="str">
-        <f>IF(ISBLANK(Option_Info!AA31),"x",Option_Info!AA31)</f>
+        <f>IF(ISBLANK(Option_Info!AB31),"x",Option_Info!AB31)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32">
         <f>IF(ISBLANK(Option_Info!A32),"x",Option_Info!A32)</f>
         <v>2</v>
@@ -10223,79 +10427,79 @@
         <v>x</v>
       </c>
       <c r="J32" t="str">
-        <f>IF(ISBLANK(Option_Info!J32),"x",Option_Info!J32)</f>
+        <f>IF(ISBLANK(Option_Info!K32),"x",Option_Info!K32)</f>
         <v>x</v>
       </c>
       <c r="K32" t="str">
-        <f>IF(ISBLANK(Option_Info!K32),"x",Option_Info!K32)</f>
+        <f>IF(ISBLANK(Option_Info!L32),"x",Option_Info!L32)</f>
         <v>x</v>
       </c>
       <c r="L32" t="str">
-        <f>IF(ISBLANK(Option_Info!L32),"x",Option_Info!L32)</f>
+        <f>IF(ISBLANK(Option_Info!M32),"x",Option_Info!M32)</f>
         <v>x</v>
       </c>
       <c r="M32" t="str">
-        <f>IF(ISBLANK(Option_Info!M32),"x",Option_Info!M32)</f>
+        <f>IF(ISBLANK(Option_Info!N32),"x",Option_Info!N32)</f>
         <v>x</v>
       </c>
       <c r="N32" t="str">
-        <f>IF(ISBLANK(Option_Info!N32),"x",Option_Info!N32)</f>
+        <f>IF(ISBLANK(Option_Info!O32),"x",Option_Info!O32)</f>
         <v>x</v>
       </c>
       <c r="O32" t="str">
-        <f>IF(ISBLANK(Option_Info!O32),"x",Option_Info!O32)</f>
+        <f>IF(ISBLANK(Option_Info!P32),"x",Option_Info!P32)</f>
         <v>x</v>
       </c>
       <c r="P32" t="str">
-        <f>IF(ISBLANK(Option_Info!P32),"x",Option_Info!P32)</f>
+        <f>IF(ISBLANK(Option_Info!Q32),"x",Option_Info!Q32)</f>
         <v>x</v>
       </c>
       <c r="Q32" t="str">
-        <f>IF(ISBLANK(Option_Info!Q32),"x",Option_Info!Q32)</f>
+        <f>IF(ISBLANK(Option_Info!R32),"x",Option_Info!R32)</f>
         <v>x</v>
       </c>
       <c r="R32" t="str">
-        <f>IF(ISBLANK(Option_Info!R32),"x",Option_Info!R32)</f>
+        <f>IF(ISBLANK(Option_Info!S32),"x",Option_Info!S32)</f>
         <v>x</v>
       </c>
       <c r="S32" t="str">
-        <f>IF(ISBLANK(Option_Info!S32),"x",Option_Info!S32)</f>
+        <f>IF(ISBLANK(Option_Info!T32),"x",Option_Info!T32)</f>
         <v>x</v>
       </c>
       <c r="T32" t="str">
-        <f>IF(ISBLANK(Option_Info!T32),"x",Option_Info!T32)</f>
+        <f>IF(ISBLANK(Option_Info!U32),"x",Option_Info!U32)</f>
         <v>x</v>
       </c>
       <c r="U32" t="str">
-        <f>IF(ISBLANK(Option_Info!U32),"x",Option_Info!U32)</f>
+        <f>IF(ISBLANK(Option_Info!V32),"x",Option_Info!V32)</f>
         <v>x</v>
       </c>
       <c r="V32" t="str">
-        <f>IF(ISBLANK(Option_Info!V32),"x",Option_Info!V32)</f>
+        <f>IF(ISBLANK(Option_Info!W32),"x",Option_Info!W32)</f>
         <v>x</v>
       </c>
       <c r="W32" t="str">
-        <f>IF(ISBLANK(Option_Info!W32),"x",Option_Info!W32)</f>
+        <f>IF(ISBLANK(Option_Info!X32),"x",Option_Info!X32)</f>
         <v>x</v>
       </c>
       <c r="X32" t="str">
-        <f>IF(ISBLANK(Option_Info!X32),"x",Option_Info!X32)</f>
+        <f>IF(ISBLANK(Option_Info!Y32),"x",Option_Info!Y32)</f>
         <v>x</v>
       </c>
       <c r="Y32" t="str">
-        <f>IF(ISBLANK(Option_Info!Y32),"x",Option_Info!Y32)</f>
+        <f>IF(ISBLANK(Option_Info!Z32),"x",Option_Info!Z32)</f>
         <v>x</v>
       </c>
       <c r="Z32" t="str">
-        <f>IF(ISBLANK(Option_Info!Z32),"x",Option_Info!Z32)</f>
+        <f>IF(ISBLANK(Option_Info!AA32),"x",Option_Info!AA32)</f>
         <v>x</v>
       </c>
       <c r="AA32" t="str">
-        <f>IF(ISBLANK(Option_Info!AA32),"x",Option_Info!AA32)</f>
+        <f>IF(ISBLANK(Option_Info!AB32),"x",Option_Info!AB32)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33">
         <f>IF(ISBLANK(Option_Info!A33),"x",Option_Info!A33)</f>
         <v>2</v>
@@ -10333,79 +10537,79 @@
         <v>x</v>
       </c>
       <c r="J33" t="str">
-        <f>IF(ISBLANK(Option_Info!J33),"x",Option_Info!J33)</f>
+        <f>IF(ISBLANK(Option_Info!K33),"x",Option_Info!K33)</f>
         <v>x</v>
       </c>
       <c r="K33" t="str">
-        <f>IF(ISBLANK(Option_Info!K33),"x",Option_Info!K33)</f>
+        <f>IF(ISBLANK(Option_Info!L33),"x",Option_Info!L33)</f>
         <v>x</v>
       </c>
       <c r="L33" t="str">
-        <f>IF(ISBLANK(Option_Info!L33),"x",Option_Info!L33)</f>
+        <f>IF(ISBLANK(Option_Info!M33),"x",Option_Info!M33)</f>
         <v>x</v>
       </c>
       <c r="M33" t="str">
-        <f>IF(ISBLANK(Option_Info!M33),"x",Option_Info!M33)</f>
+        <f>IF(ISBLANK(Option_Info!N33),"x",Option_Info!N33)</f>
         <v>x</v>
       </c>
       <c r="N33" t="str">
-        <f>IF(ISBLANK(Option_Info!N33),"x",Option_Info!N33)</f>
+        <f>IF(ISBLANK(Option_Info!O33),"x",Option_Info!O33)</f>
         <v>x</v>
       </c>
       <c r="O33" t="str">
-        <f>IF(ISBLANK(Option_Info!O33),"x",Option_Info!O33)</f>
+        <f>IF(ISBLANK(Option_Info!P33),"x",Option_Info!P33)</f>
         <v>x</v>
       </c>
       <c r="P33" t="str">
-        <f>IF(ISBLANK(Option_Info!P33),"x",Option_Info!P33)</f>
+        <f>IF(ISBLANK(Option_Info!Q33),"x",Option_Info!Q33)</f>
         <v>x</v>
       </c>
       <c r="Q33" t="str">
-        <f>IF(ISBLANK(Option_Info!Q33),"x",Option_Info!Q33)</f>
+        <f>IF(ISBLANK(Option_Info!R33),"x",Option_Info!R33)</f>
         <v>x</v>
       </c>
       <c r="R33" t="str">
-        <f>IF(ISBLANK(Option_Info!R33),"x",Option_Info!R33)</f>
+        <f>IF(ISBLANK(Option_Info!S33),"x",Option_Info!S33)</f>
         <v>x</v>
       </c>
       <c r="S33" t="str">
-        <f>IF(ISBLANK(Option_Info!S33),"x",Option_Info!S33)</f>
+        <f>IF(ISBLANK(Option_Info!T33),"x",Option_Info!T33)</f>
         <v>x</v>
       </c>
       <c r="T33" t="str">
-        <f>IF(ISBLANK(Option_Info!T33),"x",Option_Info!T33)</f>
+        <f>IF(ISBLANK(Option_Info!U33),"x",Option_Info!U33)</f>
         <v>x</v>
       </c>
       <c r="U33" t="str">
-        <f>IF(ISBLANK(Option_Info!U33),"x",Option_Info!U33)</f>
+        <f>IF(ISBLANK(Option_Info!V33),"x",Option_Info!V33)</f>
         <v>x</v>
       </c>
       <c r="V33" t="str">
-        <f>IF(ISBLANK(Option_Info!V33),"x",Option_Info!V33)</f>
+        <f>IF(ISBLANK(Option_Info!W33),"x",Option_Info!W33)</f>
         <v>x</v>
       </c>
       <c r="W33" t="str">
-        <f>IF(ISBLANK(Option_Info!W33),"x",Option_Info!W33)</f>
+        <f>IF(ISBLANK(Option_Info!X33),"x",Option_Info!X33)</f>
         <v>x</v>
       </c>
       <c r="X33" t="str">
-        <f>IF(ISBLANK(Option_Info!X33),"x",Option_Info!X33)</f>
+        <f>IF(ISBLANK(Option_Info!Y33),"x",Option_Info!Y33)</f>
         <v>x</v>
       </c>
       <c r="Y33" t="str">
-        <f>IF(ISBLANK(Option_Info!Y33),"x",Option_Info!Y33)</f>
+        <f>IF(ISBLANK(Option_Info!Z33),"x",Option_Info!Z33)</f>
         <v>x</v>
       </c>
       <c r="Z33" t="str">
-        <f>IF(ISBLANK(Option_Info!Z33),"x",Option_Info!Z33)</f>
+        <f>IF(ISBLANK(Option_Info!AA33),"x",Option_Info!AA33)</f>
         <v>x</v>
       </c>
       <c r="AA33" t="str">
-        <f>IF(ISBLANK(Option_Info!AA33),"x",Option_Info!AA33)</f>
+        <f>IF(ISBLANK(Option_Info!AB33),"x",Option_Info!AB33)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="A34">
         <f>IF(ISBLANK(Option_Info!A34),"x",Option_Info!A34)</f>
         <v>2</v>
@@ -10443,79 +10647,79 @@
         <v>x</v>
       </c>
       <c r="J34" t="str">
-        <f>IF(ISBLANK(Option_Info!J34),"x",Option_Info!J34)</f>
+        <f>IF(ISBLANK(Option_Info!K34),"x",Option_Info!K34)</f>
         <v>x</v>
       </c>
       <c r="K34" t="str">
-        <f>IF(ISBLANK(Option_Info!K34),"x",Option_Info!K34)</f>
+        <f>IF(ISBLANK(Option_Info!L34),"x",Option_Info!L34)</f>
         <v>x</v>
       </c>
       <c r="L34">
-        <f>IF(ISBLANK(Option_Info!L34),"x",Option_Info!L34)</f>
+        <f>IF(ISBLANK(Option_Info!M34),"x",Option_Info!M34)</f>
         <v>11</v>
       </c>
       <c r="M34" t="str">
-        <f>IF(ISBLANK(Option_Info!M34),"x",Option_Info!M34)</f>
-        <v>qwe</v>
-      </c>
-      <c r="N34" t="str">
         <f>IF(ISBLANK(Option_Info!N34),"x",Option_Info!N34)</f>
         <v>qwe</v>
       </c>
-      <c r="O34" t="str">
+      <c r="N34" t="str">
         <f>IF(ISBLANK(Option_Info!O34),"x",Option_Info!O34)</f>
         <v>qwe</v>
       </c>
+      <c r="O34" t="str">
+        <f>IF(ISBLANK(Option_Info!P34),"x",Option_Info!P34)</f>
+        <v>qwe</v>
+      </c>
       <c r="P34" t="str">
-        <f>IF(ISBLANK(Option_Info!P34),"x",Option_Info!P34)</f>
-        <v>we</v>
-      </c>
-      <c r="Q34" t="str">
         <f>IF(ISBLANK(Option_Info!Q34),"x",Option_Info!Q34)</f>
         <v>we</v>
       </c>
+      <c r="Q34" t="str">
+        <f>IF(ISBLANK(Option_Info!R34),"x",Option_Info!R34)</f>
+        <v>we</v>
+      </c>
       <c r="R34" t="str">
-        <f>IF(ISBLANK(Option_Info!R34),"x",Option_Info!R34)</f>
+        <f>IF(ISBLANK(Option_Info!S34),"x",Option_Info!S34)</f>
         <v>qwe</v>
       </c>
       <c r="S34" t="str">
-        <f>IF(ISBLANK(Option_Info!S34),"x",Option_Info!S34)</f>
+        <f>IF(ISBLANK(Option_Info!T34),"x",Option_Info!T34)</f>
         <v>rwe</v>
       </c>
       <c r="T34" t="str">
-        <f>IF(ISBLANK(Option_Info!T34),"x",Option_Info!T34)</f>
+        <f>IF(ISBLANK(Option_Info!U34),"x",Option_Info!U34)</f>
         <v>wer</v>
       </c>
       <c r="U34" t="str">
-        <f>IF(ISBLANK(Option_Info!U34),"x",Option_Info!U34)</f>
+        <f>IF(ISBLANK(Option_Info!V34),"x",Option_Info!V34)</f>
         <v>qw</v>
       </c>
       <c r="V34" t="str">
-        <f>IF(ISBLANK(Option_Info!V34),"x",Option_Info!V34)</f>
+        <f>IF(ISBLANK(Option_Info!W34),"x",Option_Info!W34)</f>
         <v>rew</v>
       </c>
       <c r="W34" t="str">
-        <f>IF(ISBLANK(Option_Info!W34),"x",Option_Info!W34)</f>
+        <f>IF(ISBLANK(Option_Info!X34),"x",Option_Info!X34)</f>
         <v>qwe</v>
       </c>
       <c r="X34" t="str">
-        <f>IF(ISBLANK(Option_Info!X34),"x",Option_Info!X34)</f>
+        <f>IF(ISBLANK(Option_Info!Y34),"x",Option_Info!Y34)</f>
         <v>x</v>
       </c>
       <c r="Y34" t="str">
-        <f>IF(ISBLANK(Option_Info!Y34),"x",Option_Info!Y34)</f>
+        <f>IF(ISBLANK(Option_Info!Z34),"x",Option_Info!Z34)</f>
         <v>x</v>
       </c>
       <c r="Z34" t="str">
-        <f>IF(ISBLANK(Option_Info!Z34),"x",Option_Info!Z34)</f>
+        <f>IF(ISBLANK(Option_Info!AA34),"x",Option_Info!AA34)</f>
         <v>x</v>
       </c>
       <c r="AA34" t="str">
-        <f>IF(ISBLANK(Option_Info!AA34),"x",Option_Info!AA34)</f>
+        <f>IF(ISBLANK(Option_Info!AB34),"x",Option_Info!AB34)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35">
         <f>IF(ISBLANK(Option_Info!A35),"x",Option_Info!A35)</f>
         <v>2</v>
@@ -10553,79 +10757,79 @@
         <v>22</v>
       </c>
       <c r="J35">
-        <f>IF(ISBLANK(Option_Info!J35),"x",Option_Info!J35)</f>
+        <f>IF(ISBLANK(Option_Info!K35),"x",Option_Info!K35)</f>
         <v>45</v>
       </c>
       <c r="K35">
-        <f>IF(ISBLANK(Option_Info!K35),"x",Option_Info!K35)</f>
+        <f>IF(ISBLANK(Option_Info!L35),"x",Option_Info!L35)</f>
         <v>3</v>
       </c>
       <c r="L35" t="str">
-        <f>IF(ISBLANK(Option_Info!L35),"x",Option_Info!L35)</f>
+        <f>IF(ISBLANK(Option_Info!M35),"x",Option_Info!M35)</f>
         <v>x</v>
       </c>
       <c r="M35" t="str">
-        <f>IF(ISBLANK(Option_Info!M35),"x",Option_Info!M35)</f>
+        <f>IF(ISBLANK(Option_Info!N35),"x",Option_Info!N35)</f>
         <v>x</v>
       </c>
       <c r="N35" t="str">
-        <f>IF(ISBLANK(Option_Info!N35),"x",Option_Info!N35)</f>
+        <f>IF(ISBLANK(Option_Info!O35),"x",Option_Info!O35)</f>
         <v>x</v>
       </c>
       <c r="O35" t="str">
-        <f>IF(ISBLANK(Option_Info!O35),"x",Option_Info!O35)</f>
+        <f>IF(ISBLANK(Option_Info!P35),"x",Option_Info!P35)</f>
         <v>x</v>
       </c>
       <c r="P35" t="str">
-        <f>IF(ISBLANK(Option_Info!P35),"x",Option_Info!P35)</f>
+        <f>IF(ISBLANK(Option_Info!Q35),"x",Option_Info!Q35)</f>
         <v>x</v>
       </c>
       <c r="Q35" t="str">
-        <f>IF(ISBLANK(Option_Info!Q35),"x",Option_Info!Q35)</f>
+        <f>IF(ISBLANK(Option_Info!R35),"x",Option_Info!R35)</f>
         <v>x</v>
       </c>
       <c r="R35" t="str">
-        <f>IF(ISBLANK(Option_Info!R35),"x",Option_Info!R35)</f>
+        <f>IF(ISBLANK(Option_Info!S35),"x",Option_Info!S35)</f>
         <v>x</v>
       </c>
       <c r="S35" t="str">
-        <f>IF(ISBLANK(Option_Info!S35),"x",Option_Info!S35)</f>
+        <f>IF(ISBLANK(Option_Info!T35),"x",Option_Info!T35)</f>
         <v>x</v>
       </c>
       <c r="T35" t="str">
-        <f>IF(ISBLANK(Option_Info!T35),"x",Option_Info!T35)</f>
+        <f>IF(ISBLANK(Option_Info!U35),"x",Option_Info!U35)</f>
         <v>x</v>
       </c>
       <c r="U35" t="str">
-        <f>IF(ISBLANK(Option_Info!U35),"x",Option_Info!U35)</f>
+        <f>IF(ISBLANK(Option_Info!V35),"x",Option_Info!V35)</f>
         <v>x</v>
       </c>
       <c r="V35" t="str">
-        <f>IF(ISBLANK(Option_Info!V35),"x",Option_Info!V35)</f>
+        <f>IF(ISBLANK(Option_Info!W35),"x",Option_Info!W35)</f>
         <v>x</v>
       </c>
       <c r="W35" t="str">
-        <f>IF(ISBLANK(Option_Info!W35),"x",Option_Info!W35)</f>
+        <f>IF(ISBLANK(Option_Info!X35),"x",Option_Info!X35)</f>
         <v>x</v>
       </c>
       <c r="X35" t="str">
-        <f>IF(ISBLANK(Option_Info!X35),"x",Option_Info!X35)</f>
+        <f>IF(ISBLANK(Option_Info!Y35),"x",Option_Info!Y35)</f>
         <v>x</v>
       </c>
       <c r="Y35" t="str">
-        <f>IF(ISBLANK(Option_Info!Y35),"x",Option_Info!Y35)</f>
+        <f>IF(ISBLANK(Option_Info!Z35),"x",Option_Info!Z35)</f>
         <v>x</v>
       </c>
       <c r="Z35" t="str">
-        <f>IF(ISBLANK(Option_Info!Z35),"x",Option_Info!Z35)</f>
+        <f>IF(ISBLANK(Option_Info!AA35),"x",Option_Info!AA35)</f>
         <v>x</v>
       </c>
       <c r="AA35" t="str">
-        <f>IF(ISBLANK(Option_Info!AA35),"x",Option_Info!AA35)</f>
+        <f>IF(ISBLANK(Option_Info!AB35),"x",Option_Info!AB35)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36">
         <f>IF(ISBLANK(Option_Info!A36),"x",Option_Info!A36)</f>
         <v>2</v>
@@ -10663,79 +10867,79 @@
         <v>x</v>
       </c>
       <c r="J36" t="str">
-        <f>IF(ISBLANK(Option_Info!J36),"x",Option_Info!J36)</f>
+        <f>IF(ISBLANK(Option_Info!K36),"x",Option_Info!K36)</f>
         <v>x</v>
       </c>
       <c r="K36" t="str">
-        <f>IF(ISBLANK(Option_Info!K36),"x",Option_Info!K36)</f>
+        <f>IF(ISBLANK(Option_Info!L36),"x",Option_Info!L36)</f>
         <v>x</v>
       </c>
       <c r="L36" t="str">
-        <f>IF(ISBLANK(Option_Info!L36),"x",Option_Info!L36)</f>
+        <f>IF(ISBLANK(Option_Info!M36),"x",Option_Info!M36)</f>
         <v>x</v>
       </c>
       <c r="M36" t="str">
-        <f>IF(ISBLANK(Option_Info!M36),"x",Option_Info!M36)</f>
+        <f>IF(ISBLANK(Option_Info!N36),"x",Option_Info!N36)</f>
         <v>x</v>
       </c>
       <c r="N36" t="str">
-        <f>IF(ISBLANK(Option_Info!N36),"x",Option_Info!N36)</f>
+        <f>IF(ISBLANK(Option_Info!O36),"x",Option_Info!O36)</f>
         <v>x</v>
       </c>
       <c r="O36" t="str">
-        <f>IF(ISBLANK(Option_Info!O36),"x",Option_Info!O36)</f>
+        <f>IF(ISBLANK(Option_Info!P36),"x",Option_Info!P36)</f>
         <v>x</v>
       </c>
       <c r="P36" t="str">
-        <f>IF(ISBLANK(Option_Info!P36),"x",Option_Info!P36)</f>
+        <f>IF(ISBLANK(Option_Info!Q36),"x",Option_Info!Q36)</f>
         <v>x</v>
       </c>
       <c r="Q36" t="str">
-        <f>IF(ISBLANK(Option_Info!Q36),"x",Option_Info!Q36)</f>
+        <f>IF(ISBLANK(Option_Info!R36),"x",Option_Info!R36)</f>
         <v>x</v>
       </c>
       <c r="R36" t="str">
-        <f>IF(ISBLANK(Option_Info!R36),"x",Option_Info!R36)</f>
+        <f>IF(ISBLANK(Option_Info!S36),"x",Option_Info!S36)</f>
         <v>x</v>
       </c>
       <c r="S36" t="str">
-        <f>IF(ISBLANK(Option_Info!S36),"x",Option_Info!S36)</f>
+        <f>IF(ISBLANK(Option_Info!T36),"x",Option_Info!T36)</f>
         <v>x</v>
       </c>
       <c r="T36" t="str">
-        <f>IF(ISBLANK(Option_Info!T36),"x",Option_Info!T36)</f>
+        <f>IF(ISBLANK(Option_Info!U36),"x",Option_Info!U36)</f>
         <v>x</v>
       </c>
       <c r="U36" t="str">
-        <f>IF(ISBLANK(Option_Info!U36),"x",Option_Info!U36)</f>
+        <f>IF(ISBLANK(Option_Info!V36),"x",Option_Info!V36)</f>
         <v>x</v>
       </c>
       <c r="V36" t="str">
-        <f>IF(ISBLANK(Option_Info!V36),"x",Option_Info!V36)</f>
+        <f>IF(ISBLANK(Option_Info!W36),"x",Option_Info!W36)</f>
         <v>x</v>
       </c>
       <c r="W36" t="str">
-        <f>IF(ISBLANK(Option_Info!W36),"x",Option_Info!W36)</f>
+        <f>IF(ISBLANK(Option_Info!X36),"x",Option_Info!X36)</f>
         <v>x</v>
       </c>
       <c r="X36" t="str">
-        <f>IF(ISBLANK(Option_Info!X36),"x",Option_Info!X36)</f>
+        <f>IF(ISBLANK(Option_Info!Y36),"x",Option_Info!Y36)</f>
         <v>x</v>
       </c>
       <c r="Y36" t="str">
-        <f>IF(ISBLANK(Option_Info!Y36),"x",Option_Info!Y36)</f>
+        <f>IF(ISBLANK(Option_Info!Z36),"x",Option_Info!Z36)</f>
         <v>x</v>
       </c>
       <c r="Z36" t="str">
-        <f>IF(ISBLANK(Option_Info!Z36),"x",Option_Info!Z36)</f>
+        <f>IF(ISBLANK(Option_Info!AA36),"x",Option_Info!AA36)</f>
         <v>x</v>
       </c>
       <c r="AA36" t="str">
-        <f>IF(ISBLANK(Option_Info!AA36),"x",Option_Info!AA36)</f>
+        <f>IF(ISBLANK(Option_Info!AB36),"x",Option_Info!AB36)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37">
         <f>IF(ISBLANK(Option_Info!A37),"x",Option_Info!A37)</f>
         <v>2</v>
@@ -10773,79 +10977,79 @@
         <v>x</v>
       </c>
       <c r="J37" t="str">
-        <f>IF(ISBLANK(Option_Info!J37),"x",Option_Info!J37)</f>
+        <f>IF(ISBLANK(Option_Info!K37),"x",Option_Info!K37)</f>
         <v>x</v>
       </c>
       <c r="K37" t="str">
-        <f>IF(ISBLANK(Option_Info!K37),"x",Option_Info!K37)</f>
+        <f>IF(ISBLANK(Option_Info!L37),"x",Option_Info!L37)</f>
         <v>x</v>
       </c>
       <c r="L37" t="str">
-        <f>IF(ISBLANK(Option_Info!L37),"x",Option_Info!L37)</f>
+        <f>IF(ISBLANK(Option_Info!M37),"x",Option_Info!M37)</f>
         <v>x</v>
       </c>
       <c r="M37" t="str">
-        <f>IF(ISBLANK(Option_Info!M37),"x",Option_Info!M37)</f>
+        <f>IF(ISBLANK(Option_Info!N37),"x",Option_Info!N37)</f>
         <v>x</v>
       </c>
       <c r="N37" t="str">
-        <f>IF(ISBLANK(Option_Info!N37),"x",Option_Info!N37)</f>
+        <f>IF(ISBLANK(Option_Info!O37),"x",Option_Info!O37)</f>
         <v>x</v>
       </c>
       <c r="O37" t="str">
-        <f>IF(ISBLANK(Option_Info!O37),"x",Option_Info!O37)</f>
+        <f>IF(ISBLANK(Option_Info!P37),"x",Option_Info!P37)</f>
         <v>x</v>
       </c>
       <c r="P37" t="str">
-        <f>IF(ISBLANK(Option_Info!P37),"x",Option_Info!P37)</f>
+        <f>IF(ISBLANK(Option_Info!Q37),"x",Option_Info!Q37)</f>
         <v>x</v>
       </c>
       <c r="Q37" t="str">
-        <f>IF(ISBLANK(Option_Info!Q37),"x",Option_Info!Q37)</f>
+        <f>IF(ISBLANK(Option_Info!R37),"x",Option_Info!R37)</f>
         <v>x</v>
       </c>
       <c r="R37" t="str">
-        <f>IF(ISBLANK(Option_Info!R37),"x",Option_Info!R37)</f>
+        <f>IF(ISBLANK(Option_Info!S37),"x",Option_Info!S37)</f>
         <v>x</v>
       </c>
       <c r="S37" t="str">
-        <f>IF(ISBLANK(Option_Info!S37),"x",Option_Info!S37)</f>
+        <f>IF(ISBLANK(Option_Info!T37),"x",Option_Info!T37)</f>
         <v>x</v>
       </c>
       <c r="T37" t="str">
-        <f>IF(ISBLANK(Option_Info!T37),"x",Option_Info!T37)</f>
+        <f>IF(ISBLANK(Option_Info!U37),"x",Option_Info!U37)</f>
         <v>x</v>
       </c>
       <c r="U37" t="str">
-        <f>IF(ISBLANK(Option_Info!U37),"x",Option_Info!U37)</f>
+        <f>IF(ISBLANK(Option_Info!V37),"x",Option_Info!V37)</f>
         <v>x</v>
       </c>
       <c r="V37" t="str">
-        <f>IF(ISBLANK(Option_Info!V37),"x",Option_Info!V37)</f>
+        <f>IF(ISBLANK(Option_Info!W37),"x",Option_Info!W37)</f>
         <v>x</v>
       </c>
       <c r="W37" t="str">
-        <f>IF(ISBLANK(Option_Info!W37),"x",Option_Info!W37)</f>
+        <f>IF(ISBLANK(Option_Info!X37),"x",Option_Info!X37)</f>
         <v>x</v>
       </c>
       <c r="X37" t="str">
-        <f>IF(ISBLANK(Option_Info!X37),"x",Option_Info!X37)</f>
+        <f>IF(ISBLANK(Option_Info!Y37),"x",Option_Info!Y37)</f>
         <v>x</v>
       </c>
       <c r="Y37" t="str">
-        <f>IF(ISBLANK(Option_Info!Y37),"x",Option_Info!Y37)</f>
+        <f>IF(ISBLANK(Option_Info!Z37),"x",Option_Info!Z37)</f>
         <v>x</v>
       </c>
       <c r="Z37" t="str">
-        <f>IF(ISBLANK(Option_Info!Z37),"x",Option_Info!Z37)</f>
+        <f>IF(ISBLANK(Option_Info!AA37),"x",Option_Info!AA37)</f>
         <v>x</v>
       </c>
       <c r="AA37" t="str">
-        <f>IF(ISBLANK(Option_Info!AA37),"x",Option_Info!AA37)</f>
+        <f>IF(ISBLANK(Option_Info!AB37),"x",Option_Info!AB37)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="A38">
         <f>IF(ISBLANK(Option_Info!A38),"x",Option_Info!A38)</f>
         <v>2</v>
@@ -10883,79 +11087,79 @@
         <v>x</v>
       </c>
       <c r="J38" t="str">
-        <f>IF(ISBLANK(Option_Info!J38),"x",Option_Info!J38)</f>
+        <f>IF(ISBLANK(Option_Info!K38),"x",Option_Info!K38)</f>
         <v>x</v>
       </c>
       <c r="K38" t="str">
-        <f>IF(ISBLANK(Option_Info!K38),"x",Option_Info!K38)</f>
+        <f>IF(ISBLANK(Option_Info!L38),"x",Option_Info!L38)</f>
         <v>x</v>
       </c>
       <c r="L38" t="str">
-        <f>IF(ISBLANK(Option_Info!L38),"x",Option_Info!L38)</f>
+        <f>IF(ISBLANK(Option_Info!M38),"x",Option_Info!M38)</f>
         <v>x</v>
       </c>
       <c r="M38" t="str">
-        <f>IF(ISBLANK(Option_Info!M38),"x",Option_Info!M38)</f>
+        <f>IF(ISBLANK(Option_Info!N38),"x",Option_Info!N38)</f>
         <v>x</v>
       </c>
       <c r="N38" t="str">
-        <f>IF(ISBLANK(Option_Info!N38),"x",Option_Info!N38)</f>
+        <f>IF(ISBLANK(Option_Info!O38),"x",Option_Info!O38)</f>
         <v>x</v>
       </c>
       <c r="O38" t="str">
-        <f>IF(ISBLANK(Option_Info!O38),"x",Option_Info!O38)</f>
+        <f>IF(ISBLANK(Option_Info!P38),"x",Option_Info!P38)</f>
         <v>x</v>
       </c>
       <c r="P38" t="str">
-        <f>IF(ISBLANK(Option_Info!P38),"x",Option_Info!P38)</f>
+        <f>IF(ISBLANK(Option_Info!Q38),"x",Option_Info!Q38)</f>
         <v>x</v>
       </c>
       <c r="Q38" t="str">
-        <f>IF(ISBLANK(Option_Info!Q38),"x",Option_Info!Q38)</f>
+        <f>IF(ISBLANK(Option_Info!R38),"x",Option_Info!R38)</f>
         <v>x</v>
       </c>
       <c r="R38" t="str">
-        <f>IF(ISBLANK(Option_Info!R38),"x",Option_Info!R38)</f>
+        <f>IF(ISBLANK(Option_Info!S38),"x",Option_Info!S38)</f>
         <v>x</v>
       </c>
       <c r="S38" t="str">
-        <f>IF(ISBLANK(Option_Info!S38),"x",Option_Info!S38)</f>
+        <f>IF(ISBLANK(Option_Info!T38),"x",Option_Info!T38)</f>
         <v>x</v>
       </c>
       <c r="T38" t="str">
-        <f>IF(ISBLANK(Option_Info!T38),"x",Option_Info!T38)</f>
+        <f>IF(ISBLANK(Option_Info!U38),"x",Option_Info!U38)</f>
         <v>x</v>
       </c>
       <c r="U38" t="str">
-        <f>IF(ISBLANK(Option_Info!U38),"x",Option_Info!U38)</f>
+        <f>IF(ISBLANK(Option_Info!V38),"x",Option_Info!V38)</f>
         <v>x</v>
       </c>
       <c r="V38" t="str">
-        <f>IF(ISBLANK(Option_Info!V38),"x",Option_Info!V38)</f>
+        <f>IF(ISBLANK(Option_Info!W38),"x",Option_Info!W38)</f>
         <v>x</v>
       </c>
       <c r="W38" t="str">
-        <f>IF(ISBLANK(Option_Info!W38),"x",Option_Info!W38)</f>
+        <f>IF(ISBLANK(Option_Info!X38),"x",Option_Info!X38)</f>
         <v>x</v>
       </c>
       <c r="X38" t="str">
-        <f>IF(ISBLANK(Option_Info!X38),"x",Option_Info!X38)</f>
+        <f>IF(ISBLANK(Option_Info!Y38),"x",Option_Info!Y38)</f>
         <v>x</v>
       </c>
       <c r="Y38" t="str">
-        <f>IF(ISBLANK(Option_Info!Y38),"x",Option_Info!Y38)</f>
+        <f>IF(ISBLANK(Option_Info!Z38),"x",Option_Info!Z38)</f>
         <v>x</v>
       </c>
       <c r="Z38" t="str">
-        <f>IF(ISBLANK(Option_Info!Z38),"x",Option_Info!Z38)</f>
+        <f>IF(ISBLANK(Option_Info!AA38),"x",Option_Info!AA38)</f>
         <v>x</v>
       </c>
       <c r="AA38" t="str">
-        <f>IF(ISBLANK(Option_Info!AA38),"x",Option_Info!AA38)</f>
+        <f>IF(ISBLANK(Option_Info!AB38),"x",Option_Info!AB38)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="A39">
         <f>IF(ISBLANK(Option_Info!A39),"x",Option_Info!A39)</f>
         <v>2</v>
@@ -10993,79 +11197,79 @@
         <v>x</v>
       </c>
       <c r="J39" t="str">
-        <f>IF(ISBLANK(Option_Info!J39),"x",Option_Info!J39)</f>
+        <f>IF(ISBLANK(Option_Info!K39),"x",Option_Info!K39)</f>
         <v>x</v>
       </c>
       <c r="K39" t="str">
-        <f>IF(ISBLANK(Option_Info!K39),"x",Option_Info!K39)</f>
+        <f>IF(ISBLANK(Option_Info!L39),"x",Option_Info!L39)</f>
         <v>x</v>
       </c>
       <c r="L39">
-        <f>IF(ISBLANK(Option_Info!L39),"x",Option_Info!L39)</f>
+        <f>IF(ISBLANK(Option_Info!M39),"x",Option_Info!M39)</f>
         <v>2</v>
       </c>
       <c r="M39" t="str">
-        <f>IF(ISBLANK(Option_Info!M39),"x",Option_Info!M39)</f>
+        <f>IF(ISBLANK(Option_Info!N39),"x",Option_Info!N39)</f>
         <v>qwe</v>
       </c>
       <c r="N39" t="str">
-        <f>IF(ISBLANK(Option_Info!N39),"x",Option_Info!N39)</f>
+        <f>IF(ISBLANK(Option_Info!O39),"x",Option_Info!O39)</f>
         <v>erw</v>
       </c>
       <c r="O39" t="str">
-        <f>IF(ISBLANK(Option_Info!O39),"x",Option_Info!O39)</f>
+        <f>IF(ISBLANK(Option_Info!P39),"x",Option_Info!P39)</f>
         <v>x</v>
       </c>
       <c r="P39" t="str">
-        <f>IF(ISBLANK(Option_Info!P39),"x",Option_Info!P39)</f>
+        <f>IF(ISBLANK(Option_Info!Q39),"x",Option_Info!Q39)</f>
         <v>x</v>
       </c>
       <c r="Q39" t="str">
-        <f>IF(ISBLANK(Option_Info!Q39),"x",Option_Info!Q39)</f>
+        <f>IF(ISBLANK(Option_Info!R39),"x",Option_Info!R39)</f>
         <v>x</v>
       </c>
       <c r="R39" t="str">
-        <f>IF(ISBLANK(Option_Info!R39),"x",Option_Info!R39)</f>
+        <f>IF(ISBLANK(Option_Info!S39),"x",Option_Info!S39)</f>
         <v>x</v>
       </c>
       <c r="S39" t="str">
-        <f>IF(ISBLANK(Option_Info!S39),"x",Option_Info!S39)</f>
+        <f>IF(ISBLANK(Option_Info!T39),"x",Option_Info!T39)</f>
         <v>x</v>
       </c>
       <c r="T39" t="str">
-        <f>IF(ISBLANK(Option_Info!T39),"x",Option_Info!T39)</f>
+        <f>IF(ISBLANK(Option_Info!U39),"x",Option_Info!U39)</f>
         <v>x</v>
       </c>
       <c r="U39" t="str">
-        <f>IF(ISBLANK(Option_Info!U39),"x",Option_Info!U39)</f>
+        <f>IF(ISBLANK(Option_Info!V39),"x",Option_Info!V39)</f>
         <v>x</v>
       </c>
       <c r="V39" t="str">
-        <f>IF(ISBLANK(Option_Info!V39),"x",Option_Info!V39)</f>
+        <f>IF(ISBLANK(Option_Info!W39),"x",Option_Info!W39)</f>
         <v>x</v>
       </c>
       <c r="W39" t="str">
-        <f>IF(ISBLANK(Option_Info!W39),"x",Option_Info!W39)</f>
+        <f>IF(ISBLANK(Option_Info!X39),"x",Option_Info!X39)</f>
         <v>x</v>
       </c>
       <c r="X39" t="str">
-        <f>IF(ISBLANK(Option_Info!X39),"x",Option_Info!X39)</f>
+        <f>IF(ISBLANK(Option_Info!Y39),"x",Option_Info!Y39)</f>
         <v>x</v>
       </c>
       <c r="Y39" t="str">
-        <f>IF(ISBLANK(Option_Info!Y39),"x",Option_Info!Y39)</f>
+        <f>IF(ISBLANK(Option_Info!Z39),"x",Option_Info!Z39)</f>
         <v>x</v>
       </c>
       <c r="Z39" t="str">
-        <f>IF(ISBLANK(Option_Info!Z39),"x",Option_Info!Z39)</f>
+        <f>IF(ISBLANK(Option_Info!AA39),"x",Option_Info!AA39)</f>
         <v>x</v>
       </c>
       <c r="AA39" t="str">
-        <f>IF(ISBLANK(Option_Info!AA39),"x",Option_Info!AA39)</f>
+        <f>IF(ISBLANK(Option_Info!AB39),"x",Option_Info!AB39)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="A40">
         <f>IF(ISBLANK(Option_Info!A40),"x",Option_Info!A40)</f>
         <v>2</v>
@@ -11103,79 +11307,79 @@
         <v>23</v>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK(Option_Info!J40),"x",Option_Info!J40)</f>
+        <f>IF(ISBLANK(Option_Info!K40),"x",Option_Info!K40)</f>
         <v>45</v>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK(Option_Info!K40),"x",Option_Info!K40)</f>
+        <f>IF(ISBLANK(Option_Info!L40),"x",Option_Info!L40)</f>
         <v>2</v>
       </c>
       <c r="L40" t="str">
-        <f>IF(ISBLANK(Option_Info!L40),"x",Option_Info!L40)</f>
+        <f>IF(ISBLANK(Option_Info!M40),"x",Option_Info!M40)</f>
         <v>x</v>
       </c>
       <c r="M40" t="str">
-        <f>IF(ISBLANK(Option_Info!M40),"x",Option_Info!M40)</f>
+        <f>IF(ISBLANK(Option_Info!N40),"x",Option_Info!N40)</f>
         <v>x</v>
       </c>
       <c r="N40" t="str">
-        <f>IF(ISBLANK(Option_Info!N40),"x",Option_Info!N40)</f>
+        <f>IF(ISBLANK(Option_Info!O40),"x",Option_Info!O40)</f>
         <v>x</v>
       </c>
       <c r="O40" t="str">
-        <f>IF(ISBLANK(Option_Info!O40),"x",Option_Info!O40)</f>
+        <f>IF(ISBLANK(Option_Info!P40),"x",Option_Info!P40)</f>
         <v>x</v>
       </c>
       <c r="P40" t="str">
-        <f>IF(ISBLANK(Option_Info!P40),"x",Option_Info!P40)</f>
+        <f>IF(ISBLANK(Option_Info!Q40),"x",Option_Info!Q40)</f>
         <v>x</v>
       </c>
       <c r="Q40" t="str">
-        <f>IF(ISBLANK(Option_Info!Q40),"x",Option_Info!Q40)</f>
+        <f>IF(ISBLANK(Option_Info!R40),"x",Option_Info!R40)</f>
         <v>x</v>
       </c>
       <c r="R40" t="str">
-        <f>IF(ISBLANK(Option_Info!R40),"x",Option_Info!R40)</f>
+        <f>IF(ISBLANK(Option_Info!S40),"x",Option_Info!S40)</f>
         <v>x</v>
       </c>
       <c r="S40" t="str">
-        <f>IF(ISBLANK(Option_Info!S40),"x",Option_Info!S40)</f>
+        <f>IF(ISBLANK(Option_Info!T40),"x",Option_Info!T40)</f>
         <v>x</v>
       </c>
       <c r="T40" t="str">
-        <f>IF(ISBLANK(Option_Info!T40),"x",Option_Info!T40)</f>
+        <f>IF(ISBLANK(Option_Info!U40),"x",Option_Info!U40)</f>
         <v>x</v>
       </c>
       <c r="U40" t="str">
-        <f>IF(ISBLANK(Option_Info!U40),"x",Option_Info!U40)</f>
+        <f>IF(ISBLANK(Option_Info!V40),"x",Option_Info!V40)</f>
         <v>x</v>
       </c>
       <c r="V40" t="str">
-        <f>IF(ISBLANK(Option_Info!V40),"x",Option_Info!V40)</f>
+        <f>IF(ISBLANK(Option_Info!W40),"x",Option_Info!W40)</f>
         <v>x</v>
       </c>
       <c r="W40" t="str">
-        <f>IF(ISBLANK(Option_Info!W40),"x",Option_Info!W40)</f>
+        <f>IF(ISBLANK(Option_Info!X40),"x",Option_Info!X40)</f>
         <v>x</v>
       </c>
       <c r="X40" t="str">
-        <f>IF(ISBLANK(Option_Info!X40),"x",Option_Info!X40)</f>
+        <f>IF(ISBLANK(Option_Info!Y40),"x",Option_Info!Y40)</f>
         <v>x</v>
       </c>
       <c r="Y40" t="str">
-        <f>IF(ISBLANK(Option_Info!Y40),"x",Option_Info!Y40)</f>
+        <f>IF(ISBLANK(Option_Info!Z40),"x",Option_Info!Z40)</f>
         <v>x</v>
       </c>
       <c r="Z40" t="str">
-        <f>IF(ISBLANK(Option_Info!Z40),"x",Option_Info!Z40)</f>
+        <f>IF(ISBLANK(Option_Info!AA40),"x",Option_Info!AA40)</f>
         <v>x</v>
       </c>
       <c r="AA40" t="str">
-        <f>IF(ISBLANK(Option_Info!AA40),"x",Option_Info!AA40)</f>
+        <f>IF(ISBLANK(Option_Info!AB40),"x",Option_Info!AB40)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27">
       <c r="A41">
         <f>IF(ISBLANK(Option_Info!A41),"x",Option_Info!A41)</f>
         <v>2</v>
@@ -11213,79 +11417,79 @@
         <v>x</v>
       </c>
       <c r="J41" t="str">
-        <f>IF(ISBLANK(Option_Info!J41),"x",Option_Info!J41)</f>
+        <f>IF(ISBLANK(Option_Info!K41),"x",Option_Info!K41)</f>
         <v>x</v>
       </c>
       <c r="K41" t="str">
-        <f>IF(ISBLANK(Option_Info!K41),"x",Option_Info!K41)</f>
+        <f>IF(ISBLANK(Option_Info!L41),"x",Option_Info!L41)</f>
         <v>x</v>
       </c>
       <c r="L41" t="str">
-        <f>IF(ISBLANK(Option_Info!L41),"x",Option_Info!L41)</f>
+        <f>IF(ISBLANK(Option_Info!M41),"x",Option_Info!M41)</f>
         <v>x</v>
       </c>
       <c r="M41" t="str">
-        <f>IF(ISBLANK(Option_Info!M41),"x",Option_Info!M41)</f>
+        <f>IF(ISBLANK(Option_Info!N41),"x",Option_Info!N41)</f>
         <v>x</v>
       </c>
       <c r="N41" t="str">
-        <f>IF(ISBLANK(Option_Info!N41),"x",Option_Info!N41)</f>
+        <f>IF(ISBLANK(Option_Info!O41),"x",Option_Info!O41)</f>
         <v>x</v>
       </c>
       <c r="O41" t="str">
-        <f>IF(ISBLANK(Option_Info!O41),"x",Option_Info!O41)</f>
+        <f>IF(ISBLANK(Option_Info!P41),"x",Option_Info!P41)</f>
         <v>x</v>
       </c>
       <c r="P41" t="str">
-        <f>IF(ISBLANK(Option_Info!P41),"x",Option_Info!P41)</f>
+        <f>IF(ISBLANK(Option_Info!Q41),"x",Option_Info!Q41)</f>
         <v>x</v>
       </c>
       <c r="Q41" t="str">
-        <f>IF(ISBLANK(Option_Info!Q41),"x",Option_Info!Q41)</f>
+        <f>IF(ISBLANK(Option_Info!R41),"x",Option_Info!R41)</f>
         <v>x</v>
       </c>
       <c r="R41" t="str">
-        <f>IF(ISBLANK(Option_Info!R41),"x",Option_Info!R41)</f>
+        <f>IF(ISBLANK(Option_Info!S41),"x",Option_Info!S41)</f>
         <v>x</v>
       </c>
       <c r="S41" t="str">
-        <f>IF(ISBLANK(Option_Info!S41),"x",Option_Info!S41)</f>
+        <f>IF(ISBLANK(Option_Info!T41),"x",Option_Info!T41)</f>
         <v>x</v>
       </c>
       <c r="T41" t="str">
-        <f>IF(ISBLANK(Option_Info!T41),"x",Option_Info!T41)</f>
+        <f>IF(ISBLANK(Option_Info!U41),"x",Option_Info!U41)</f>
         <v>x</v>
       </c>
       <c r="U41" t="str">
-        <f>IF(ISBLANK(Option_Info!U41),"x",Option_Info!U41)</f>
+        <f>IF(ISBLANK(Option_Info!V41),"x",Option_Info!V41)</f>
         <v>x</v>
       </c>
       <c r="V41" t="str">
-        <f>IF(ISBLANK(Option_Info!V41),"x",Option_Info!V41)</f>
+        <f>IF(ISBLANK(Option_Info!W41),"x",Option_Info!W41)</f>
         <v>x</v>
       </c>
       <c r="W41" t="str">
-        <f>IF(ISBLANK(Option_Info!W41),"x",Option_Info!W41)</f>
+        <f>IF(ISBLANK(Option_Info!X41),"x",Option_Info!X41)</f>
         <v>x</v>
       </c>
       <c r="X41" t="str">
-        <f>IF(ISBLANK(Option_Info!X41),"x",Option_Info!X41)</f>
+        <f>IF(ISBLANK(Option_Info!Y41),"x",Option_Info!Y41)</f>
         <v>x</v>
       </c>
       <c r="Y41" t="str">
-        <f>IF(ISBLANK(Option_Info!Y41),"x",Option_Info!Y41)</f>
+        <f>IF(ISBLANK(Option_Info!Z41),"x",Option_Info!Z41)</f>
         <v>x</v>
       </c>
       <c r="Z41" t="str">
-        <f>IF(ISBLANK(Option_Info!Z41),"x",Option_Info!Z41)</f>
+        <f>IF(ISBLANK(Option_Info!AA41),"x",Option_Info!AA41)</f>
         <v>x</v>
       </c>
       <c r="AA41" t="str">
-        <f>IF(ISBLANK(Option_Info!AA41),"x",Option_Info!AA41)</f>
+        <f>IF(ISBLANK(Option_Info!AB41),"x",Option_Info!AB41)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27">
       <c r="A42">
         <f>IF(ISBLANK(Option_Info!A42),"x",Option_Info!A42)</f>
         <v>2</v>
@@ -11323,79 +11527,79 @@
         <v>x</v>
       </c>
       <c r="J42" t="str">
-        <f>IF(ISBLANK(Option_Info!J42),"x",Option_Info!J42)</f>
+        <f>IF(ISBLANK(Option_Info!K42),"x",Option_Info!K42)</f>
         <v>x</v>
       </c>
       <c r="K42" t="str">
-        <f>IF(ISBLANK(Option_Info!K42),"x",Option_Info!K42)</f>
+        <f>IF(ISBLANK(Option_Info!L42),"x",Option_Info!L42)</f>
         <v>x</v>
       </c>
       <c r="L42" t="str">
-        <f>IF(ISBLANK(Option_Info!L42),"x",Option_Info!L42)</f>
+        <f>IF(ISBLANK(Option_Info!M42),"x",Option_Info!M42)</f>
         <v>x</v>
       </c>
       <c r="M42" t="str">
-        <f>IF(ISBLANK(Option_Info!M42),"x",Option_Info!M42)</f>
+        <f>IF(ISBLANK(Option_Info!N42),"x",Option_Info!N42)</f>
         <v>x</v>
       </c>
       <c r="N42" t="str">
-        <f>IF(ISBLANK(Option_Info!N42),"x",Option_Info!N42)</f>
+        <f>IF(ISBLANK(Option_Info!O42),"x",Option_Info!O42)</f>
         <v>x</v>
       </c>
       <c r="O42" t="str">
-        <f>IF(ISBLANK(Option_Info!O42),"x",Option_Info!O42)</f>
+        <f>IF(ISBLANK(Option_Info!P42),"x",Option_Info!P42)</f>
         <v>x</v>
       </c>
       <c r="P42" t="str">
-        <f>IF(ISBLANK(Option_Info!P42),"x",Option_Info!P42)</f>
+        <f>IF(ISBLANK(Option_Info!Q42),"x",Option_Info!Q42)</f>
         <v>x</v>
       </c>
       <c r="Q42" t="str">
-        <f>IF(ISBLANK(Option_Info!Q42),"x",Option_Info!Q42)</f>
+        <f>IF(ISBLANK(Option_Info!R42),"x",Option_Info!R42)</f>
         <v>x</v>
       </c>
       <c r="R42" t="str">
-        <f>IF(ISBLANK(Option_Info!R42),"x",Option_Info!R42)</f>
+        <f>IF(ISBLANK(Option_Info!S42),"x",Option_Info!S42)</f>
         <v>x</v>
       </c>
       <c r="S42" t="str">
-        <f>IF(ISBLANK(Option_Info!S42),"x",Option_Info!S42)</f>
+        <f>IF(ISBLANK(Option_Info!T42),"x",Option_Info!T42)</f>
         <v>x</v>
       </c>
       <c r="T42" t="str">
-        <f>IF(ISBLANK(Option_Info!T42),"x",Option_Info!T42)</f>
+        <f>IF(ISBLANK(Option_Info!U42),"x",Option_Info!U42)</f>
         <v>x</v>
       </c>
       <c r="U42" t="str">
-        <f>IF(ISBLANK(Option_Info!U42),"x",Option_Info!U42)</f>
+        <f>IF(ISBLANK(Option_Info!V42),"x",Option_Info!V42)</f>
         <v>x</v>
       </c>
       <c r="V42" t="str">
-        <f>IF(ISBLANK(Option_Info!V42),"x",Option_Info!V42)</f>
+        <f>IF(ISBLANK(Option_Info!W42),"x",Option_Info!W42)</f>
         <v>x</v>
       </c>
       <c r="W42" t="str">
-        <f>IF(ISBLANK(Option_Info!W42),"x",Option_Info!W42)</f>
+        <f>IF(ISBLANK(Option_Info!X42),"x",Option_Info!X42)</f>
         <v>x</v>
       </c>
       <c r="X42" t="str">
-        <f>IF(ISBLANK(Option_Info!X42),"x",Option_Info!X42)</f>
+        <f>IF(ISBLANK(Option_Info!Y42),"x",Option_Info!Y42)</f>
         <v>x</v>
       </c>
       <c r="Y42" t="str">
-        <f>IF(ISBLANK(Option_Info!Y42),"x",Option_Info!Y42)</f>
+        <f>IF(ISBLANK(Option_Info!Z42),"x",Option_Info!Z42)</f>
         <v>x</v>
       </c>
       <c r="Z42" t="str">
-        <f>IF(ISBLANK(Option_Info!Z42),"x",Option_Info!Z42)</f>
+        <f>IF(ISBLANK(Option_Info!AA42),"x",Option_Info!AA42)</f>
         <v>x</v>
       </c>
       <c r="AA42" t="str">
-        <f>IF(ISBLANK(Option_Info!AA42),"x",Option_Info!AA42)</f>
+        <f>IF(ISBLANK(Option_Info!AB42),"x",Option_Info!AB42)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27">
       <c r="A43">
         <f>IF(ISBLANK(Option_Info!A43),"x",Option_Info!A43)</f>
         <v>3</v>
@@ -11433,79 +11637,79 @@
         <v>x</v>
       </c>
       <c r="J43" t="str">
-        <f>IF(ISBLANK(Option_Info!J43),"x",Option_Info!J43)</f>
+        <f>IF(ISBLANK(Option_Info!K43),"x",Option_Info!K43)</f>
         <v>x</v>
       </c>
       <c r="K43" t="str">
-        <f>IF(ISBLANK(Option_Info!K43),"x",Option_Info!K43)</f>
+        <f>IF(ISBLANK(Option_Info!L43),"x",Option_Info!L43)</f>
         <v>x</v>
       </c>
       <c r="L43" t="str">
-        <f>IF(ISBLANK(Option_Info!L43),"x",Option_Info!L43)</f>
+        <f>IF(ISBLANK(Option_Info!M43),"x",Option_Info!M43)</f>
         <v>x</v>
       </c>
       <c r="M43" t="str">
-        <f>IF(ISBLANK(Option_Info!M43),"x",Option_Info!M43)</f>
+        <f>IF(ISBLANK(Option_Info!N43),"x",Option_Info!N43)</f>
         <v>x</v>
       </c>
       <c r="N43" t="str">
-        <f>IF(ISBLANK(Option_Info!N43),"x",Option_Info!N43)</f>
+        <f>IF(ISBLANK(Option_Info!O43),"x",Option_Info!O43)</f>
         <v>x</v>
       </c>
       <c r="O43" t="str">
-        <f>IF(ISBLANK(Option_Info!O43),"x",Option_Info!O43)</f>
+        <f>IF(ISBLANK(Option_Info!P43),"x",Option_Info!P43)</f>
         <v>x</v>
       </c>
       <c r="P43" t="str">
-        <f>IF(ISBLANK(Option_Info!P43),"x",Option_Info!P43)</f>
+        <f>IF(ISBLANK(Option_Info!Q43),"x",Option_Info!Q43)</f>
         <v>x</v>
       </c>
       <c r="Q43" t="str">
-        <f>IF(ISBLANK(Option_Info!Q43),"x",Option_Info!Q43)</f>
+        <f>IF(ISBLANK(Option_Info!R43),"x",Option_Info!R43)</f>
         <v>x</v>
       </c>
       <c r="R43" t="str">
-        <f>IF(ISBLANK(Option_Info!R43),"x",Option_Info!R43)</f>
+        <f>IF(ISBLANK(Option_Info!S43),"x",Option_Info!S43)</f>
         <v>x</v>
       </c>
       <c r="S43" t="str">
-        <f>IF(ISBLANK(Option_Info!S43),"x",Option_Info!S43)</f>
+        <f>IF(ISBLANK(Option_Info!T43),"x",Option_Info!T43)</f>
         <v>x</v>
       </c>
       <c r="T43" t="str">
-        <f>IF(ISBLANK(Option_Info!T43),"x",Option_Info!T43)</f>
+        <f>IF(ISBLANK(Option_Info!U43),"x",Option_Info!U43)</f>
         <v>x</v>
       </c>
       <c r="U43" t="str">
-        <f>IF(ISBLANK(Option_Info!U43),"x",Option_Info!U43)</f>
+        <f>IF(ISBLANK(Option_Info!V43),"x",Option_Info!V43)</f>
         <v>x</v>
       </c>
       <c r="V43" t="str">
-        <f>IF(ISBLANK(Option_Info!V43),"x",Option_Info!V43)</f>
+        <f>IF(ISBLANK(Option_Info!W43),"x",Option_Info!W43)</f>
         <v>x</v>
       </c>
       <c r="W43" t="str">
-        <f>IF(ISBLANK(Option_Info!W43),"x",Option_Info!W43)</f>
+        <f>IF(ISBLANK(Option_Info!X43),"x",Option_Info!X43)</f>
         <v>x</v>
       </c>
       <c r="X43" t="str">
-        <f>IF(ISBLANK(Option_Info!X43),"x",Option_Info!X43)</f>
+        <f>IF(ISBLANK(Option_Info!Y43),"x",Option_Info!Y43)</f>
         <v>x</v>
       </c>
       <c r="Y43" t="str">
-        <f>IF(ISBLANK(Option_Info!Y43),"x",Option_Info!Y43)</f>
+        <f>IF(ISBLANK(Option_Info!Z43),"x",Option_Info!Z43)</f>
         <v>x</v>
       </c>
       <c r="Z43" t="str">
-        <f>IF(ISBLANK(Option_Info!Z43),"x",Option_Info!Z43)</f>
+        <f>IF(ISBLANK(Option_Info!AA43),"x",Option_Info!AA43)</f>
         <v>x</v>
       </c>
       <c r="AA43" t="str">
-        <f>IF(ISBLANK(Option_Info!AA43),"x",Option_Info!AA43)</f>
+        <f>IF(ISBLANK(Option_Info!AB43),"x",Option_Info!AB43)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27">
       <c r="A44">
         <f>IF(ISBLANK(Option_Info!A44),"x",Option_Info!A44)</f>
         <v>3</v>
@@ -11543,79 +11747,79 @@
         <v>x</v>
       </c>
       <c r="J44" t="str">
-        <f>IF(ISBLANK(Option_Info!J44),"x",Option_Info!J44)</f>
+        <f>IF(ISBLANK(Option_Info!K44),"x",Option_Info!K44)</f>
         <v>x</v>
       </c>
       <c r="K44" t="str">
-        <f>IF(ISBLANK(Option_Info!K44),"x",Option_Info!K44)</f>
+        <f>IF(ISBLANK(Option_Info!L44),"x",Option_Info!L44)</f>
         <v>x</v>
       </c>
       <c r="L44" t="str">
-        <f>IF(ISBLANK(Option_Info!L44),"x",Option_Info!L44)</f>
+        <f>IF(ISBLANK(Option_Info!M44),"x",Option_Info!M44)</f>
         <v>x</v>
       </c>
       <c r="M44" t="str">
-        <f>IF(ISBLANK(Option_Info!M44),"x",Option_Info!M44)</f>
+        <f>IF(ISBLANK(Option_Info!N44),"x",Option_Info!N44)</f>
         <v>x</v>
       </c>
       <c r="N44" t="str">
-        <f>IF(ISBLANK(Option_Info!N44),"x",Option_Info!N44)</f>
+        <f>IF(ISBLANK(Option_Info!O44),"x",Option_Info!O44)</f>
         <v>x</v>
       </c>
       <c r="O44" t="str">
-        <f>IF(ISBLANK(Option_Info!O44),"x",Option_Info!O44)</f>
+        <f>IF(ISBLANK(Option_Info!P44),"x",Option_Info!P44)</f>
         <v>x</v>
       </c>
       <c r="P44" t="str">
-        <f>IF(ISBLANK(Option_Info!P44),"x",Option_Info!P44)</f>
+        <f>IF(ISBLANK(Option_Info!Q44),"x",Option_Info!Q44)</f>
         <v>x</v>
       </c>
       <c r="Q44" t="str">
-        <f>IF(ISBLANK(Option_Info!Q44),"x",Option_Info!Q44)</f>
+        <f>IF(ISBLANK(Option_Info!R44),"x",Option_Info!R44)</f>
         <v>x</v>
       </c>
       <c r="R44" t="str">
-        <f>IF(ISBLANK(Option_Info!R44),"x",Option_Info!R44)</f>
+        <f>IF(ISBLANK(Option_Info!S44),"x",Option_Info!S44)</f>
         <v>x</v>
       </c>
       <c r="S44" t="str">
-        <f>IF(ISBLANK(Option_Info!S44),"x",Option_Info!S44)</f>
+        <f>IF(ISBLANK(Option_Info!T44),"x",Option_Info!T44)</f>
         <v>x</v>
       </c>
       <c r="T44" t="str">
-        <f>IF(ISBLANK(Option_Info!T44),"x",Option_Info!T44)</f>
+        <f>IF(ISBLANK(Option_Info!U44),"x",Option_Info!U44)</f>
         <v>x</v>
       </c>
       <c r="U44" t="str">
-        <f>IF(ISBLANK(Option_Info!U44),"x",Option_Info!U44)</f>
+        <f>IF(ISBLANK(Option_Info!V44),"x",Option_Info!V44)</f>
         <v>x</v>
       </c>
       <c r="V44" t="str">
-        <f>IF(ISBLANK(Option_Info!V44),"x",Option_Info!V44)</f>
+        <f>IF(ISBLANK(Option_Info!W44),"x",Option_Info!W44)</f>
         <v>x</v>
       </c>
       <c r="W44" t="str">
-        <f>IF(ISBLANK(Option_Info!W44),"x",Option_Info!W44)</f>
+        <f>IF(ISBLANK(Option_Info!X44),"x",Option_Info!X44)</f>
         <v>x</v>
       </c>
       <c r="X44" t="str">
-        <f>IF(ISBLANK(Option_Info!X44),"x",Option_Info!X44)</f>
+        <f>IF(ISBLANK(Option_Info!Y44),"x",Option_Info!Y44)</f>
         <v>x</v>
       </c>
       <c r="Y44" t="str">
-        <f>IF(ISBLANK(Option_Info!Y44),"x",Option_Info!Y44)</f>
+        <f>IF(ISBLANK(Option_Info!Z44),"x",Option_Info!Z44)</f>
         <v>x</v>
       </c>
       <c r="Z44" t="str">
-        <f>IF(ISBLANK(Option_Info!Z44),"x",Option_Info!Z44)</f>
+        <f>IF(ISBLANK(Option_Info!AA44),"x",Option_Info!AA44)</f>
         <v>x</v>
       </c>
       <c r="AA44" t="str">
-        <f>IF(ISBLANK(Option_Info!AA44),"x",Option_Info!AA44)</f>
+        <f>IF(ISBLANK(Option_Info!AB44),"x",Option_Info!AB44)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27">
       <c r="A45">
         <f>IF(ISBLANK(Option_Info!A45),"x",Option_Info!A45)</f>
         <v>3</v>
@@ -11653,79 +11857,79 @@
         <v>x</v>
       </c>
       <c r="J45" t="str">
-        <f>IF(ISBLANK(Option_Info!J45),"x",Option_Info!J45)</f>
+        <f>IF(ISBLANK(Option_Info!K45),"x",Option_Info!K45)</f>
         <v>x</v>
       </c>
       <c r="K45" t="str">
-        <f>IF(ISBLANK(Option_Info!K45),"x",Option_Info!K45)</f>
+        <f>IF(ISBLANK(Option_Info!L45),"x",Option_Info!L45)</f>
         <v>x</v>
       </c>
       <c r="L45" t="str">
-        <f>IF(ISBLANK(Option_Info!L45),"x",Option_Info!L45)</f>
+        <f>IF(ISBLANK(Option_Info!M45),"x",Option_Info!M45)</f>
         <v>x</v>
       </c>
       <c r="M45" t="str">
-        <f>IF(ISBLANK(Option_Info!M45),"x",Option_Info!M45)</f>
+        <f>IF(ISBLANK(Option_Info!N45),"x",Option_Info!N45)</f>
         <v>x</v>
       </c>
       <c r="N45" t="str">
-        <f>IF(ISBLANK(Option_Info!N45),"x",Option_Info!N45)</f>
+        <f>IF(ISBLANK(Option_Info!O45),"x",Option_Info!O45)</f>
         <v>x</v>
       </c>
       <c r="O45" t="str">
-        <f>IF(ISBLANK(Option_Info!O45),"x",Option_Info!O45)</f>
+        <f>IF(ISBLANK(Option_Info!P45),"x",Option_Info!P45)</f>
         <v>x</v>
       </c>
       <c r="P45" t="str">
-        <f>IF(ISBLANK(Option_Info!P45),"x",Option_Info!P45)</f>
+        <f>IF(ISBLANK(Option_Info!Q45),"x",Option_Info!Q45)</f>
         <v>x</v>
       </c>
       <c r="Q45" t="str">
-        <f>IF(ISBLANK(Option_Info!Q45),"x",Option_Info!Q45)</f>
+        <f>IF(ISBLANK(Option_Info!R45),"x",Option_Info!R45)</f>
         <v>x</v>
       </c>
       <c r="R45" t="str">
-        <f>IF(ISBLANK(Option_Info!R45),"x",Option_Info!R45)</f>
+        <f>IF(ISBLANK(Option_Info!S45),"x",Option_Info!S45)</f>
         <v>x</v>
       </c>
       <c r="S45" t="str">
-        <f>IF(ISBLANK(Option_Info!S45),"x",Option_Info!S45)</f>
+        <f>IF(ISBLANK(Option_Info!T45),"x",Option_Info!T45)</f>
         <v>x</v>
       </c>
       <c r="T45" t="str">
-        <f>IF(ISBLANK(Option_Info!T45),"x",Option_Info!T45)</f>
+        <f>IF(ISBLANK(Option_Info!U45),"x",Option_Info!U45)</f>
         <v>x</v>
       </c>
       <c r="U45" t="str">
-        <f>IF(ISBLANK(Option_Info!U45),"x",Option_Info!U45)</f>
+        <f>IF(ISBLANK(Option_Info!V45),"x",Option_Info!V45)</f>
         <v>x</v>
       </c>
       <c r="V45" t="str">
-        <f>IF(ISBLANK(Option_Info!V45),"x",Option_Info!V45)</f>
+        <f>IF(ISBLANK(Option_Info!W45),"x",Option_Info!W45)</f>
         <v>x</v>
       </c>
       <c r="W45" t="str">
-        <f>IF(ISBLANK(Option_Info!W45),"x",Option_Info!W45)</f>
+        <f>IF(ISBLANK(Option_Info!X45),"x",Option_Info!X45)</f>
         <v>x</v>
       </c>
       <c r="X45" t="str">
-        <f>IF(ISBLANK(Option_Info!X45),"x",Option_Info!X45)</f>
+        <f>IF(ISBLANK(Option_Info!Y45),"x",Option_Info!Y45)</f>
         <v>x</v>
       </c>
       <c r="Y45" t="str">
-        <f>IF(ISBLANK(Option_Info!Y45),"x",Option_Info!Y45)</f>
+        <f>IF(ISBLANK(Option_Info!Z45),"x",Option_Info!Z45)</f>
         <v>x</v>
       </c>
       <c r="Z45" t="str">
-        <f>IF(ISBLANK(Option_Info!Z45),"x",Option_Info!Z45)</f>
+        <f>IF(ISBLANK(Option_Info!AA45),"x",Option_Info!AA45)</f>
         <v>x</v>
       </c>
       <c r="AA45" t="str">
-        <f>IF(ISBLANK(Option_Info!AA45),"x",Option_Info!AA45)</f>
+        <f>IF(ISBLANK(Option_Info!AB45),"x",Option_Info!AB45)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46">
         <f>IF(ISBLANK(Option_Info!A46),"x",Option_Info!A46)</f>
         <v>3</v>
@@ -11763,79 +11967,79 @@
         <v>x</v>
       </c>
       <c r="J46" t="str">
-        <f>IF(ISBLANK(Option_Info!J46),"x",Option_Info!J46)</f>
+        <f>IF(ISBLANK(Option_Info!K46),"x",Option_Info!K46)</f>
         <v>x</v>
       </c>
       <c r="K46" t="str">
-        <f>IF(ISBLANK(Option_Info!K46),"x",Option_Info!K46)</f>
+        <f>IF(ISBLANK(Option_Info!L46),"x",Option_Info!L46)</f>
         <v>x</v>
       </c>
       <c r="L46">
-        <f>IF(ISBLANK(Option_Info!L46),"x",Option_Info!L46)</f>
+        <f>IF(ISBLANK(Option_Info!M46),"x",Option_Info!M46)</f>
         <v>3</v>
       </c>
       <c r="M46" t="str">
-        <f>IF(ISBLANK(Option_Info!M46),"x",Option_Info!M46)</f>
+        <f>IF(ISBLANK(Option_Info!N46),"x",Option_Info!N46)</f>
         <v>tert</v>
       </c>
       <c r="N46" t="str">
-        <f>IF(ISBLANK(Option_Info!N46),"x",Option_Info!N46)</f>
+        <f>IF(ISBLANK(Option_Info!O46),"x",Option_Info!O46)</f>
         <v>qwe</v>
       </c>
       <c r="O46" t="str">
-        <f>IF(ISBLANK(Option_Info!O46),"x",Option_Info!O46)</f>
+        <f>IF(ISBLANK(Option_Info!P46),"x",Option_Info!P46)</f>
         <v>dfs</v>
       </c>
       <c r="P46" t="str">
-        <f>IF(ISBLANK(Option_Info!P46),"x",Option_Info!P46)</f>
+        <f>IF(ISBLANK(Option_Info!Q46),"x",Option_Info!Q46)</f>
         <v>x</v>
       </c>
       <c r="Q46" t="str">
-        <f>IF(ISBLANK(Option_Info!Q46),"x",Option_Info!Q46)</f>
+        <f>IF(ISBLANK(Option_Info!R46),"x",Option_Info!R46)</f>
         <v>x</v>
       </c>
       <c r="R46" t="str">
-        <f>IF(ISBLANK(Option_Info!R46),"x",Option_Info!R46)</f>
+        <f>IF(ISBLANK(Option_Info!S46),"x",Option_Info!S46)</f>
         <v>x</v>
       </c>
       <c r="S46" t="str">
-        <f>IF(ISBLANK(Option_Info!S46),"x",Option_Info!S46)</f>
+        <f>IF(ISBLANK(Option_Info!T46),"x",Option_Info!T46)</f>
         <v>x</v>
       </c>
       <c r="T46" t="str">
-        <f>IF(ISBLANK(Option_Info!T46),"x",Option_Info!T46)</f>
+        <f>IF(ISBLANK(Option_Info!U46),"x",Option_Info!U46)</f>
         <v>x</v>
       </c>
       <c r="U46" t="str">
-        <f>IF(ISBLANK(Option_Info!U46),"x",Option_Info!U46)</f>
+        <f>IF(ISBLANK(Option_Info!V46),"x",Option_Info!V46)</f>
         <v>x</v>
       </c>
       <c r="V46" t="str">
-        <f>IF(ISBLANK(Option_Info!V46),"x",Option_Info!V46)</f>
+        <f>IF(ISBLANK(Option_Info!W46),"x",Option_Info!W46)</f>
         <v>x</v>
       </c>
       <c r="W46" t="str">
-        <f>IF(ISBLANK(Option_Info!W46),"x",Option_Info!W46)</f>
+        <f>IF(ISBLANK(Option_Info!X46),"x",Option_Info!X46)</f>
         <v>x</v>
       </c>
       <c r="X46" t="str">
-        <f>IF(ISBLANK(Option_Info!X46),"x",Option_Info!X46)</f>
+        <f>IF(ISBLANK(Option_Info!Y46),"x",Option_Info!Y46)</f>
         <v>x</v>
       </c>
       <c r="Y46" t="str">
-        <f>IF(ISBLANK(Option_Info!Y46),"x",Option_Info!Y46)</f>
+        <f>IF(ISBLANK(Option_Info!Z46),"x",Option_Info!Z46)</f>
         <v>x</v>
       </c>
       <c r="Z46" t="str">
-        <f>IF(ISBLANK(Option_Info!Z46),"x",Option_Info!Z46)</f>
+        <f>IF(ISBLANK(Option_Info!AA46),"x",Option_Info!AA46)</f>
         <v>x</v>
       </c>
       <c r="AA46" t="str">
-        <f>IF(ISBLANK(Option_Info!AA46),"x",Option_Info!AA46)</f>
+        <f>IF(ISBLANK(Option_Info!AB46),"x",Option_Info!AB46)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27">
       <c r="A47">
         <f>IF(ISBLANK(Option_Info!A47),"x",Option_Info!A47)</f>
         <v>3</v>
@@ -11873,79 +12077,79 @@
         <v>11</v>
       </c>
       <c r="J47">
-        <f>IF(ISBLANK(Option_Info!J47),"x",Option_Info!J47)</f>
+        <f>IF(ISBLANK(Option_Info!K47),"x",Option_Info!K47)</f>
         <v>24</v>
       </c>
       <c r="K47">
-        <f>IF(ISBLANK(Option_Info!K47),"x",Option_Info!K47)</f>
+        <f>IF(ISBLANK(Option_Info!L47),"x",Option_Info!L47)</f>
         <v>2</v>
       </c>
       <c r="L47" t="str">
-        <f>IF(ISBLANK(Option_Info!L47),"x",Option_Info!L47)</f>
+        <f>IF(ISBLANK(Option_Info!M47),"x",Option_Info!M47)</f>
         <v>x</v>
       </c>
       <c r="M47" t="str">
-        <f>IF(ISBLANK(Option_Info!M47),"x",Option_Info!M47)</f>
+        <f>IF(ISBLANK(Option_Info!N47),"x",Option_Info!N47)</f>
         <v>x</v>
       </c>
       <c r="N47" t="str">
-        <f>IF(ISBLANK(Option_Info!N47),"x",Option_Info!N47)</f>
+        <f>IF(ISBLANK(Option_Info!O47),"x",Option_Info!O47)</f>
         <v>x</v>
       </c>
       <c r="O47" t="str">
-        <f>IF(ISBLANK(Option_Info!O47),"x",Option_Info!O47)</f>
+        <f>IF(ISBLANK(Option_Info!P47),"x",Option_Info!P47)</f>
         <v>x</v>
       </c>
       <c r="P47" t="str">
-        <f>IF(ISBLANK(Option_Info!P47),"x",Option_Info!P47)</f>
+        <f>IF(ISBLANK(Option_Info!Q47),"x",Option_Info!Q47)</f>
         <v>x</v>
       </c>
       <c r="Q47" t="str">
-        <f>IF(ISBLANK(Option_Info!Q47),"x",Option_Info!Q47)</f>
+        <f>IF(ISBLANK(Option_Info!R47),"x",Option_Info!R47)</f>
         <v>x</v>
       </c>
       <c r="R47" t="str">
-        <f>IF(ISBLANK(Option_Info!R47),"x",Option_Info!R47)</f>
+        <f>IF(ISBLANK(Option_Info!S47),"x",Option_Info!S47)</f>
         <v>x</v>
       </c>
       <c r="S47" t="str">
-        <f>IF(ISBLANK(Option_Info!S47),"x",Option_Info!S47)</f>
+        <f>IF(ISBLANK(Option_Info!T47),"x",Option_Info!T47)</f>
         <v>x</v>
       </c>
       <c r="T47" t="str">
-        <f>IF(ISBLANK(Option_Info!T47),"x",Option_Info!T47)</f>
+        <f>IF(ISBLANK(Option_Info!U47),"x",Option_Info!U47)</f>
         <v>x</v>
       </c>
       <c r="U47" t="str">
-        <f>IF(ISBLANK(Option_Info!U47),"x",Option_Info!U47)</f>
+        <f>IF(ISBLANK(Option_Info!V47),"x",Option_Info!V47)</f>
         <v>x</v>
       </c>
       <c r="V47" t="str">
-        <f>IF(ISBLANK(Option_Info!V47),"x",Option_Info!V47)</f>
+        <f>IF(ISBLANK(Option_Info!W47),"x",Option_Info!W47)</f>
         <v>x</v>
       </c>
       <c r="W47" t="str">
-        <f>IF(ISBLANK(Option_Info!W47),"x",Option_Info!W47)</f>
+        <f>IF(ISBLANK(Option_Info!X47),"x",Option_Info!X47)</f>
         <v>x</v>
       </c>
       <c r="X47" t="str">
-        <f>IF(ISBLANK(Option_Info!X47),"x",Option_Info!X47)</f>
+        <f>IF(ISBLANK(Option_Info!Y47),"x",Option_Info!Y47)</f>
         <v>x</v>
       </c>
       <c r="Y47" t="str">
-        <f>IF(ISBLANK(Option_Info!Y47),"x",Option_Info!Y47)</f>
+        <f>IF(ISBLANK(Option_Info!Z47),"x",Option_Info!Z47)</f>
         <v>x</v>
       </c>
       <c r="Z47" t="str">
-        <f>IF(ISBLANK(Option_Info!Z47),"x",Option_Info!Z47)</f>
+        <f>IF(ISBLANK(Option_Info!AA47),"x",Option_Info!AA47)</f>
         <v>x</v>
       </c>
       <c r="AA47" t="str">
-        <f>IF(ISBLANK(Option_Info!AA47),"x",Option_Info!AA47)</f>
+        <f>IF(ISBLANK(Option_Info!AB47),"x",Option_Info!AB47)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27">
       <c r="A48">
         <f>IF(ISBLANK(Option_Info!A48),"x",Option_Info!A48)</f>
         <v>3</v>
@@ -11983,79 +12187,79 @@
         <v>x</v>
       </c>
       <c r="J48" t="str">
-        <f>IF(ISBLANK(Option_Info!J48),"x",Option_Info!J48)</f>
+        <f>IF(ISBLANK(Option_Info!K48),"x",Option_Info!K48)</f>
         <v>x</v>
       </c>
       <c r="K48" t="str">
-        <f>IF(ISBLANK(Option_Info!K48),"x",Option_Info!K48)</f>
+        <f>IF(ISBLANK(Option_Info!L48),"x",Option_Info!L48)</f>
         <v>x</v>
       </c>
       <c r="L48" t="str">
-        <f>IF(ISBLANK(Option_Info!L48),"x",Option_Info!L48)</f>
+        <f>IF(ISBLANK(Option_Info!M48),"x",Option_Info!M48)</f>
         <v>x</v>
       </c>
       <c r="M48" t="str">
-        <f>IF(ISBLANK(Option_Info!M48),"x",Option_Info!M48)</f>
+        <f>IF(ISBLANK(Option_Info!N48),"x",Option_Info!N48)</f>
         <v>x</v>
       </c>
       <c r="N48" t="str">
-        <f>IF(ISBLANK(Option_Info!N48),"x",Option_Info!N48)</f>
+        <f>IF(ISBLANK(Option_Info!O48),"x",Option_Info!O48)</f>
         <v>x</v>
       </c>
       <c r="O48" t="str">
-        <f>IF(ISBLANK(Option_Info!O48),"x",Option_Info!O48)</f>
+        <f>IF(ISBLANK(Option_Info!P48),"x",Option_Info!P48)</f>
         <v>x</v>
       </c>
       <c r="P48" t="str">
-        <f>IF(ISBLANK(Option_Info!P48),"x",Option_Info!P48)</f>
+        <f>IF(ISBLANK(Option_Info!Q48),"x",Option_Info!Q48)</f>
         <v>x</v>
       </c>
       <c r="Q48" t="str">
-        <f>IF(ISBLANK(Option_Info!Q48),"x",Option_Info!Q48)</f>
+        <f>IF(ISBLANK(Option_Info!R48),"x",Option_Info!R48)</f>
         <v>x</v>
       </c>
       <c r="R48" t="str">
-        <f>IF(ISBLANK(Option_Info!R48),"x",Option_Info!R48)</f>
+        <f>IF(ISBLANK(Option_Info!S48),"x",Option_Info!S48)</f>
         <v>x</v>
       </c>
       <c r="S48" t="str">
-        <f>IF(ISBLANK(Option_Info!S48),"x",Option_Info!S48)</f>
+        <f>IF(ISBLANK(Option_Info!T48),"x",Option_Info!T48)</f>
         <v>x</v>
       </c>
       <c r="T48" t="str">
-        <f>IF(ISBLANK(Option_Info!T48),"x",Option_Info!T48)</f>
+        <f>IF(ISBLANK(Option_Info!U48),"x",Option_Info!U48)</f>
         <v>x</v>
       </c>
       <c r="U48" t="str">
-        <f>IF(ISBLANK(Option_Info!U48),"x",Option_Info!U48)</f>
+        <f>IF(ISBLANK(Option_Info!V48),"x",Option_Info!V48)</f>
         <v>x</v>
       </c>
       <c r="V48" t="str">
-        <f>IF(ISBLANK(Option_Info!V48),"x",Option_Info!V48)</f>
+        <f>IF(ISBLANK(Option_Info!W48),"x",Option_Info!W48)</f>
         <v>x</v>
       </c>
       <c r="W48" t="str">
-        <f>IF(ISBLANK(Option_Info!W48),"x",Option_Info!W48)</f>
+        <f>IF(ISBLANK(Option_Info!X48),"x",Option_Info!X48)</f>
         <v>x</v>
       </c>
       <c r="X48" t="str">
-        <f>IF(ISBLANK(Option_Info!X48),"x",Option_Info!X48)</f>
+        <f>IF(ISBLANK(Option_Info!Y48),"x",Option_Info!Y48)</f>
         <v>x</v>
       </c>
       <c r="Y48" t="str">
-        <f>IF(ISBLANK(Option_Info!Y48),"x",Option_Info!Y48)</f>
+        <f>IF(ISBLANK(Option_Info!Z48),"x",Option_Info!Z48)</f>
         <v>x</v>
       </c>
       <c r="Z48" t="str">
-        <f>IF(ISBLANK(Option_Info!Z48),"x",Option_Info!Z48)</f>
+        <f>IF(ISBLANK(Option_Info!AA48),"x",Option_Info!AA48)</f>
         <v>x</v>
       </c>
       <c r="AA48" t="str">
-        <f>IF(ISBLANK(Option_Info!AA48),"x",Option_Info!AA48)</f>
+        <f>IF(ISBLANK(Option_Info!AB48),"x",Option_Info!AB48)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27">
       <c r="A49">
         <f>IF(ISBLANK(Option_Info!A49),"x",Option_Info!A49)</f>
         <v>3</v>
@@ -12093,79 +12297,79 @@
         <v>x</v>
       </c>
       <c r="J49" t="str">
-        <f>IF(ISBLANK(Option_Info!J49),"x",Option_Info!J49)</f>
+        <f>IF(ISBLANK(Option_Info!K49),"x",Option_Info!K49)</f>
         <v>x</v>
       </c>
       <c r="K49" t="str">
-        <f>IF(ISBLANK(Option_Info!K49),"x",Option_Info!K49)</f>
+        <f>IF(ISBLANK(Option_Info!L49),"x",Option_Info!L49)</f>
         <v>x</v>
       </c>
       <c r="L49" t="str">
-        <f>IF(ISBLANK(Option_Info!L49),"x",Option_Info!L49)</f>
+        <f>IF(ISBLANK(Option_Info!M49),"x",Option_Info!M49)</f>
         <v>x</v>
       </c>
       <c r="M49" t="str">
-        <f>IF(ISBLANK(Option_Info!M49),"x",Option_Info!M49)</f>
+        <f>IF(ISBLANK(Option_Info!N49),"x",Option_Info!N49)</f>
         <v>x</v>
       </c>
       <c r="N49" t="str">
-        <f>IF(ISBLANK(Option_Info!N49),"x",Option_Info!N49)</f>
+        <f>IF(ISBLANK(Option_Info!O49),"x",Option_Info!O49)</f>
         <v>x</v>
       </c>
       <c r="O49" t="str">
-        <f>IF(ISBLANK(Option_Info!O49),"x",Option_Info!O49)</f>
+        <f>IF(ISBLANK(Option_Info!P49),"x",Option_Info!P49)</f>
         <v>x</v>
       </c>
       <c r="P49" t="str">
-        <f>IF(ISBLANK(Option_Info!P49),"x",Option_Info!P49)</f>
+        <f>IF(ISBLANK(Option_Info!Q49),"x",Option_Info!Q49)</f>
         <v>x</v>
       </c>
       <c r="Q49" t="str">
-        <f>IF(ISBLANK(Option_Info!Q49),"x",Option_Info!Q49)</f>
+        <f>IF(ISBLANK(Option_Info!R49),"x",Option_Info!R49)</f>
         <v>x</v>
       </c>
       <c r="R49" t="str">
-        <f>IF(ISBLANK(Option_Info!R49),"x",Option_Info!R49)</f>
+        <f>IF(ISBLANK(Option_Info!S49),"x",Option_Info!S49)</f>
         <v>x</v>
       </c>
       <c r="S49" t="str">
-        <f>IF(ISBLANK(Option_Info!S49),"x",Option_Info!S49)</f>
+        <f>IF(ISBLANK(Option_Info!T49),"x",Option_Info!T49)</f>
         <v>x</v>
       </c>
       <c r="T49" t="str">
-        <f>IF(ISBLANK(Option_Info!T49),"x",Option_Info!T49)</f>
+        <f>IF(ISBLANK(Option_Info!U49),"x",Option_Info!U49)</f>
         <v>x</v>
       </c>
       <c r="U49" t="str">
-        <f>IF(ISBLANK(Option_Info!U49),"x",Option_Info!U49)</f>
+        <f>IF(ISBLANK(Option_Info!V49),"x",Option_Info!V49)</f>
         <v>x</v>
       </c>
       <c r="V49" t="str">
-        <f>IF(ISBLANK(Option_Info!V49),"x",Option_Info!V49)</f>
+        <f>IF(ISBLANK(Option_Info!W49),"x",Option_Info!W49)</f>
         <v>x</v>
       </c>
       <c r="W49" t="str">
-        <f>IF(ISBLANK(Option_Info!W49),"x",Option_Info!W49)</f>
+        <f>IF(ISBLANK(Option_Info!X49),"x",Option_Info!X49)</f>
         <v>x</v>
       </c>
       <c r="X49" t="str">
-        <f>IF(ISBLANK(Option_Info!X49),"x",Option_Info!X49)</f>
+        <f>IF(ISBLANK(Option_Info!Y49),"x",Option_Info!Y49)</f>
         <v>x</v>
       </c>
       <c r="Y49" t="str">
-        <f>IF(ISBLANK(Option_Info!Y49),"x",Option_Info!Y49)</f>
+        <f>IF(ISBLANK(Option_Info!Z49),"x",Option_Info!Z49)</f>
         <v>x</v>
       </c>
       <c r="Z49" t="str">
-        <f>IF(ISBLANK(Option_Info!Z49),"x",Option_Info!Z49)</f>
+        <f>IF(ISBLANK(Option_Info!AA49),"x",Option_Info!AA49)</f>
         <v>x</v>
       </c>
       <c r="AA49" t="str">
-        <f>IF(ISBLANK(Option_Info!AA49),"x",Option_Info!AA49)</f>
+        <f>IF(ISBLANK(Option_Info!AB49),"x",Option_Info!AB49)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27">
       <c r="A50">
         <f>IF(ISBLANK(Option_Info!A50),"x",Option_Info!A50)</f>
         <v>3</v>
@@ -12203,79 +12407,79 @@
         <v>x</v>
       </c>
       <c r="J50" t="str">
-        <f>IF(ISBLANK(Option_Info!J50),"x",Option_Info!J50)</f>
+        <f>IF(ISBLANK(Option_Info!K50),"x",Option_Info!K50)</f>
         <v>x</v>
       </c>
       <c r="K50" t="str">
-        <f>IF(ISBLANK(Option_Info!K50),"x",Option_Info!K50)</f>
+        <f>IF(ISBLANK(Option_Info!L50),"x",Option_Info!L50)</f>
         <v>x</v>
       </c>
       <c r="L50" t="str">
-        <f>IF(ISBLANK(Option_Info!L50),"x",Option_Info!L50)</f>
+        <f>IF(ISBLANK(Option_Info!M50),"x",Option_Info!M50)</f>
         <v>x</v>
       </c>
       <c r="M50" t="str">
-        <f>IF(ISBLANK(Option_Info!M50),"x",Option_Info!M50)</f>
+        <f>IF(ISBLANK(Option_Info!N50),"x",Option_Info!N50)</f>
         <v>x</v>
       </c>
       <c r="N50" t="str">
-        <f>IF(ISBLANK(Option_Info!N50),"x",Option_Info!N50)</f>
+        <f>IF(ISBLANK(Option_Info!O50),"x",Option_Info!O50)</f>
         <v>x</v>
       </c>
       <c r="O50" t="str">
-        <f>IF(ISBLANK(Option_Info!O50),"x",Option_Info!O50)</f>
+        <f>IF(ISBLANK(Option_Info!P50),"x",Option_Info!P50)</f>
         <v>x</v>
       </c>
       <c r="P50" t="str">
-        <f>IF(ISBLANK(Option_Info!P50),"x",Option_Info!P50)</f>
+        <f>IF(ISBLANK(Option_Info!Q50),"x",Option_Info!Q50)</f>
         <v>x</v>
       </c>
       <c r="Q50" t="str">
-        <f>IF(ISBLANK(Option_Info!Q50),"x",Option_Info!Q50)</f>
+        <f>IF(ISBLANK(Option_Info!R50),"x",Option_Info!R50)</f>
         <v>x</v>
       </c>
       <c r="R50" t="str">
-        <f>IF(ISBLANK(Option_Info!R50),"x",Option_Info!R50)</f>
+        <f>IF(ISBLANK(Option_Info!S50),"x",Option_Info!S50)</f>
         <v>x</v>
       </c>
       <c r="S50" t="str">
-        <f>IF(ISBLANK(Option_Info!S50),"x",Option_Info!S50)</f>
+        <f>IF(ISBLANK(Option_Info!T50),"x",Option_Info!T50)</f>
         <v>x</v>
       </c>
       <c r="T50" t="str">
-        <f>IF(ISBLANK(Option_Info!T50),"x",Option_Info!T50)</f>
+        <f>IF(ISBLANK(Option_Info!U50),"x",Option_Info!U50)</f>
         <v>x</v>
       </c>
       <c r="U50" t="str">
-        <f>IF(ISBLANK(Option_Info!U50),"x",Option_Info!U50)</f>
+        <f>IF(ISBLANK(Option_Info!V50),"x",Option_Info!V50)</f>
         <v>x</v>
       </c>
       <c r="V50" t="str">
-        <f>IF(ISBLANK(Option_Info!V50),"x",Option_Info!V50)</f>
+        <f>IF(ISBLANK(Option_Info!W50),"x",Option_Info!W50)</f>
         <v>x</v>
       </c>
       <c r="W50" t="str">
-        <f>IF(ISBLANK(Option_Info!W50),"x",Option_Info!W50)</f>
+        <f>IF(ISBLANK(Option_Info!X50),"x",Option_Info!X50)</f>
         <v>x</v>
       </c>
       <c r="X50" t="str">
-        <f>IF(ISBLANK(Option_Info!X50),"x",Option_Info!X50)</f>
+        <f>IF(ISBLANK(Option_Info!Y50),"x",Option_Info!Y50)</f>
         <v>x</v>
       </c>
       <c r="Y50" t="str">
-        <f>IF(ISBLANK(Option_Info!Y50),"x",Option_Info!Y50)</f>
+        <f>IF(ISBLANK(Option_Info!Z50),"x",Option_Info!Z50)</f>
         <v>x</v>
       </c>
       <c r="Z50" t="str">
-        <f>IF(ISBLANK(Option_Info!Z50),"x",Option_Info!Z50)</f>
+        <f>IF(ISBLANK(Option_Info!AA50),"x",Option_Info!AA50)</f>
         <v>x</v>
       </c>
       <c r="AA50" t="str">
-        <f>IF(ISBLANK(Option_Info!AA50),"x",Option_Info!AA50)</f>
+        <f>IF(ISBLANK(Option_Info!AB50),"x",Option_Info!AB50)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27">
       <c r="A51">
         <f>IF(ISBLANK(Option_Info!A51),"x",Option_Info!A51)</f>
         <v>3</v>
@@ -12313,79 +12517,79 @@
         <v>x</v>
       </c>
       <c r="J51" t="str">
-        <f>IF(ISBLANK(Option_Info!J51),"x",Option_Info!J51)</f>
+        <f>IF(ISBLANK(Option_Info!K51),"x",Option_Info!K51)</f>
         <v>x</v>
       </c>
       <c r="K51" t="str">
-        <f>IF(ISBLANK(Option_Info!K51),"x",Option_Info!K51)</f>
+        <f>IF(ISBLANK(Option_Info!L51),"x",Option_Info!L51)</f>
         <v>x</v>
       </c>
       <c r="L51">
-        <f>IF(ISBLANK(Option_Info!L51),"x",Option_Info!L51)</f>
+        <f>IF(ISBLANK(Option_Info!M51),"x",Option_Info!M51)</f>
         <v>10</v>
       </c>
       <c r="M51" t="str">
-        <f>IF(ISBLANK(Option_Info!M51),"x",Option_Info!M51)</f>
+        <f>IF(ISBLANK(Option_Info!N51),"x",Option_Info!N51)</f>
         <v>asd</v>
       </c>
       <c r="N51" t="str">
-        <f>IF(ISBLANK(Option_Info!N51),"x",Option_Info!N51)</f>
+        <f>IF(ISBLANK(Option_Info!O51),"x",Option_Info!O51)</f>
         <v>fds</v>
       </c>
       <c r="O51" t="str">
-        <f>IF(ISBLANK(Option_Info!O51),"x",Option_Info!O51)</f>
+        <f>IF(ISBLANK(Option_Info!P51),"x",Option_Info!P51)</f>
         <v>ewr</v>
       </c>
       <c r="P51" t="str">
-        <f>IF(ISBLANK(Option_Info!P51),"x",Option_Info!P51)</f>
+        <f>IF(ISBLANK(Option_Info!Q51),"x",Option_Info!Q51)</f>
         <v>qwe</v>
       </c>
       <c r="Q51" t="str">
-        <f>IF(ISBLANK(Option_Info!Q51),"x",Option_Info!Q51)</f>
+        <f>IF(ISBLANK(Option_Info!R51),"x",Option_Info!R51)</f>
         <v>dfsa</v>
       </c>
       <c r="R51" t="str">
-        <f>IF(ISBLANK(Option_Info!R51),"x",Option_Info!R51)</f>
+        <f>IF(ISBLANK(Option_Info!S51),"x",Option_Info!S51)</f>
         <v>asd</v>
       </c>
       <c r="S51" t="str">
-        <f>IF(ISBLANK(Option_Info!S51),"x",Option_Info!S51)</f>
+        <f>IF(ISBLANK(Option_Info!T51),"x",Option_Info!T51)</f>
         <v>eqw</v>
       </c>
       <c r="T51" t="str">
-        <f>IF(ISBLANK(Option_Info!T51),"x",Option_Info!T51)</f>
+        <f>IF(ISBLANK(Option_Info!U51),"x",Option_Info!U51)</f>
         <v>fsd</v>
       </c>
       <c r="U51" t="str">
-        <f>IF(ISBLANK(Option_Info!U51),"x",Option_Info!U51)</f>
+        <f>IF(ISBLANK(Option_Info!V51),"x",Option_Info!V51)</f>
         <v>qwe</v>
       </c>
       <c r="V51" t="str">
-        <f>IF(ISBLANK(Option_Info!V51),"x",Option_Info!V51)</f>
+        <f>IF(ISBLANK(Option_Info!W51),"x",Option_Info!W51)</f>
         <v>qweq</v>
       </c>
       <c r="W51" t="str">
-        <f>IF(ISBLANK(Option_Info!W51),"x",Option_Info!W51)</f>
+        <f>IF(ISBLANK(Option_Info!X51),"x",Option_Info!X51)</f>
         <v>x</v>
       </c>
       <c r="X51" t="str">
-        <f>IF(ISBLANK(Option_Info!X51),"x",Option_Info!X51)</f>
+        <f>IF(ISBLANK(Option_Info!Y51),"x",Option_Info!Y51)</f>
         <v>x</v>
       </c>
       <c r="Y51" t="str">
-        <f>IF(ISBLANK(Option_Info!Y51),"x",Option_Info!Y51)</f>
+        <f>IF(ISBLANK(Option_Info!Z51),"x",Option_Info!Z51)</f>
         <v>x</v>
       </c>
       <c r="Z51" t="str">
-        <f>IF(ISBLANK(Option_Info!Z51),"x",Option_Info!Z51)</f>
+        <f>IF(ISBLANK(Option_Info!AA51),"x",Option_Info!AA51)</f>
         <v>x</v>
       </c>
       <c r="AA51" t="str">
-        <f>IF(ISBLANK(Option_Info!AA51),"x",Option_Info!AA51)</f>
+        <f>IF(ISBLANK(Option_Info!AB51),"x",Option_Info!AB51)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27">
       <c r="A52">
         <f>IF(ISBLANK(Option_Info!A52),"x",Option_Info!A52)</f>
         <v>3</v>
@@ -12423,79 +12627,79 @@
         <v>-111</v>
       </c>
       <c r="J52">
-        <f>IF(ISBLANK(Option_Info!J52),"x",Option_Info!J52)</f>
+        <f>IF(ISBLANK(Option_Info!K52),"x",Option_Info!K52)</f>
         <v>234</v>
       </c>
       <c r="K52">
-        <f>IF(ISBLANK(Option_Info!K52),"x",Option_Info!K52)</f>
+        <f>IF(ISBLANK(Option_Info!L52),"x",Option_Info!L52)</f>
         <v>10</v>
       </c>
       <c r="L52" t="str">
-        <f>IF(ISBLANK(Option_Info!L52),"x",Option_Info!L52)</f>
+        <f>IF(ISBLANK(Option_Info!M52),"x",Option_Info!M52)</f>
         <v>x</v>
       </c>
       <c r="M52" t="str">
-        <f>IF(ISBLANK(Option_Info!M52),"x",Option_Info!M52)</f>
+        <f>IF(ISBLANK(Option_Info!N52),"x",Option_Info!N52)</f>
         <v>x</v>
       </c>
       <c r="N52" t="str">
-        <f>IF(ISBLANK(Option_Info!N52),"x",Option_Info!N52)</f>
+        <f>IF(ISBLANK(Option_Info!O52),"x",Option_Info!O52)</f>
         <v>x</v>
       </c>
       <c r="O52" t="str">
-        <f>IF(ISBLANK(Option_Info!O52),"x",Option_Info!O52)</f>
+        <f>IF(ISBLANK(Option_Info!P52),"x",Option_Info!P52)</f>
         <v>x</v>
       </c>
       <c r="P52" t="str">
-        <f>IF(ISBLANK(Option_Info!P52),"x",Option_Info!P52)</f>
+        <f>IF(ISBLANK(Option_Info!Q52),"x",Option_Info!Q52)</f>
         <v>x</v>
       </c>
       <c r="Q52" t="str">
-        <f>IF(ISBLANK(Option_Info!Q52),"x",Option_Info!Q52)</f>
+        <f>IF(ISBLANK(Option_Info!R52),"x",Option_Info!R52)</f>
         <v>x</v>
       </c>
       <c r="R52" t="str">
-        <f>IF(ISBLANK(Option_Info!R52),"x",Option_Info!R52)</f>
+        <f>IF(ISBLANK(Option_Info!S52),"x",Option_Info!S52)</f>
         <v>x</v>
       </c>
       <c r="S52" t="str">
-        <f>IF(ISBLANK(Option_Info!S52),"x",Option_Info!S52)</f>
+        <f>IF(ISBLANK(Option_Info!T52),"x",Option_Info!T52)</f>
         <v>x</v>
       </c>
       <c r="T52" t="str">
-        <f>IF(ISBLANK(Option_Info!T52),"x",Option_Info!T52)</f>
+        <f>IF(ISBLANK(Option_Info!U52),"x",Option_Info!U52)</f>
         <v>x</v>
       </c>
       <c r="U52" t="str">
-        <f>IF(ISBLANK(Option_Info!U52),"x",Option_Info!U52)</f>
+        <f>IF(ISBLANK(Option_Info!V52),"x",Option_Info!V52)</f>
         <v>x</v>
       </c>
       <c r="V52" t="str">
-        <f>IF(ISBLANK(Option_Info!V52),"x",Option_Info!V52)</f>
+        <f>IF(ISBLANK(Option_Info!W52),"x",Option_Info!W52)</f>
         <v>x</v>
       </c>
       <c r="W52" t="str">
-        <f>IF(ISBLANK(Option_Info!W52),"x",Option_Info!W52)</f>
+        <f>IF(ISBLANK(Option_Info!X52),"x",Option_Info!X52)</f>
         <v>x</v>
       </c>
       <c r="X52" t="str">
-        <f>IF(ISBLANK(Option_Info!X52),"x",Option_Info!X52)</f>
+        <f>IF(ISBLANK(Option_Info!Y52),"x",Option_Info!Y52)</f>
         <v>x</v>
       </c>
       <c r="Y52" t="str">
-        <f>IF(ISBLANK(Option_Info!Y52),"x",Option_Info!Y52)</f>
+        <f>IF(ISBLANK(Option_Info!Z52),"x",Option_Info!Z52)</f>
         <v>x</v>
       </c>
       <c r="Z52" t="str">
-        <f>IF(ISBLANK(Option_Info!Z52),"x",Option_Info!Z52)</f>
+        <f>IF(ISBLANK(Option_Info!AA52),"x",Option_Info!AA52)</f>
         <v>x</v>
       </c>
       <c r="AA52" t="str">
-        <f>IF(ISBLANK(Option_Info!AA52),"x",Option_Info!AA52)</f>
+        <f>IF(ISBLANK(Option_Info!AB52),"x",Option_Info!AB52)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27">
       <c r="A53">
         <f>IF(ISBLANK(Option_Info!A53),"x",Option_Info!A53)</f>
         <v>3</v>
@@ -12533,79 +12737,79 @@
         <v>x</v>
       </c>
       <c r="J53" t="str">
-        <f>IF(ISBLANK(Option_Info!J53),"x",Option_Info!J53)</f>
+        <f>IF(ISBLANK(Option_Info!K53),"x",Option_Info!K53)</f>
         <v>x</v>
       </c>
       <c r="K53" t="str">
-        <f>IF(ISBLANK(Option_Info!K53),"x",Option_Info!K53)</f>
+        <f>IF(ISBLANK(Option_Info!L53),"x",Option_Info!L53)</f>
         <v>x</v>
       </c>
       <c r="L53" t="str">
-        <f>IF(ISBLANK(Option_Info!L53),"x",Option_Info!L53)</f>
+        <f>IF(ISBLANK(Option_Info!M53),"x",Option_Info!M53)</f>
         <v>x</v>
       </c>
       <c r="M53" t="str">
-        <f>IF(ISBLANK(Option_Info!M53),"x",Option_Info!M53)</f>
+        <f>IF(ISBLANK(Option_Info!N53),"x",Option_Info!N53)</f>
         <v>x</v>
       </c>
       <c r="N53" t="str">
-        <f>IF(ISBLANK(Option_Info!N53),"x",Option_Info!N53)</f>
+        <f>IF(ISBLANK(Option_Info!O53),"x",Option_Info!O53)</f>
         <v>x</v>
       </c>
       <c r="O53" t="str">
-        <f>IF(ISBLANK(Option_Info!O53),"x",Option_Info!O53)</f>
+        <f>IF(ISBLANK(Option_Info!P53),"x",Option_Info!P53)</f>
         <v>x</v>
       </c>
       <c r="P53" t="str">
-        <f>IF(ISBLANK(Option_Info!P53),"x",Option_Info!P53)</f>
+        <f>IF(ISBLANK(Option_Info!Q53),"x",Option_Info!Q53)</f>
         <v>x</v>
       </c>
       <c r="Q53" t="str">
-        <f>IF(ISBLANK(Option_Info!Q53),"x",Option_Info!Q53)</f>
+        <f>IF(ISBLANK(Option_Info!R53),"x",Option_Info!R53)</f>
         <v>x</v>
       </c>
       <c r="R53" t="str">
-        <f>IF(ISBLANK(Option_Info!R53),"x",Option_Info!R53)</f>
+        <f>IF(ISBLANK(Option_Info!S53),"x",Option_Info!S53)</f>
         <v>x</v>
       </c>
       <c r="S53" t="str">
-        <f>IF(ISBLANK(Option_Info!S53),"x",Option_Info!S53)</f>
+        <f>IF(ISBLANK(Option_Info!T53),"x",Option_Info!T53)</f>
         <v>x</v>
       </c>
       <c r="T53" t="str">
-        <f>IF(ISBLANK(Option_Info!T53),"x",Option_Info!T53)</f>
+        <f>IF(ISBLANK(Option_Info!U53),"x",Option_Info!U53)</f>
         <v>x</v>
       </c>
       <c r="U53" t="str">
-        <f>IF(ISBLANK(Option_Info!U53),"x",Option_Info!U53)</f>
+        <f>IF(ISBLANK(Option_Info!V53),"x",Option_Info!V53)</f>
         <v>x</v>
       </c>
       <c r="V53" t="str">
-        <f>IF(ISBLANK(Option_Info!V53),"x",Option_Info!V53)</f>
+        <f>IF(ISBLANK(Option_Info!W53),"x",Option_Info!W53)</f>
         <v>x</v>
       </c>
       <c r="W53" t="str">
-        <f>IF(ISBLANK(Option_Info!W53),"x",Option_Info!W53)</f>
+        <f>IF(ISBLANK(Option_Info!X53),"x",Option_Info!X53)</f>
         <v>x</v>
       </c>
       <c r="X53" t="str">
-        <f>IF(ISBLANK(Option_Info!X53),"x",Option_Info!X53)</f>
+        <f>IF(ISBLANK(Option_Info!Y53),"x",Option_Info!Y53)</f>
         <v>x</v>
       </c>
       <c r="Y53" t="str">
-        <f>IF(ISBLANK(Option_Info!Y53),"x",Option_Info!Y53)</f>
+        <f>IF(ISBLANK(Option_Info!Z53),"x",Option_Info!Z53)</f>
         <v>x</v>
       </c>
       <c r="Z53" t="str">
-        <f>IF(ISBLANK(Option_Info!Z53),"x",Option_Info!Z53)</f>
+        <f>IF(ISBLANK(Option_Info!AA53),"x",Option_Info!AA53)</f>
         <v>x</v>
       </c>
       <c r="AA53" t="str">
-        <f>IF(ISBLANK(Option_Info!AA53),"x",Option_Info!AA53)</f>
+        <f>IF(ISBLANK(Option_Info!AB53),"x",Option_Info!AB53)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27">
       <c r="A54">
         <f>IF(ISBLANK(Option_Info!A54),"x",Option_Info!A54)</f>
         <v>3</v>
@@ -12643,79 +12847,79 @@
         <v>x</v>
       </c>
       <c r="J54" t="str">
-        <f>IF(ISBLANK(Option_Info!J54),"x",Option_Info!J54)</f>
+        <f>IF(ISBLANK(Option_Info!K54),"x",Option_Info!K54)</f>
         <v>x</v>
       </c>
       <c r="K54" t="str">
-        <f>IF(ISBLANK(Option_Info!K54),"x",Option_Info!K54)</f>
+        <f>IF(ISBLANK(Option_Info!L54),"x",Option_Info!L54)</f>
         <v>x</v>
       </c>
       <c r="L54" t="str">
-        <f>IF(ISBLANK(Option_Info!L54),"x",Option_Info!L54)</f>
+        <f>IF(ISBLANK(Option_Info!M54),"x",Option_Info!M54)</f>
         <v>x</v>
       </c>
       <c r="M54" t="str">
-        <f>IF(ISBLANK(Option_Info!M54),"x",Option_Info!M54)</f>
+        <f>IF(ISBLANK(Option_Info!N54),"x",Option_Info!N54)</f>
         <v>x</v>
       </c>
       <c r="N54" t="str">
-        <f>IF(ISBLANK(Option_Info!N54),"x",Option_Info!N54)</f>
+        <f>IF(ISBLANK(Option_Info!O54),"x",Option_Info!O54)</f>
         <v>x</v>
       </c>
       <c r="O54" t="str">
-        <f>IF(ISBLANK(Option_Info!O54),"x",Option_Info!O54)</f>
+        <f>IF(ISBLANK(Option_Info!P54),"x",Option_Info!P54)</f>
         <v>x</v>
       </c>
       <c r="P54" t="str">
-        <f>IF(ISBLANK(Option_Info!P54),"x",Option_Info!P54)</f>
+        <f>IF(ISBLANK(Option_Info!Q54),"x",Option_Info!Q54)</f>
         <v>x</v>
       </c>
       <c r="Q54" t="str">
-        <f>IF(ISBLANK(Option_Info!Q54),"x",Option_Info!Q54)</f>
+        <f>IF(ISBLANK(Option_Info!R54),"x",Option_Info!R54)</f>
         <v>x</v>
       </c>
       <c r="R54" t="str">
-        <f>IF(ISBLANK(Option_Info!R54),"x",Option_Info!R54)</f>
+        <f>IF(ISBLANK(Option_Info!S54),"x",Option_Info!S54)</f>
         <v>x</v>
       </c>
       <c r="S54" t="str">
-        <f>IF(ISBLANK(Option_Info!S54),"x",Option_Info!S54)</f>
+        <f>IF(ISBLANK(Option_Info!T54),"x",Option_Info!T54)</f>
         <v>x</v>
       </c>
       <c r="T54" t="str">
-        <f>IF(ISBLANK(Option_Info!T54),"x",Option_Info!T54)</f>
+        <f>IF(ISBLANK(Option_Info!U54),"x",Option_Info!U54)</f>
         <v>x</v>
       </c>
       <c r="U54" t="str">
-        <f>IF(ISBLANK(Option_Info!U54),"x",Option_Info!U54)</f>
+        <f>IF(ISBLANK(Option_Info!V54),"x",Option_Info!V54)</f>
         <v>x</v>
       </c>
       <c r="V54" t="str">
-        <f>IF(ISBLANK(Option_Info!V54),"x",Option_Info!V54)</f>
+        <f>IF(ISBLANK(Option_Info!W54),"x",Option_Info!W54)</f>
         <v>x</v>
       </c>
       <c r="W54" t="str">
-        <f>IF(ISBLANK(Option_Info!W54),"x",Option_Info!W54)</f>
+        <f>IF(ISBLANK(Option_Info!X54),"x",Option_Info!X54)</f>
         <v>x</v>
       </c>
       <c r="X54" t="str">
-        <f>IF(ISBLANK(Option_Info!X54),"x",Option_Info!X54)</f>
+        <f>IF(ISBLANK(Option_Info!Y54),"x",Option_Info!Y54)</f>
         <v>x</v>
       </c>
       <c r="Y54" t="str">
-        <f>IF(ISBLANK(Option_Info!Y54),"x",Option_Info!Y54)</f>
+        <f>IF(ISBLANK(Option_Info!Z54),"x",Option_Info!Z54)</f>
         <v>x</v>
       </c>
       <c r="Z54" t="str">
-        <f>IF(ISBLANK(Option_Info!Z54),"x",Option_Info!Z54)</f>
+        <f>IF(ISBLANK(Option_Info!AA54),"x",Option_Info!AA54)</f>
         <v>x</v>
       </c>
       <c r="AA54" t="str">
-        <f>IF(ISBLANK(Option_Info!AA54),"x",Option_Info!AA54)</f>
+        <f>IF(ISBLANK(Option_Info!AB54),"x",Option_Info!AB54)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27">
       <c r="A55">
         <f>IF(ISBLANK(Option_Info!A55),"x",Option_Info!A55)</f>
         <v>3</v>
@@ -12753,79 +12957,79 @@
         <v>x</v>
       </c>
       <c r="J55" t="str">
-        <f>IF(ISBLANK(Option_Info!J55),"x",Option_Info!J55)</f>
+        <f>IF(ISBLANK(Option_Info!K55),"x",Option_Info!K55)</f>
         <v>x</v>
       </c>
       <c r="K55" t="str">
-        <f>IF(ISBLANK(Option_Info!K55),"x",Option_Info!K55)</f>
+        <f>IF(ISBLANK(Option_Info!L55),"x",Option_Info!L55)</f>
         <v>x</v>
       </c>
       <c r="L55" t="str">
-        <f>IF(ISBLANK(Option_Info!L55),"x",Option_Info!L55)</f>
+        <f>IF(ISBLANK(Option_Info!M55),"x",Option_Info!M55)</f>
         <v>x</v>
       </c>
       <c r="M55" t="str">
-        <f>IF(ISBLANK(Option_Info!M55),"x",Option_Info!M55)</f>
+        <f>IF(ISBLANK(Option_Info!N55),"x",Option_Info!N55)</f>
         <v>x</v>
       </c>
       <c r="N55" t="str">
-        <f>IF(ISBLANK(Option_Info!N55),"x",Option_Info!N55)</f>
+        <f>IF(ISBLANK(Option_Info!O55),"x",Option_Info!O55)</f>
         <v>x</v>
       </c>
       <c r="O55" t="str">
-        <f>IF(ISBLANK(Option_Info!O55),"x",Option_Info!O55)</f>
+        <f>IF(ISBLANK(Option_Info!P55),"x",Option_Info!P55)</f>
         <v>x</v>
       </c>
       <c r="P55" t="str">
-        <f>IF(ISBLANK(Option_Info!P55),"x",Option_Info!P55)</f>
+        <f>IF(ISBLANK(Option_Info!Q55),"x",Option_Info!Q55)</f>
         <v>x</v>
       </c>
       <c r="Q55" t="str">
-        <f>IF(ISBLANK(Option_Info!Q55),"x",Option_Info!Q55)</f>
+        <f>IF(ISBLANK(Option_Info!R55),"x",Option_Info!R55)</f>
         <v>x</v>
       </c>
       <c r="R55" t="str">
-        <f>IF(ISBLANK(Option_Info!R55),"x",Option_Info!R55)</f>
+        <f>IF(ISBLANK(Option_Info!S55),"x",Option_Info!S55)</f>
         <v>x</v>
       </c>
       <c r="S55" t="str">
-        <f>IF(ISBLANK(Option_Info!S55),"x",Option_Info!S55)</f>
+        <f>IF(ISBLANK(Option_Info!T55),"x",Option_Info!T55)</f>
         <v>x</v>
       </c>
       <c r="T55" t="str">
-        <f>IF(ISBLANK(Option_Info!T55),"x",Option_Info!T55)</f>
+        <f>IF(ISBLANK(Option_Info!U55),"x",Option_Info!U55)</f>
         <v>x</v>
       </c>
       <c r="U55" t="str">
-        <f>IF(ISBLANK(Option_Info!U55),"x",Option_Info!U55)</f>
+        <f>IF(ISBLANK(Option_Info!V55),"x",Option_Info!V55)</f>
         <v>x</v>
       </c>
       <c r="V55" t="str">
-        <f>IF(ISBLANK(Option_Info!V55),"x",Option_Info!V55)</f>
+        <f>IF(ISBLANK(Option_Info!W55),"x",Option_Info!W55)</f>
         <v>x</v>
       </c>
       <c r="W55" t="str">
-        <f>IF(ISBLANK(Option_Info!W55),"x",Option_Info!W55)</f>
+        <f>IF(ISBLANK(Option_Info!X55),"x",Option_Info!X55)</f>
         <v>x</v>
       </c>
       <c r="X55" t="str">
-        <f>IF(ISBLANK(Option_Info!X55),"x",Option_Info!X55)</f>
+        <f>IF(ISBLANK(Option_Info!Y55),"x",Option_Info!Y55)</f>
         <v>x</v>
       </c>
       <c r="Y55" t="str">
-        <f>IF(ISBLANK(Option_Info!Y55),"x",Option_Info!Y55)</f>
+        <f>IF(ISBLANK(Option_Info!Z55),"x",Option_Info!Z55)</f>
         <v>x</v>
       </c>
       <c r="Z55" t="str">
-        <f>IF(ISBLANK(Option_Info!Z55),"x",Option_Info!Z55)</f>
+        <f>IF(ISBLANK(Option_Info!AA55),"x",Option_Info!AA55)</f>
         <v>x</v>
       </c>
       <c r="AA55" t="str">
-        <f>IF(ISBLANK(Option_Info!AA55),"x",Option_Info!AA55)</f>
+        <f>IF(ISBLANK(Option_Info!AB55),"x",Option_Info!AB55)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27">
       <c r="A56">
         <f>IF(ISBLANK(Option_Info!A56),"x",Option_Info!A56)</f>
         <v>3</v>
@@ -12863,79 +13067,79 @@
         <v>x</v>
       </c>
       <c r="J56" t="str">
-        <f>IF(ISBLANK(Option_Info!J56),"x",Option_Info!J56)</f>
+        <f>IF(ISBLANK(Option_Info!K56),"x",Option_Info!K56)</f>
         <v>x</v>
       </c>
       <c r="K56" t="str">
-        <f>IF(ISBLANK(Option_Info!K56),"x",Option_Info!K56)</f>
+        <f>IF(ISBLANK(Option_Info!L56),"x",Option_Info!L56)</f>
         <v>x</v>
       </c>
       <c r="L56">
-        <f>IF(ISBLANK(Option_Info!L56),"x",Option_Info!L56)</f>
+        <f>IF(ISBLANK(Option_Info!M56),"x",Option_Info!M56)</f>
         <v>3</v>
       </c>
       <c r="M56" t="str">
-        <f>IF(ISBLANK(Option_Info!M56),"x",Option_Info!M56)</f>
+        <f>IF(ISBLANK(Option_Info!N56),"x",Option_Info!N56)</f>
         <v>dsa</v>
       </c>
       <c r="N56" t="str">
-        <f>IF(ISBLANK(Option_Info!N56),"x",Option_Info!N56)</f>
+        <f>IF(ISBLANK(Option_Info!O56),"x",Option_Info!O56)</f>
         <v>qwe</v>
       </c>
       <c r="O56" t="str">
-        <f>IF(ISBLANK(Option_Info!O56),"x",Option_Info!O56)</f>
+        <f>IF(ISBLANK(Option_Info!P56),"x",Option_Info!P56)</f>
         <v>dgs</v>
       </c>
       <c r="P56" t="str">
-        <f>IF(ISBLANK(Option_Info!P56),"x",Option_Info!P56)</f>
+        <f>IF(ISBLANK(Option_Info!Q56),"x",Option_Info!Q56)</f>
         <v>x</v>
       </c>
       <c r="Q56" t="str">
-        <f>IF(ISBLANK(Option_Info!Q56),"x",Option_Info!Q56)</f>
+        <f>IF(ISBLANK(Option_Info!R56),"x",Option_Info!R56)</f>
         <v>x</v>
       </c>
       <c r="R56" t="str">
-        <f>IF(ISBLANK(Option_Info!R56),"x",Option_Info!R56)</f>
+        <f>IF(ISBLANK(Option_Info!S56),"x",Option_Info!S56)</f>
         <v>x</v>
       </c>
       <c r="S56" t="str">
-        <f>IF(ISBLANK(Option_Info!S56),"x",Option_Info!S56)</f>
+        <f>IF(ISBLANK(Option_Info!T56),"x",Option_Info!T56)</f>
         <v>x</v>
       </c>
       <c r="T56" t="str">
-        <f>IF(ISBLANK(Option_Info!T56),"x",Option_Info!T56)</f>
+        <f>IF(ISBLANK(Option_Info!U56),"x",Option_Info!U56)</f>
         <v>x</v>
       </c>
       <c r="U56" t="str">
-        <f>IF(ISBLANK(Option_Info!U56),"x",Option_Info!U56)</f>
+        <f>IF(ISBLANK(Option_Info!V56),"x",Option_Info!V56)</f>
         <v>x</v>
       </c>
       <c r="V56" t="str">
-        <f>IF(ISBLANK(Option_Info!V56),"x",Option_Info!V56)</f>
+        <f>IF(ISBLANK(Option_Info!W56),"x",Option_Info!W56)</f>
         <v>x</v>
       </c>
       <c r="W56" t="str">
-        <f>IF(ISBLANK(Option_Info!W56),"x",Option_Info!W56)</f>
+        <f>IF(ISBLANK(Option_Info!X56),"x",Option_Info!X56)</f>
         <v>x</v>
       </c>
       <c r="X56" t="str">
-        <f>IF(ISBLANK(Option_Info!X56),"x",Option_Info!X56)</f>
+        <f>IF(ISBLANK(Option_Info!Y56),"x",Option_Info!Y56)</f>
         <v>x</v>
       </c>
       <c r="Y56" t="str">
-        <f>IF(ISBLANK(Option_Info!Y56),"x",Option_Info!Y56)</f>
+        <f>IF(ISBLANK(Option_Info!Z56),"x",Option_Info!Z56)</f>
         <v>x</v>
       </c>
       <c r="Z56" t="str">
-        <f>IF(ISBLANK(Option_Info!Z56),"x",Option_Info!Z56)</f>
+        <f>IF(ISBLANK(Option_Info!AA56),"x",Option_Info!AA56)</f>
         <v>x</v>
       </c>
       <c r="AA56" t="str">
-        <f>IF(ISBLANK(Option_Info!AA56),"x",Option_Info!AA56)</f>
+        <f>IF(ISBLANK(Option_Info!AB56),"x",Option_Info!AB56)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27">
       <c r="A57">
         <f>IF(ISBLANK(Option_Info!A57),"x",Option_Info!A57)</f>
         <v>3</v>
@@ -12973,79 +13177,79 @@
         <v>12</v>
       </c>
       <c r="J57">
-        <f>IF(ISBLANK(Option_Info!J57),"x",Option_Info!J57)</f>
+        <f>IF(ISBLANK(Option_Info!K57),"x",Option_Info!K57)</f>
         <v>14</v>
       </c>
       <c r="K57">
-        <f>IF(ISBLANK(Option_Info!K57),"x",Option_Info!K57)</f>
+        <f>IF(ISBLANK(Option_Info!L57),"x",Option_Info!L57)</f>
         <v>5</v>
       </c>
       <c r="L57" t="str">
-        <f>IF(ISBLANK(Option_Info!L57),"x",Option_Info!L57)</f>
+        <f>IF(ISBLANK(Option_Info!M57),"x",Option_Info!M57)</f>
         <v>x</v>
       </c>
       <c r="M57" t="str">
-        <f>IF(ISBLANK(Option_Info!M57),"x",Option_Info!M57)</f>
+        <f>IF(ISBLANK(Option_Info!N57),"x",Option_Info!N57)</f>
         <v>x</v>
       </c>
       <c r="N57" t="str">
-        <f>IF(ISBLANK(Option_Info!N57),"x",Option_Info!N57)</f>
+        <f>IF(ISBLANK(Option_Info!O57),"x",Option_Info!O57)</f>
         <v>x</v>
       </c>
       <c r="O57" t="str">
-        <f>IF(ISBLANK(Option_Info!O57),"x",Option_Info!O57)</f>
+        <f>IF(ISBLANK(Option_Info!P57),"x",Option_Info!P57)</f>
         <v>x</v>
       </c>
       <c r="P57" t="str">
-        <f>IF(ISBLANK(Option_Info!P57),"x",Option_Info!P57)</f>
+        <f>IF(ISBLANK(Option_Info!Q57),"x",Option_Info!Q57)</f>
         <v>x</v>
       </c>
       <c r="Q57" t="str">
-        <f>IF(ISBLANK(Option_Info!Q57),"x",Option_Info!Q57)</f>
+        <f>IF(ISBLANK(Option_Info!R57),"x",Option_Info!R57)</f>
         <v>x</v>
       </c>
       <c r="R57" t="str">
-        <f>IF(ISBLANK(Option_Info!R57),"x",Option_Info!R57)</f>
+        <f>IF(ISBLANK(Option_Info!S57),"x",Option_Info!S57)</f>
         <v>x</v>
       </c>
       <c r="S57" t="str">
-        <f>IF(ISBLANK(Option_Info!S57),"x",Option_Info!S57)</f>
+        <f>IF(ISBLANK(Option_Info!T57),"x",Option_Info!T57)</f>
         <v>x</v>
       </c>
       <c r="T57" t="str">
-        <f>IF(ISBLANK(Option_Info!T57),"x",Option_Info!T57)</f>
+        <f>IF(ISBLANK(Option_Info!U57),"x",Option_Info!U57)</f>
         <v>x</v>
       </c>
       <c r="U57" t="str">
-        <f>IF(ISBLANK(Option_Info!U57),"x",Option_Info!U57)</f>
+        <f>IF(ISBLANK(Option_Info!V57),"x",Option_Info!V57)</f>
         <v>x</v>
       </c>
       <c r="V57" t="str">
-        <f>IF(ISBLANK(Option_Info!V57),"x",Option_Info!V57)</f>
+        <f>IF(ISBLANK(Option_Info!W57),"x",Option_Info!W57)</f>
         <v>x</v>
       </c>
       <c r="W57" t="str">
-        <f>IF(ISBLANK(Option_Info!W57),"x",Option_Info!W57)</f>
+        <f>IF(ISBLANK(Option_Info!X57),"x",Option_Info!X57)</f>
         <v>x</v>
       </c>
       <c r="X57" t="str">
-        <f>IF(ISBLANK(Option_Info!X57),"x",Option_Info!X57)</f>
+        <f>IF(ISBLANK(Option_Info!Y57),"x",Option_Info!Y57)</f>
         <v>x</v>
       </c>
       <c r="Y57" t="str">
-        <f>IF(ISBLANK(Option_Info!Y57),"x",Option_Info!Y57)</f>
+        <f>IF(ISBLANK(Option_Info!Z57),"x",Option_Info!Z57)</f>
         <v>x</v>
       </c>
       <c r="Z57" t="str">
-        <f>IF(ISBLANK(Option_Info!Z57),"x",Option_Info!Z57)</f>
+        <f>IF(ISBLANK(Option_Info!AA57),"x",Option_Info!AA57)</f>
         <v>x</v>
       </c>
       <c r="AA57" t="str">
-        <f>IF(ISBLANK(Option_Info!AA57),"x",Option_Info!AA57)</f>
+        <f>IF(ISBLANK(Option_Info!AB57),"x",Option_Info!AB57)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27">
       <c r="A58">
         <f>IF(ISBLANK(Option_Info!A58),"x",Option_Info!A58)</f>
         <v>3</v>
@@ -13083,79 +13287,79 @@
         <v>x</v>
       </c>
       <c r="J58" t="str">
-        <f>IF(ISBLANK(Option_Info!J58),"x",Option_Info!J58)</f>
+        <f>IF(ISBLANK(Option_Info!K58),"x",Option_Info!K58)</f>
         <v>x</v>
       </c>
       <c r="K58" t="str">
-        <f>IF(ISBLANK(Option_Info!K58),"x",Option_Info!K58)</f>
+        <f>IF(ISBLANK(Option_Info!L58),"x",Option_Info!L58)</f>
         <v>x</v>
       </c>
       <c r="L58" t="str">
-        <f>IF(ISBLANK(Option_Info!L58),"x",Option_Info!L58)</f>
+        <f>IF(ISBLANK(Option_Info!M58),"x",Option_Info!M58)</f>
         <v>x</v>
       </c>
       <c r="M58" t="str">
-        <f>IF(ISBLANK(Option_Info!M58),"x",Option_Info!M58)</f>
+        <f>IF(ISBLANK(Option_Info!N58),"x",Option_Info!N58)</f>
         <v>x</v>
       </c>
       <c r="N58" t="str">
-        <f>IF(ISBLANK(Option_Info!N58),"x",Option_Info!N58)</f>
+        <f>IF(ISBLANK(Option_Info!O58),"x",Option_Info!O58)</f>
         <v>x</v>
       </c>
       <c r="O58" t="str">
-        <f>IF(ISBLANK(Option_Info!O58),"x",Option_Info!O58)</f>
+        <f>IF(ISBLANK(Option_Info!P58),"x",Option_Info!P58)</f>
         <v>x</v>
       </c>
       <c r="P58" t="str">
-        <f>IF(ISBLANK(Option_Info!P58),"x",Option_Info!P58)</f>
+        <f>IF(ISBLANK(Option_Info!Q58),"x",Option_Info!Q58)</f>
         <v>x</v>
       </c>
       <c r="Q58" t="str">
-        <f>IF(ISBLANK(Option_Info!Q58),"x",Option_Info!Q58)</f>
+        <f>IF(ISBLANK(Option_Info!R58),"x",Option_Info!R58)</f>
         <v>x</v>
       </c>
       <c r="R58" t="str">
-        <f>IF(ISBLANK(Option_Info!R58),"x",Option_Info!R58)</f>
+        <f>IF(ISBLANK(Option_Info!S58),"x",Option_Info!S58)</f>
         <v>x</v>
       </c>
       <c r="S58" t="str">
-        <f>IF(ISBLANK(Option_Info!S58),"x",Option_Info!S58)</f>
+        <f>IF(ISBLANK(Option_Info!T58),"x",Option_Info!T58)</f>
         <v>x</v>
       </c>
       <c r="T58" t="str">
-        <f>IF(ISBLANK(Option_Info!T58),"x",Option_Info!T58)</f>
+        <f>IF(ISBLANK(Option_Info!U58),"x",Option_Info!U58)</f>
         <v>x</v>
       </c>
       <c r="U58" t="str">
-        <f>IF(ISBLANK(Option_Info!U58),"x",Option_Info!U58)</f>
+        <f>IF(ISBLANK(Option_Info!V58),"x",Option_Info!V58)</f>
         <v>x</v>
       </c>
       <c r="V58" t="str">
-        <f>IF(ISBLANK(Option_Info!V58),"x",Option_Info!V58)</f>
+        <f>IF(ISBLANK(Option_Info!W58),"x",Option_Info!W58)</f>
         <v>x</v>
       </c>
       <c r="W58" t="str">
-        <f>IF(ISBLANK(Option_Info!W58),"x",Option_Info!W58)</f>
+        <f>IF(ISBLANK(Option_Info!X58),"x",Option_Info!X58)</f>
         <v>x</v>
       </c>
       <c r="X58" t="str">
-        <f>IF(ISBLANK(Option_Info!X58),"x",Option_Info!X58)</f>
+        <f>IF(ISBLANK(Option_Info!Y58),"x",Option_Info!Y58)</f>
         <v>x</v>
       </c>
       <c r="Y58" t="str">
-        <f>IF(ISBLANK(Option_Info!Y58),"x",Option_Info!Y58)</f>
+        <f>IF(ISBLANK(Option_Info!Z58),"x",Option_Info!Z58)</f>
         <v>x</v>
       </c>
       <c r="Z58" t="str">
-        <f>IF(ISBLANK(Option_Info!Z58),"x",Option_Info!Z58)</f>
+        <f>IF(ISBLANK(Option_Info!AA58),"x",Option_Info!AA58)</f>
         <v>x</v>
       </c>
       <c r="AA58" t="str">
-        <f>IF(ISBLANK(Option_Info!AA58),"x",Option_Info!AA58)</f>
+        <f>IF(ISBLANK(Option_Info!AB58),"x",Option_Info!AB58)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27">
       <c r="A59">
         <f>IF(ISBLANK(Option_Info!A59),"x",Option_Info!A59)</f>
         <v>4</v>
@@ -13193,79 +13397,79 @@
         <v>x</v>
       </c>
       <c r="J59" t="str">
-        <f>IF(ISBLANK(Option_Info!J59),"x",Option_Info!J59)</f>
+        <f>IF(ISBLANK(Option_Info!K59),"x",Option_Info!K59)</f>
         <v>x</v>
       </c>
       <c r="K59" t="str">
-        <f>IF(ISBLANK(Option_Info!K59),"x",Option_Info!K59)</f>
+        <f>IF(ISBLANK(Option_Info!L59),"x",Option_Info!L59)</f>
         <v>x</v>
       </c>
       <c r="L59" t="str">
-        <f>IF(ISBLANK(Option_Info!L59),"x",Option_Info!L59)</f>
+        <f>IF(ISBLANK(Option_Info!M59),"x",Option_Info!M59)</f>
         <v>x</v>
       </c>
       <c r="M59" t="str">
-        <f>IF(ISBLANK(Option_Info!M59),"x",Option_Info!M59)</f>
+        <f>IF(ISBLANK(Option_Info!N59),"x",Option_Info!N59)</f>
         <v>x</v>
       </c>
       <c r="N59" t="str">
-        <f>IF(ISBLANK(Option_Info!N59),"x",Option_Info!N59)</f>
+        <f>IF(ISBLANK(Option_Info!O59),"x",Option_Info!O59)</f>
         <v>x</v>
       </c>
       <c r="O59" t="str">
-        <f>IF(ISBLANK(Option_Info!O59),"x",Option_Info!O59)</f>
+        <f>IF(ISBLANK(Option_Info!P59),"x",Option_Info!P59)</f>
         <v>x</v>
       </c>
       <c r="P59" t="str">
-        <f>IF(ISBLANK(Option_Info!P59),"x",Option_Info!P59)</f>
+        <f>IF(ISBLANK(Option_Info!Q59),"x",Option_Info!Q59)</f>
         <v>x</v>
       </c>
       <c r="Q59" t="str">
-        <f>IF(ISBLANK(Option_Info!Q59),"x",Option_Info!Q59)</f>
+        <f>IF(ISBLANK(Option_Info!R59),"x",Option_Info!R59)</f>
         <v>x</v>
       </c>
       <c r="R59" t="str">
-        <f>IF(ISBLANK(Option_Info!R59),"x",Option_Info!R59)</f>
+        <f>IF(ISBLANK(Option_Info!S59),"x",Option_Info!S59)</f>
         <v>x</v>
       </c>
       <c r="S59" t="str">
-        <f>IF(ISBLANK(Option_Info!S59),"x",Option_Info!S59)</f>
+        <f>IF(ISBLANK(Option_Info!T59),"x",Option_Info!T59)</f>
         <v>x</v>
       </c>
       <c r="T59" t="str">
-        <f>IF(ISBLANK(Option_Info!T59),"x",Option_Info!T59)</f>
+        <f>IF(ISBLANK(Option_Info!U59),"x",Option_Info!U59)</f>
         <v>x</v>
       </c>
       <c r="U59" t="str">
-        <f>IF(ISBLANK(Option_Info!U59),"x",Option_Info!U59)</f>
+        <f>IF(ISBLANK(Option_Info!V59),"x",Option_Info!V59)</f>
         <v>x</v>
       </c>
       <c r="V59" t="str">
-        <f>IF(ISBLANK(Option_Info!V59),"x",Option_Info!V59)</f>
+        <f>IF(ISBLANK(Option_Info!W59),"x",Option_Info!W59)</f>
         <v>x</v>
       </c>
       <c r="W59" t="str">
-        <f>IF(ISBLANK(Option_Info!W59),"x",Option_Info!W59)</f>
+        <f>IF(ISBLANK(Option_Info!X59),"x",Option_Info!X59)</f>
         <v>x</v>
       </c>
       <c r="X59" t="str">
-        <f>IF(ISBLANK(Option_Info!X59),"x",Option_Info!X59)</f>
+        <f>IF(ISBLANK(Option_Info!Y59),"x",Option_Info!Y59)</f>
         <v>x</v>
       </c>
       <c r="Y59" t="str">
-        <f>IF(ISBLANK(Option_Info!Y59),"x",Option_Info!Y59)</f>
+        <f>IF(ISBLANK(Option_Info!Z59),"x",Option_Info!Z59)</f>
         <v>x</v>
       </c>
       <c r="Z59" t="str">
-        <f>IF(ISBLANK(Option_Info!Z59),"x",Option_Info!Z59)</f>
+        <f>IF(ISBLANK(Option_Info!AA59),"x",Option_Info!AA59)</f>
         <v>x</v>
       </c>
       <c r="AA59" t="str">
-        <f>IF(ISBLANK(Option_Info!AA59),"x",Option_Info!AA59)</f>
+        <f>IF(ISBLANK(Option_Info!AB59),"x",Option_Info!AB59)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27">
       <c r="A60">
         <f>IF(ISBLANK(Option_Info!A60),"x",Option_Info!A60)</f>
         <v>4</v>
@@ -13303,79 +13507,79 @@
         <v>x</v>
       </c>
       <c r="J60" t="str">
-        <f>IF(ISBLANK(Option_Info!J60),"x",Option_Info!J60)</f>
+        <f>IF(ISBLANK(Option_Info!K60),"x",Option_Info!K60)</f>
         <v>x</v>
       </c>
       <c r="K60" t="str">
-        <f>IF(ISBLANK(Option_Info!K60),"x",Option_Info!K60)</f>
+        <f>IF(ISBLANK(Option_Info!L60),"x",Option_Info!L60)</f>
         <v>x</v>
       </c>
       <c r="L60" t="str">
-        <f>IF(ISBLANK(Option_Info!L60),"x",Option_Info!L60)</f>
+        <f>IF(ISBLANK(Option_Info!M60),"x",Option_Info!M60)</f>
         <v>x</v>
       </c>
       <c r="M60" t="str">
-        <f>IF(ISBLANK(Option_Info!M60),"x",Option_Info!M60)</f>
+        <f>IF(ISBLANK(Option_Info!N60),"x",Option_Info!N60)</f>
         <v>x</v>
       </c>
       <c r="N60" t="str">
-        <f>IF(ISBLANK(Option_Info!N60),"x",Option_Info!N60)</f>
+        <f>IF(ISBLANK(Option_Info!O60),"x",Option_Info!O60)</f>
         <v>x</v>
       </c>
       <c r="O60" t="str">
-        <f>IF(ISBLANK(Option_Info!O60),"x",Option_Info!O60)</f>
+        <f>IF(ISBLANK(Option_Info!P60),"x",Option_Info!P60)</f>
         <v>x</v>
       </c>
       <c r="P60" t="str">
-        <f>IF(ISBLANK(Option_Info!P60),"x",Option_Info!P60)</f>
+        <f>IF(ISBLANK(Option_Info!Q60),"x",Option_Info!Q60)</f>
         <v>x</v>
       </c>
       <c r="Q60" t="str">
-        <f>IF(ISBLANK(Option_Info!Q60),"x",Option_Info!Q60)</f>
+        <f>IF(ISBLANK(Option_Info!R60),"x",Option_Info!R60)</f>
         <v>x</v>
       </c>
       <c r="R60" t="str">
-        <f>IF(ISBLANK(Option_Info!R60),"x",Option_Info!R60)</f>
+        <f>IF(ISBLANK(Option_Info!S60),"x",Option_Info!S60)</f>
         <v>x</v>
       </c>
       <c r="S60" t="str">
-        <f>IF(ISBLANK(Option_Info!S60),"x",Option_Info!S60)</f>
+        <f>IF(ISBLANK(Option_Info!T60),"x",Option_Info!T60)</f>
         <v>x</v>
       </c>
       <c r="T60" t="str">
-        <f>IF(ISBLANK(Option_Info!T60),"x",Option_Info!T60)</f>
+        <f>IF(ISBLANK(Option_Info!U60),"x",Option_Info!U60)</f>
         <v>x</v>
       </c>
       <c r="U60" t="str">
-        <f>IF(ISBLANK(Option_Info!U60),"x",Option_Info!U60)</f>
+        <f>IF(ISBLANK(Option_Info!V60),"x",Option_Info!V60)</f>
         <v>x</v>
       </c>
       <c r="V60" t="str">
-        <f>IF(ISBLANK(Option_Info!V60),"x",Option_Info!V60)</f>
+        <f>IF(ISBLANK(Option_Info!W60),"x",Option_Info!W60)</f>
         <v>x</v>
       </c>
       <c r="W60" t="str">
-        <f>IF(ISBLANK(Option_Info!W60),"x",Option_Info!W60)</f>
+        <f>IF(ISBLANK(Option_Info!X60),"x",Option_Info!X60)</f>
         <v>x</v>
       </c>
       <c r="X60" t="str">
-        <f>IF(ISBLANK(Option_Info!X60),"x",Option_Info!X60)</f>
+        <f>IF(ISBLANK(Option_Info!Y60),"x",Option_Info!Y60)</f>
         <v>x</v>
       </c>
       <c r="Y60" t="str">
-        <f>IF(ISBLANK(Option_Info!Y60),"x",Option_Info!Y60)</f>
+        <f>IF(ISBLANK(Option_Info!Z60),"x",Option_Info!Z60)</f>
         <v>x</v>
       </c>
       <c r="Z60" t="str">
-        <f>IF(ISBLANK(Option_Info!Z60),"x",Option_Info!Z60)</f>
+        <f>IF(ISBLANK(Option_Info!AA60),"x",Option_Info!AA60)</f>
         <v>x</v>
       </c>
       <c r="AA60" t="str">
-        <f>IF(ISBLANK(Option_Info!AA60),"x",Option_Info!AA60)</f>
+        <f>IF(ISBLANK(Option_Info!AB60),"x",Option_Info!AB60)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27">
       <c r="A61">
         <f>IF(ISBLANK(Option_Info!A61),"x",Option_Info!A61)</f>
         <v>4</v>
@@ -13413,79 +13617,79 @@
         <v>x</v>
       </c>
       <c r="J61" t="str">
-        <f>IF(ISBLANK(Option_Info!J61),"x",Option_Info!J61)</f>
+        <f>IF(ISBLANK(Option_Info!K61),"x",Option_Info!K61)</f>
         <v>x</v>
       </c>
       <c r="K61" t="str">
-        <f>IF(ISBLANK(Option_Info!K61),"x",Option_Info!K61)</f>
+        <f>IF(ISBLANK(Option_Info!L61),"x",Option_Info!L61)</f>
         <v>x</v>
       </c>
       <c r="L61" t="str">
-        <f>IF(ISBLANK(Option_Info!L61),"x",Option_Info!L61)</f>
+        <f>IF(ISBLANK(Option_Info!M61),"x",Option_Info!M61)</f>
         <v>x</v>
       </c>
       <c r="M61" t="str">
-        <f>IF(ISBLANK(Option_Info!M61),"x",Option_Info!M61)</f>
+        <f>IF(ISBLANK(Option_Info!N61),"x",Option_Info!N61)</f>
         <v>x</v>
       </c>
       <c r="N61" t="str">
-        <f>IF(ISBLANK(Option_Info!N61),"x",Option_Info!N61)</f>
+        <f>IF(ISBLANK(Option_Info!O61),"x",Option_Info!O61)</f>
         <v>x</v>
       </c>
       <c r="O61" t="str">
-        <f>IF(ISBLANK(Option_Info!O61),"x",Option_Info!O61)</f>
+        <f>IF(ISBLANK(Option_Info!P61),"x",Option_Info!P61)</f>
         <v>x</v>
       </c>
       <c r="P61" t="str">
-        <f>IF(ISBLANK(Option_Info!P61),"x",Option_Info!P61)</f>
+        <f>IF(ISBLANK(Option_Info!Q61),"x",Option_Info!Q61)</f>
         <v>x</v>
       </c>
       <c r="Q61" t="str">
-        <f>IF(ISBLANK(Option_Info!Q61),"x",Option_Info!Q61)</f>
+        <f>IF(ISBLANK(Option_Info!R61),"x",Option_Info!R61)</f>
         <v>x</v>
       </c>
       <c r="R61" t="str">
-        <f>IF(ISBLANK(Option_Info!R61),"x",Option_Info!R61)</f>
+        <f>IF(ISBLANK(Option_Info!S61),"x",Option_Info!S61)</f>
         <v>x</v>
       </c>
       <c r="S61" t="str">
-        <f>IF(ISBLANK(Option_Info!S61),"x",Option_Info!S61)</f>
+        <f>IF(ISBLANK(Option_Info!T61),"x",Option_Info!T61)</f>
         <v>x</v>
       </c>
       <c r="T61" t="str">
-        <f>IF(ISBLANK(Option_Info!T61),"x",Option_Info!T61)</f>
+        <f>IF(ISBLANK(Option_Info!U61),"x",Option_Info!U61)</f>
         <v>x</v>
       </c>
       <c r="U61" t="str">
-        <f>IF(ISBLANK(Option_Info!U61),"x",Option_Info!U61)</f>
+        <f>IF(ISBLANK(Option_Info!V61),"x",Option_Info!V61)</f>
         <v>x</v>
       </c>
       <c r="V61" t="str">
-        <f>IF(ISBLANK(Option_Info!V61),"x",Option_Info!V61)</f>
+        <f>IF(ISBLANK(Option_Info!W61),"x",Option_Info!W61)</f>
         <v>x</v>
       </c>
       <c r="W61" t="str">
-        <f>IF(ISBLANK(Option_Info!W61),"x",Option_Info!W61)</f>
+        <f>IF(ISBLANK(Option_Info!X61),"x",Option_Info!X61)</f>
         <v>x</v>
       </c>
       <c r="X61" t="str">
-        <f>IF(ISBLANK(Option_Info!X61),"x",Option_Info!X61)</f>
+        <f>IF(ISBLANK(Option_Info!Y61),"x",Option_Info!Y61)</f>
         <v>x</v>
       </c>
       <c r="Y61" t="str">
-        <f>IF(ISBLANK(Option_Info!Y61),"x",Option_Info!Y61)</f>
+        <f>IF(ISBLANK(Option_Info!Z61),"x",Option_Info!Z61)</f>
         <v>x</v>
       </c>
       <c r="Z61" t="str">
-        <f>IF(ISBLANK(Option_Info!Z61),"x",Option_Info!Z61)</f>
+        <f>IF(ISBLANK(Option_Info!AA61),"x",Option_Info!AA61)</f>
         <v>x</v>
       </c>
       <c r="AA61" t="str">
-        <f>IF(ISBLANK(Option_Info!AA61),"x",Option_Info!AA61)</f>
+        <f>IF(ISBLANK(Option_Info!AB61),"x",Option_Info!AB61)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27">
       <c r="A62">
         <f>IF(ISBLANK(Option_Info!A62),"x",Option_Info!A62)</f>
         <v>4</v>
@@ -13523,79 +13727,79 @@
         <v>x</v>
       </c>
       <c r="J62" t="str">
-        <f>IF(ISBLANK(Option_Info!J62),"x",Option_Info!J62)</f>
+        <f>IF(ISBLANK(Option_Info!K62),"x",Option_Info!K62)</f>
         <v>x</v>
       </c>
       <c r="K62" t="str">
-        <f>IF(ISBLANK(Option_Info!K62),"x",Option_Info!K62)</f>
+        <f>IF(ISBLANK(Option_Info!L62),"x",Option_Info!L62)</f>
         <v>x</v>
       </c>
       <c r="L62">
-        <f>IF(ISBLANK(Option_Info!L62),"x",Option_Info!L62)</f>
+        <f>IF(ISBLANK(Option_Info!M62),"x",Option_Info!M62)</f>
         <v>2</v>
       </c>
       <c r="M62" t="str">
-        <f>IF(ISBLANK(Option_Info!M62),"x",Option_Info!M62)</f>
+        <f>IF(ISBLANK(Option_Info!N62),"x",Option_Info!N62)</f>
         <v>asd</v>
       </c>
       <c r="N62" t="str">
-        <f>IF(ISBLANK(Option_Info!N62),"x",Option_Info!N62)</f>
+        <f>IF(ISBLANK(Option_Info!O62),"x",Option_Info!O62)</f>
         <v>qwe</v>
       </c>
       <c r="O62" t="str">
-        <f>IF(ISBLANK(Option_Info!O62),"x",Option_Info!O62)</f>
+        <f>IF(ISBLANK(Option_Info!P62),"x",Option_Info!P62)</f>
         <v>x</v>
       </c>
       <c r="P62" t="str">
-        <f>IF(ISBLANK(Option_Info!P62),"x",Option_Info!P62)</f>
+        <f>IF(ISBLANK(Option_Info!Q62),"x",Option_Info!Q62)</f>
         <v>x</v>
       </c>
       <c r="Q62" t="str">
-        <f>IF(ISBLANK(Option_Info!Q62),"x",Option_Info!Q62)</f>
+        <f>IF(ISBLANK(Option_Info!R62),"x",Option_Info!R62)</f>
         <v>x</v>
       </c>
       <c r="R62" t="str">
-        <f>IF(ISBLANK(Option_Info!R62),"x",Option_Info!R62)</f>
+        <f>IF(ISBLANK(Option_Info!S62),"x",Option_Info!S62)</f>
         <v>x</v>
       </c>
       <c r="S62" t="str">
-        <f>IF(ISBLANK(Option_Info!S62),"x",Option_Info!S62)</f>
+        <f>IF(ISBLANK(Option_Info!T62),"x",Option_Info!T62)</f>
         <v>x</v>
       </c>
       <c r="T62" t="str">
-        <f>IF(ISBLANK(Option_Info!T62),"x",Option_Info!T62)</f>
+        <f>IF(ISBLANK(Option_Info!U62),"x",Option_Info!U62)</f>
         <v>x</v>
       </c>
       <c r="U62" t="str">
-        <f>IF(ISBLANK(Option_Info!U62),"x",Option_Info!U62)</f>
+        <f>IF(ISBLANK(Option_Info!V62),"x",Option_Info!V62)</f>
         <v>x</v>
       </c>
       <c r="V62" t="str">
-        <f>IF(ISBLANK(Option_Info!V62),"x",Option_Info!V62)</f>
+        <f>IF(ISBLANK(Option_Info!W62),"x",Option_Info!W62)</f>
         <v>x</v>
       </c>
       <c r="W62" t="str">
-        <f>IF(ISBLANK(Option_Info!W62),"x",Option_Info!W62)</f>
+        <f>IF(ISBLANK(Option_Info!X62),"x",Option_Info!X62)</f>
         <v>x</v>
       </c>
       <c r="X62" t="str">
-        <f>IF(ISBLANK(Option_Info!X62),"x",Option_Info!X62)</f>
+        <f>IF(ISBLANK(Option_Info!Y62),"x",Option_Info!Y62)</f>
         <v>x</v>
       </c>
       <c r="Y62" t="str">
-        <f>IF(ISBLANK(Option_Info!Y62),"x",Option_Info!Y62)</f>
+        <f>IF(ISBLANK(Option_Info!Z62),"x",Option_Info!Z62)</f>
         <v>x</v>
       </c>
       <c r="Z62" t="str">
-        <f>IF(ISBLANK(Option_Info!Z62),"x",Option_Info!Z62)</f>
+        <f>IF(ISBLANK(Option_Info!AA62),"x",Option_Info!AA62)</f>
         <v>x</v>
       </c>
       <c r="AA62" t="str">
-        <f>IF(ISBLANK(Option_Info!AA62),"x",Option_Info!AA62)</f>
+        <f>IF(ISBLANK(Option_Info!AB62),"x",Option_Info!AB62)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27">
       <c r="A63">
         <f>IF(ISBLANK(Option_Info!A63),"x",Option_Info!A63)</f>
         <v>4</v>
@@ -13633,79 +13837,79 @@
         <v>12</v>
       </c>
       <c r="J63">
-        <f>IF(ISBLANK(Option_Info!J63),"x",Option_Info!J63)</f>
+        <f>IF(ISBLANK(Option_Info!K63),"x",Option_Info!K63)</f>
         <v>34</v>
       </c>
       <c r="K63">
-        <f>IF(ISBLANK(Option_Info!K63),"x",Option_Info!K63)</f>
+        <f>IF(ISBLANK(Option_Info!L63),"x",Option_Info!L63)</f>
         <v>3</v>
       </c>
       <c r="L63" t="str">
-        <f>IF(ISBLANK(Option_Info!L63),"x",Option_Info!L63)</f>
+        <f>IF(ISBLANK(Option_Info!M63),"x",Option_Info!M63)</f>
         <v>x</v>
       </c>
       <c r="M63" t="str">
-        <f>IF(ISBLANK(Option_Info!M63),"x",Option_Info!M63)</f>
+        <f>IF(ISBLANK(Option_Info!N63),"x",Option_Info!N63)</f>
         <v>x</v>
       </c>
       <c r="N63" t="str">
-        <f>IF(ISBLANK(Option_Info!N63),"x",Option_Info!N63)</f>
+        <f>IF(ISBLANK(Option_Info!O63),"x",Option_Info!O63)</f>
         <v>x</v>
       </c>
       <c r="O63" t="str">
-        <f>IF(ISBLANK(Option_Info!O63),"x",Option_Info!O63)</f>
+        <f>IF(ISBLANK(Option_Info!P63),"x",Option_Info!P63)</f>
         <v>x</v>
       </c>
       <c r="P63" t="str">
-        <f>IF(ISBLANK(Option_Info!P63),"x",Option_Info!P63)</f>
+        <f>IF(ISBLANK(Option_Info!Q63),"x",Option_Info!Q63)</f>
         <v>x</v>
       </c>
       <c r="Q63" t="str">
-        <f>IF(ISBLANK(Option_Info!Q63),"x",Option_Info!Q63)</f>
+        <f>IF(ISBLANK(Option_Info!R63),"x",Option_Info!R63)</f>
         <v>x</v>
       </c>
       <c r="R63" t="str">
-        <f>IF(ISBLANK(Option_Info!R63),"x",Option_Info!R63)</f>
+        <f>IF(ISBLANK(Option_Info!S63),"x",Option_Info!S63)</f>
         <v>x</v>
       </c>
       <c r="S63" t="str">
-        <f>IF(ISBLANK(Option_Info!S63),"x",Option_Info!S63)</f>
+        <f>IF(ISBLANK(Option_Info!T63),"x",Option_Info!T63)</f>
         <v>x</v>
       </c>
       <c r="T63" t="str">
-        <f>IF(ISBLANK(Option_Info!T63),"x",Option_Info!T63)</f>
+        <f>IF(ISBLANK(Option_Info!U63),"x",Option_Info!U63)</f>
         <v>x</v>
       </c>
       <c r="U63" t="str">
-        <f>IF(ISBLANK(Option_Info!U63),"x",Option_Info!U63)</f>
+        <f>IF(ISBLANK(Option_Info!V63),"x",Option_Info!V63)</f>
         <v>x</v>
       </c>
       <c r="V63" t="str">
-        <f>IF(ISBLANK(Option_Info!V63),"x",Option_Info!V63)</f>
+        <f>IF(ISBLANK(Option_Info!W63),"x",Option_Info!W63)</f>
         <v>x</v>
       </c>
       <c r="W63" t="str">
-        <f>IF(ISBLANK(Option_Info!W63),"x",Option_Info!W63)</f>
+        <f>IF(ISBLANK(Option_Info!X63),"x",Option_Info!X63)</f>
         <v>x</v>
       </c>
       <c r="X63" t="str">
-        <f>IF(ISBLANK(Option_Info!X63),"x",Option_Info!X63)</f>
+        <f>IF(ISBLANK(Option_Info!Y63),"x",Option_Info!Y63)</f>
         <v>x</v>
       </c>
       <c r="Y63" t="str">
-        <f>IF(ISBLANK(Option_Info!Y63),"x",Option_Info!Y63)</f>
+        <f>IF(ISBLANK(Option_Info!Z63),"x",Option_Info!Z63)</f>
         <v>x</v>
       </c>
       <c r="Z63" t="str">
-        <f>IF(ISBLANK(Option_Info!Z63),"x",Option_Info!Z63)</f>
+        <f>IF(ISBLANK(Option_Info!AA63),"x",Option_Info!AA63)</f>
         <v>x</v>
       </c>
       <c r="AA63" t="str">
-        <f>IF(ISBLANK(Option_Info!AA63),"x",Option_Info!AA63)</f>
+        <f>IF(ISBLANK(Option_Info!AB63),"x",Option_Info!AB63)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27">
       <c r="A64">
         <f>IF(ISBLANK(Option_Info!A64),"x",Option_Info!A64)</f>
         <v>4</v>
@@ -13743,79 +13947,79 @@
         <v>x</v>
       </c>
       <c r="J64" t="str">
-        <f>IF(ISBLANK(Option_Info!J64),"x",Option_Info!J64)</f>
+        <f>IF(ISBLANK(Option_Info!K64),"x",Option_Info!K64)</f>
         <v>x</v>
       </c>
       <c r="K64" t="str">
-        <f>IF(ISBLANK(Option_Info!K64),"x",Option_Info!K64)</f>
+        <f>IF(ISBLANK(Option_Info!L64),"x",Option_Info!L64)</f>
         <v>x</v>
       </c>
       <c r="L64" t="str">
-        <f>IF(ISBLANK(Option_Info!L64),"x",Option_Info!L64)</f>
+        <f>IF(ISBLANK(Option_Info!M64),"x",Option_Info!M64)</f>
         <v>x</v>
       </c>
       <c r="M64" t="str">
-        <f>IF(ISBLANK(Option_Info!M64),"x",Option_Info!M64)</f>
+        <f>IF(ISBLANK(Option_Info!N64),"x",Option_Info!N64)</f>
         <v>x</v>
       </c>
       <c r="N64" t="str">
-        <f>IF(ISBLANK(Option_Info!N64),"x",Option_Info!N64)</f>
+        <f>IF(ISBLANK(Option_Info!O64),"x",Option_Info!O64)</f>
         <v>x</v>
       </c>
       <c r="O64" t="str">
-        <f>IF(ISBLANK(Option_Info!O64),"x",Option_Info!O64)</f>
+        <f>IF(ISBLANK(Option_Info!P64),"x",Option_Info!P64)</f>
         <v>x</v>
       </c>
       <c r="P64" t="str">
-        <f>IF(ISBLANK(Option_Info!P64),"x",Option_Info!P64)</f>
+        <f>IF(ISBLANK(Option_Info!Q64),"x",Option_Info!Q64)</f>
         <v>x</v>
       </c>
       <c r="Q64" t="str">
-        <f>IF(ISBLANK(Option_Info!Q64),"x",Option_Info!Q64)</f>
+        <f>IF(ISBLANK(Option_Info!R64),"x",Option_Info!R64)</f>
         <v>x</v>
       </c>
       <c r="R64" t="str">
-        <f>IF(ISBLANK(Option_Info!R64),"x",Option_Info!R64)</f>
+        <f>IF(ISBLANK(Option_Info!S64),"x",Option_Info!S64)</f>
         <v>x</v>
       </c>
       <c r="S64" t="str">
-        <f>IF(ISBLANK(Option_Info!S64),"x",Option_Info!S64)</f>
+        <f>IF(ISBLANK(Option_Info!T64),"x",Option_Info!T64)</f>
         <v>x</v>
       </c>
       <c r="T64" t="str">
-        <f>IF(ISBLANK(Option_Info!T64),"x",Option_Info!T64)</f>
+        <f>IF(ISBLANK(Option_Info!U64),"x",Option_Info!U64)</f>
         <v>x</v>
       </c>
       <c r="U64" t="str">
-        <f>IF(ISBLANK(Option_Info!U64),"x",Option_Info!U64)</f>
+        <f>IF(ISBLANK(Option_Info!V64),"x",Option_Info!V64)</f>
         <v>x</v>
       </c>
       <c r="V64" t="str">
-        <f>IF(ISBLANK(Option_Info!V64),"x",Option_Info!V64)</f>
+        <f>IF(ISBLANK(Option_Info!W64),"x",Option_Info!W64)</f>
         <v>x</v>
       </c>
       <c r="W64" t="str">
-        <f>IF(ISBLANK(Option_Info!W64),"x",Option_Info!W64)</f>
+        <f>IF(ISBLANK(Option_Info!X64),"x",Option_Info!X64)</f>
         <v>x</v>
       </c>
       <c r="X64" t="str">
-        <f>IF(ISBLANK(Option_Info!X64),"x",Option_Info!X64)</f>
+        <f>IF(ISBLANK(Option_Info!Y64),"x",Option_Info!Y64)</f>
         <v>x</v>
       </c>
       <c r="Y64" t="str">
-        <f>IF(ISBLANK(Option_Info!Y64),"x",Option_Info!Y64)</f>
+        <f>IF(ISBLANK(Option_Info!Z64),"x",Option_Info!Z64)</f>
         <v>x</v>
       </c>
       <c r="Z64" t="str">
-        <f>IF(ISBLANK(Option_Info!Z64),"x",Option_Info!Z64)</f>
+        <f>IF(ISBLANK(Option_Info!AA64),"x",Option_Info!AA64)</f>
         <v>x</v>
       </c>
       <c r="AA64" t="str">
-        <f>IF(ISBLANK(Option_Info!AA64),"x",Option_Info!AA64)</f>
+        <f>IF(ISBLANK(Option_Info!AB64),"x",Option_Info!AB64)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27">
       <c r="A65">
         <f>IF(ISBLANK(Option_Info!A65),"x",Option_Info!A65)</f>
         <v>4</v>
@@ -13853,79 +14057,79 @@
         <v>x</v>
       </c>
       <c r="J65" t="str">
-        <f>IF(ISBLANK(Option_Info!J65),"x",Option_Info!J65)</f>
+        <f>IF(ISBLANK(Option_Info!K65),"x",Option_Info!K65)</f>
         <v>x</v>
       </c>
       <c r="K65" t="str">
-        <f>IF(ISBLANK(Option_Info!K65),"x",Option_Info!K65)</f>
+        <f>IF(ISBLANK(Option_Info!L65),"x",Option_Info!L65)</f>
         <v>x</v>
       </c>
       <c r="L65" t="str">
-        <f>IF(ISBLANK(Option_Info!L65),"x",Option_Info!L65)</f>
+        <f>IF(ISBLANK(Option_Info!M65),"x",Option_Info!M65)</f>
         <v>x</v>
       </c>
       <c r="M65" t="str">
-        <f>IF(ISBLANK(Option_Info!M65),"x",Option_Info!M65)</f>
+        <f>IF(ISBLANK(Option_Info!N65),"x",Option_Info!N65)</f>
         <v>x</v>
       </c>
       <c r="N65" t="str">
-        <f>IF(ISBLANK(Option_Info!N65),"x",Option_Info!N65)</f>
+        <f>IF(ISBLANK(Option_Info!O65),"x",Option_Info!O65)</f>
         <v>x</v>
       </c>
       <c r="O65" t="str">
-        <f>IF(ISBLANK(Option_Info!O65),"x",Option_Info!O65)</f>
+        <f>IF(ISBLANK(Option_Info!P65),"x",Option_Info!P65)</f>
         <v>x</v>
       </c>
       <c r="P65" t="str">
-        <f>IF(ISBLANK(Option_Info!P65),"x",Option_Info!P65)</f>
+        <f>IF(ISBLANK(Option_Info!Q65),"x",Option_Info!Q65)</f>
         <v>x</v>
       </c>
       <c r="Q65" t="str">
-        <f>IF(ISBLANK(Option_Info!Q65),"x",Option_Info!Q65)</f>
+        <f>IF(ISBLANK(Option_Info!R65),"x",Option_Info!R65)</f>
         <v>x</v>
       </c>
       <c r="R65" t="str">
-        <f>IF(ISBLANK(Option_Info!R65),"x",Option_Info!R65)</f>
+        <f>IF(ISBLANK(Option_Info!S65),"x",Option_Info!S65)</f>
         <v>x</v>
       </c>
       <c r="S65" t="str">
-        <f>IF(ISBLANK(Option_Info!S65),"x",Option_Info!S65)</f>
+        <f>IF(ISBLANK(Option_Info!T65),"x",Option_Info!T65)</f>
         <v>x</v>
       </c>
       <c r="T65" t="str">
-        <f>IF(ISBLANK(Option_Info!T65),"x",Option_Info!T65)</f>
+        <f>IF(ISBLANK(Option_Info!U65),"x",Option_Info!U65)</f>
         <v>x</v>
       </c>
       <c r="U65" t="str">
-        <f>IF(ISBLANK(Option_Info!U65),"x",Option_Info!U65)</f>
+        <f>IF(ISBLANK(Option_Info!V65),"x",Option_Info!V65)</f>
         <v>x</v>
       </c>
       <c r="V65" t="str">
-        <f>IF(ISBLANK(Option_Info!V65),"x",Option_Info!V65)</f>
+        <f>IF(ISBLANK(Option_Info!W65),"x",Option_Info!W65)</f>
         <v>x</v>
       </c>
       <c r="W65" t="str">
-        <f>IF(ISBLANK(Option_Info!W65),"x",Option_Info!W65)</f>
+        <f>IF(ISBLANK(Option_Info!X65),"x",Option_Info!X65)</f>
         <v>x</v>
       </c>
       <c r="X65" t="str">
-        <f>IF(ISBLANK(Option_Info!X65),"x",Option_Info!X65)</f>
+        <f>IF(ISBLANK(Option_Info!Y65),"x",Option_Info!Y65)</f>
         <v>x</v>
       </c>
       <c r="Y65" t="str">
-        <f>IF(ISBLANK(Option_Info!Y65),"x",Option_Info!Y65)</f>
+        <f>IF(ISBLANK(Option_Info!Z65),"x",Option_Info!Z65)</f>
         <v>x</v>
       </c>
       <c r="Z65" t="str">
-        <f>IF(ISBLANK(Option_Info!Z65),"x",Option_Info!Z65)</f>
+        <f>IF(ISBLANK(Option_Info!AA65),"x",Option_Info!AA65)</f>
         <v>x</v>
       </c>
       <c r="AA65" t="str">
-        <f>IF(ISBLANK(Option_Info!AA65),"x",Option_Info!AA65)</f>
+        <f>IF(ISBLANK(Option_Info!AB65),"x",Option_Info!AB65)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27">
       <c r="A66">
         <f>IF(ISBLANK(Option_Info!A66),"x",Option_Info!A66)</f>
         <v>4</v>
@@ -13963,79 +14167,79 @@
         <v>x</v>
       </c>
       <c r="J66" t="str">
-        <f>IF(ISBLANK(Option_Info!J66),"x",Option_Info!J66)</f>
+        <f>IF(ISBLANK(Option_Info!K66),"x",Option_Info!K66)</f>
         <v>x</v>
       </c>
       <c r="K66" t="str">
-        <f>IF(ISBLANK(Option_Info!K66),"x",Option_Info!K66)</f>
+        <f>IF(ISBLANK(Option_Info!L66),"x",Option_Info!L66)</f>
         <v>x</v>
       </c>
       <c r="L66" t="str">
-        <f>IF(ISBLANK(Option_Info!L66),"x",Option_Info!L66)</f>
+        <f>IF(ISBLANK(Option_Info!M66),"x",Option_Info!M66)</f>
         <v>x</v>
       </c>
       <c r="M66" t="str">
-        <f>IF(ISBLANK(Option_Info!M66),"x",Option_Info!M66)</f>
+        <f>IF(ISBLANK(Option_Info!N66),"x",Option_Info!N66)</f>
         <v>x</v>
       </c>
       <c r="N66" t="str">
-        <f>IF(ISBLANK(Option_Info!N66),"x",Option_Info!N66)</f>
+        <f>IF(ISBLANK(Option_Info!O66),"x",Option_Info!O66)</f>
         <v>x</v>
       </c>
       <c r="O66" t="str">
-        <f>IF(ISBLANK(Option_Info!O66),"x",Option_Info!O66)</f>
+        <f>IF(ISBLANK(Option_Info!P66),"x",Option_Info!P66)</f>
         <v>x</v>
       </c>
       <c r="P66" t="str">
-        <f>IF(ISBLANK(Option_Info!P66),"x",Option_Info!P66)</f>
+        <f>IF(ISBLANK(Option_Info!Q66),"x",Option_Info!Q66)</f>
         <v>x</v>
       </c>
       <c r="Q66" t="str">
-        <f>IF(ISBLANK(Option_Info!Q66),"x",Option_Info!Q66)</f>
+        <f>IF(ISBLANK(Option_Info!R66),"x",Option_Info!R66)</f>
         <v>x</v>
       </c>
       <c r="R66" t="str">
-        <f>IF(ISBLANK(Option_Info!R66),"x",Option_Info!R66)</f>
+        <f>IF(ISBLANK(Option_Info!S66),"x",Option_Info!S66)</f>
         <v>x</v>
       </c>
       <c r="S66" t="str">
-        <f>IF(ISBLANK(Option_Info!S66),"x",Option_Info!S66)</f>
+        <f>IF(ISBLANK(Option_Info!T66),"x",Option_Info!T66)</f>
         <v>x</v>
       </c>
       <c r="T66" t="str">
-        <f>IF(ISBLANK(Option_Info!T66),"x",Option_Info!T66)</f>
+        <f>IF(ISBLANK(Option_Info!U66),"x",Option_Info!U66)</f>
         <v>x</v>
       </c>
       <c r="U66" t="str">
-        <f>IF(ISBLANK(Option_Info!U66),"x",Option_Info!U66)</f>
+        <f>IF(ISBLANK(Option_Info!V66),"x",Option_Info!V66)</f>
         <v>x</v>
       </c>
       <c r="V66" t="str">
-        <f>IF(ISBLANK(Option_Info!V66),"x",Option_Info!V66)</f>
+        <f>IF(ISBLANK(Option_Info!W66),"x",Option_Info!W66)</f>
         <v>x</v>
       </c>
       <c r="W66" t="str">
-        <f>IF(ISBLANK(Option_Info!W66),"x",Option_Info!W66)</f>
+        <f>IF(ISBLANK(Option_Info!X66),"x",Option_Info!X66)</f>
         <v>x</v>
       </c>
       <c r="X66" t="str">
-        <f>IF(ISBLANK(Option_Info!X66),"x",Option_Info!X66)</f>
+        <f>IF(ISBLANK(Option_Info!Y66),"x",Option_Info!Y66)</f>
         <v>x</v>
       </c>
       <c r="Y66" t="str">
-        <f>IF(ISBLANK(Option_Info!Y66),"x",Option_Info!Y66)</f>
+        <f>IF(ISBLANK(Option_Info!Z66),"x",Option_Info!Z66)</f>
         <v>x</v>
       </c>
       <c r="Z66" t="str">
-        <f>IF(ISBLANK(Option_Info!Z66),"x",Option_Info!Z66)</f>
+        <f>IF(ISBLANK(Option_Info!AA66),"x",Option_Info!AA66)</f>
         <v>x</v>
       </c>
       <c r="AA66" t="str">
-        <f>IF(ISBLANK(Option_Info!AA66),"x",Option_Info!AA66)</f>
+        <f>IF(ISBLANK(Option_Info!AB66),"x",Option_Info!AB66)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27">
       <c r="A67">
         <f>IF(ISBLANK(Option_Info!A67),"x",Option_Info!A67)</f>
         <v>4</v>
@@ -14073,75 +14277,75 @@
         <v>x</v>
       </c>
       <c r="J67" t="str">
-        <f>IF(ISBLANK(Option_Info!J67),"x",Option_Info!J67)</f>
+        <f>IF(ISBLANK(Option_Info!K67),"x",Option_Info!K67)</f>
         <v>x</v>
       </c>
       <c r="K67" t="str">
-        <f>IF(ISBLANK(Option_Info!K67),"x",Option_Info!K67)</f>
+        <f>IF(ISBLANK(Option_Info!L67),"x",Option_Info!L67)</f>
         <v>x</v>
       </c>
       <c r="L67">
-        <f>IF(ISBLANK(Option_Info!L67),"x",Option_Info!L67)</f>
+        <f>IF(ISBLANK(Option_Info!M67),"x",Option_Info!M67)</f>
         <v>2</v>
       </c>
       <c r="M67" t="str">
-        <f>IF(ISBLANK(Option_Info!M67),"x",Option_Info!M67)</f>
+        <f>IF(ISBLANK(Option_Info!N67),"x",Option_Info!N67)</f>
         <v>asd</v>
       </c>
       <c r="N67" t="str">
-        <f>IF(ISBLANK(Option_Info!N67),"x",Option_Info!N67)</f>
+        <f>IF(ISBLANK(Option_Info!O67),"x",Option_Info!O67)</f>
         <v>qwe</v>
       </c>
       <c r="O67" t="str">
-        <f>IF(ISBLANK(Option_Info!O67),"x",Option_Info!O67)</f>
+        <f>IF(ISBLANK(Option_Info!P67),"x",Option_Info!P67)</f>
         <v>x</v>
       </c>
       <c r="P67" t="str">
-        <f>IF(ISBLANK(Option_Info!P67),"x",Option_Info!P67)</f>
+        <f>IF(ISBLANK(Option_Info!Q67),"x",Option_Info!Q67)</f>
         <v>x</v>
       </c>
       <c r="Q67" t="str">
-        <f>IF(ISBLANK(Option_Info!Q67),"x",Option_Info!Q67)</f>
+        <f>IF(ISBLANK(Option_Info!R67),"x",Option_Info!R67)</f>
         <v>x</v>
       </c>
       <c r="R67" t="str">
-        <f>IF(ISBLANK(Option_Info!R67),"x",Option_Info!R67)</f>
+        <f>IF(ISBLANK(Option_Info!S67),"x",Option_Info!S67)</f>
         <v>x</v>
       </c>
       <c r="S67" t="str">
-        <f>IF(ISBLANK(Option_Info!S67),"x",Option_Info!S67)</f>
+        <f>IF(ISBLANK(Option_Info!T67),"x",Option_Info!T67)</f>
         <v>x</v>
       </c>
       <c r="T67" t="str">
-        <f>IF(ISBLANK(Option_Info!T67),"x",Option_Info!T67)</f>
+        <f>IF(ISBLANK(Option_Info!U67),"x",Option_Info!U67)</f>
         <v>x</v>
       </c>
       <c r="U67" t="str">
-        <f>IF(ISBLANK(Option_Info!U67),"x",Option_Info!U67)</f>
+        <f>IF(ISBLANK(Option_Info!V67),"x",Option_Info!V67)</f>
         <v>x</v>
       </c>
       <c r="V67" t="str">
-        <f>IF(ISBLANK(Option_Info!V67),"x",Option_Info!V67)</f>
+        <f>IF(ISBLANK(Option_Info!W67),"x",Option_Info!W67)</f>
         <v>x</v>
       </c>
       <c r="W67" t="str">
-        <f>IF(ISBLANK(Option_Info!W67),"x",Option_Info!W67)</f>
+        <f>IF(ISBLANK(Option_Info!X67),"x",Option_Info!X67)</f>
         <v>x</v>
       </c>
       <c r="X67" t="str">
-        <f>IF(ISBLANK(Option_Info!X67),"x",Option_Info!X67)</f>
+        <f>IF(ISBLANK(Option_Info!Y67),"x",Option_Info!Y67)</f>
         <v>x</v>
       </c>
       <c r="Y67" t="str">
-        <f>IF(ISBLANK(Option_Info!Y67),"x",Option_Info!Y67)</f>
+        <f>IF(ISBLANK(Option_Info!Z67),"x",Option_Info!Z67)</f>
         <v>x</v>
       </c>
       <c r="Z67" t="str">
-        <f>IF(ISBLANK(Option_Info!Z67),"x",Option_Info!Z67)</f>
+        <f>IF(ISBLANK(Option_Info!AA67),"x",Option_Info!AA67)</f>
         <v>x</v>
       </c>
       <c r="AA67" t="str">
-        <f>IF(ISBLANK(Option_Info!AA67),"x",Option_Info!AA67)</f>
+        <f>IF(ISBLANK(Option_Info!AB67),"x",Option_Info!AB67)</f>
         <v>x</v>
       </c>
     </row>

--- a/Framework_DX11/Client/Bin/DataFiles/Option_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Option_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EC6D40-CB64-42FC-A63C-077DD5E4A4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D2CE80E8-AB76-46BC-81B0-4EECEC79FF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2290D950-B46F-496D-ABBD-627B5B361E37}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 안내 문구 67</t>
-  </si>
-  <si>
     <t>그래픽 효과 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,12 +260,16 @@
     <t xml:space="preserve">UI 조작 효과음을 조절합니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>게임을 종료합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,10 +771,10 @@
   <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
@@ -783,7 +784,7 @@
     <col min="6" max="28" width="7.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -872,7 +873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -883,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6">
         <v>11100100</v>
@@ -958,10 +959,10 @@
         <v>28</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -972,16 +973,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>28</v>
@@ -1047,10 +1048,10 @@
         <v>28</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1061,16 +1062,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>28</v>
@@ -1136,10 +1137,10 @@
         <v>28</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1150,16 +1151,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
@@ -1225,10 +1226,10 @@
         <v>28</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1239,16 +1240,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>28</v>
@@ -1314,10 +1315,10 @@
         <v>28</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1328,16 +1329,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
@@ -1403,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="15" customHeight="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1417,16 +1418,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
@@ -1492,10 +1493,10 @@
         <v>28</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7">
         <v>11100101</v>
@@ -1581,10 +1582,10 @@
         <v>28</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="15" customHeight="1">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
@@ -1622,7 +1623,7 @@
         <v>0.01</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>28</v>
@@ -1670,10 +1671,10 @@
         <v>28</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="15" customHeight="1">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
@@ -1759,10 +1760,10 @@
         <v>28</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="15" customHeight="1">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -1848,10 +1849,10 @@
         <v>28</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="15" customHeight="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
@@ -1937,10 +1938,10 @@
         <v>28</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="15" customHeight="1">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
@@ -2026,10 +2027,10 @@
         <v>28</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="15" customHeight="1">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>28</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2135,9 +2136,9 @@
       <selection sqref="A1:AA67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="A1" t="str">
         <f>IF(ISBLANK(Option_Info!A1),"x",Option_Info!A1)</f>
         <v>_TabNum</v>
@@ -2247,7 +2248,7 @@
         <v>_Drop14</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2">
         <f>IF(ISBLANK(Option_Info!A2),"x",Option_Info!A2)</f>
         <v>0</v>
@@ -2357,7 +2358,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3">
         <f>IF(ISBLANK(Option_Info!A3),"x",Option_Info!A3)</f>
         <v>0</v>
@@ -2467,7 +2468,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27">
       <c r="A4">
         <f>IF(ISBLANK(Option_Info!A4),"x",Option_Info!A4)</f>
         <v>0</v>
@@ -2577,7 +2578,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5">
         <f>IF(ISBLANK(Option_Info!A5),"x",Option_Info!A5)</f>
         <v>0</v>
@@ -2687,7 +2688,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6">
         <f>IF(ISBLANK(Option_Info!A6),"x",Option_Info!A6)</f>
         <v>0</v>
@@ -2797,7 +2798,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27">
       <c r="A7">
         <f>IF(ISBLANK(Option_Info!A7),"x",Option_Info!A7)</f>
         <v>0</v>
@@ -2907,7 +2908,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8">
         <f>IF(ISBLANK(Option_Info!A8),"x",Option_Info!A8)</f>
         <v>0</v>
@@ -3017,7 +3018,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27">
       <c r="A9" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -3127,7 +3128,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27">
       <c r="A10" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -3237,7 +3238,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27">
       <c r="A11" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -3347,7 +3348,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27">
       <c r="A12" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -3457,7 +3458,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27">
       <c r="A13" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -3567,7 +3568,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27">
       <c r="A14" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -3677,7 +3678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27">
       <c r="A15">
         <f>IF(ISBLANK(Option_Info!A9),"x",Option_Info!A9)</f>
         <v>1</v>
@@ -3787,7 +3788,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27">
       <c r="A16">
         <f>IF(ISBLANK(Option_Info!A10),"x",Option_Info!A10)</f>
         <v>1</v>
@@ -3897,7 +3898,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17">
         <f>IF(ISBLANK(Option_Info!A11),"x",Option_Info!A11)</f>
         <v>1</v>
@@ -4007,7 +4008,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18">
         <f>IF(ISBLANK(Option_Info!A12),"x",Option_Info!A12)</f>
         <v>1</v>
@@ -4117,7 +4118,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19">
         <f>IF(ISBLANK(Option_Info!A13),"x",Option_Info!A13)</f>
         <v>1</v>
@@ -4227,7 +4228,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20">
         <f>IF(ISBLANK(Option_Info!A14),"x",Option_Info!A14)</f>
         <v>1</v>
@@ -4337,7 +4338,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -4447,7 +4448,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -4557,7 +4558,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -4667,7 +4668,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -4777,7 +4778,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -4887,7 +4888,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -4997,7 +4998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5107,7 +5108,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5217,7 +5218,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5327,7 +5328,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5437,7 +5438,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5547,7 +5548,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5657,7 +5658,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5767,7 +5768,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="A34" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5877,7 +5878,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -5987,7 +5988,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6097,7 +6098,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6207,7 +6208,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="A38" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6317,7 +6318,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="A39" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6427,7 +6428,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="A40" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6537,7 +6538,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27">
       <c r="A41" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6647,7 +6648,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27">
       <c r="A42" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6757,7 +6758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27">
       <c r="A43" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6867,7 +6868,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27">
       <c r="A44" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -6977,7 +6978,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27">
       <c r="A45" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7087,7 +7088,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7197,7 +7198,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27">
       <c r="A47" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7307,7 +7308,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27">
       <c r="A48" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7417,7 +7418,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27">
       <c r="A49" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7527,7 +7528,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27">
       <c r="A50" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7637,7 +7638,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27">
       <c r="A51" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7747,7 +7748,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27">
       <c r="A52" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7857,7 +7858,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27">
       <c r="A53" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -7967,7 +7968,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27">
       <c r="A54" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8077,7 +8078,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27">
       <c r="A55" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8187,7 +8188,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27">
       <c r="A56" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8297,7 +8298,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27">
       <c r="A57" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8407,7 +8408,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27">
       <c r="A58" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8517,7 +8518,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27">
       <c r="A59" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8627,7 +8628,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27">
       <c r="A60" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8737,7 +8738,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27">
       <c r="A61" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8847,7 +8848,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27">
       <c r="A62" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -8957,7 +8958,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27">
       <c r="A63" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -9067,7 +9068,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27">
       <c r="A64" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -9177,7 +9178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27">
       <c r="A65" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -9287,7 +9288,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27">
       <c r="A66" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>
@@ -9397,7 +9398,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27">
       <c r="A67" t="e">
         <f>IF(ISBLANK(Option_Info!#REF!),"x",Option_Info!#REF!)</f>
         <v>#REF!</v>

--- a/Framework_DX11/Client/Bin/DataFiles/Option_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Option_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D2CE80E8-AB76-46BC-81B0-4EECEC79FF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A779D4-5AC9-4B41-A422-C832AF6F0684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2290D950-B46F-496D-ABBD-627B5B361E37}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="68">
   <si>
     <t>_Drop1</t>
   </si>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>게임을 종료합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신 볼륨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신의 음량을 조절합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD76422B-C730-4758-9A3A-C411041C80A0}">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2031,97 +2039,186 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15" customHeight="1">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>11100037</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC15" s="7" t="s">
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC16" s="7" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E14">
+  <conditionalFormatting sqref="E2:E15">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
